--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10613"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/itaegyeong/PycharmProjects/NaverAd/data/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E88AFD63-9FD4-8E47-87D7-9C5A9A981633}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="750" yWindow="570" windowWidth="19095" windowHeight="7200"/>
+    <workbookView xWindow="760" yWindow="580" windowWidth="20700" windowHeight="14600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
@@ -13,11 +19,12 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet!$A$1:$L$1</definedName>
   </definedNames>
   <calcPr calcId="0"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6385" uniqueCount="1840">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6387" uniqueCount="1842">
   <si>
     <t>그룹ID</t>
   </si>
@@ -5541,13 +5548,20 @@
   <si>
     <t>grp-a001-01-000000007300723</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>도메인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>www.modetour.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -5560,6 +5574,14 @@
       <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -5580,21 +5602,27 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="하이퍼링크" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -5884,31 +5912,33 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S911"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="P5" sqref="P5"/>
+      <selection activeCell="P8" sqref="P8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
   <cols>
     <col min="1" max="1" width="29.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="34" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.75" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="26.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.1640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="23.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="30.25" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="30.1640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="20" customWidth="1"/>
     <col min="9" max="9" width="11" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.1640625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="11" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="9" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.1640625" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="11" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="26.1640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="23.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5954,8 +5984,11 @@
       <c r="O1" t="s">
         <v>1838</v>
       </c>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="P1" t="s">
+        <v>1840</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" t="s">
         <v>1839</v>
       </c>
@@ -6001,12 +6034,13 @@
       <c r="O2" s="1">
         <v>3</v>
       </c>
-      <c r="P2" s="1"/>
-      <c r="Q2" s="1"/>
+      <c r="P2" s="2" t="s">
+        <v>1841</v>
+      </c>
       <c r="R2" s="1"/>
       <c r="S2" s="1"/>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19">
       <c r="A3" t="s">
         <v>1839</v>
       </c>
@@ -6057,7 +6091,7 @@
       <c r="R3" s="1"/>
       <c r="S3" s="1"/>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:19">
       <c r="A4" t="s">
         <v>1839</v>
       </c>
@@ -6108,7 +6142,7 @@
       <c r="R4" s="1"/>
       <c r="S4" s="1"/>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:19">
       <c r="A5" t="s">
         <v>1839</v>
       </c>
@@ -6159,7 +6193,7 @@
       <c r="R5" s="1"/>
       <c r="S5" s="1"/>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:19">
       <c r="A6" t="s">
         <v>1839</v>
       </c>
@@ -6210,7 +6244,7 @@
       <c r="R6" s="1"/>
       <c r="S6" s="1"/>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:19">
       <c r="A7" t="s">
         <v>1839</v>
       </c>
@@ -6261,7 +6295,7 @@
       <c r="R7" s="1"/>
       <c r="S7" s="1"/>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:19">
       <c r="A8" t="s">
         <v>1839</v>
       </c>
@@ -6312,7 +6346,7 @@
       <c r="R8" s="1"/>
       <c r="S8" s="1"/>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:19">
       <c r="A9" t="s">
         <v>1839</v>
       </c>
@@ -6363,7 +6397,7 @@
       <c r="R9" s="1"/>
       <c r="S9" s="1"/>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:19">
       <c r="A10" t="s">
         <v>1839</v>
       </c>
@@ -6414,7 +6448,7 @@
       <c r="R10" s="1"/>
       <c r="S10" s="1"/>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:19">
       <c r="A11" t="s">
         <v>1839</v>
       </c>
@@ -6465,7 +6499,7 @@
       <c r="R11" s="1"/>
       <c r="S11" s="1"/>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:19">
       <c r="A12" t="s">
         <v>1839</v>
       </c>
@@ -6516,7 +6550,7 @@
       <c r="R12" s="1"/>
       <c r="S12" s="1"/>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:19">
       <c r="A13" t="s">
         <v>1839</v>
       </c>
@@ -6567,7 +6601,7 @@
       <c r="R13" s="1"/>
       <c r="S13" s="1"/>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:19">
       <c r="A14" t="s">
         <v>1839</v>
       </c>
@@ -6618,7 +6652,7 @@
       <c r="R14" s="1"/>
       <c r="S14" s="1"/>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:19">
       <c r="A15" t="s">
         <v>1839</v>
       </c>
@@ -6669,7 +6703,7 @@
       <c r="R15" s="1"/>
       <c r="S15" s="1"/>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:19">
       <c r="A16" t="s">
         <v>1839</v>
       </c>
@@ -6720,7 +6754,7 @@
       <c r="R16" s="1"/>
       <c r="S16" s="1"/>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:19">
       <c r="A17" t="s">
         <v>1839</v>
       </c>
@@ -6771,7 +6805,7 @@
       <c r="R17" s="1"/>
       <c r="S17" s="1"/>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:19">
       <c r="A18" t="s">
         <v>1839</v>
       </c>
@@ -6822,7 +6856,7 @@
       <c r="R18" s="1"/>
       <c r="S18" s="1"/>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:19">
       <c r="A19" t="s">
         <v>1839</v>
       </c>
@@ -6873,7 +6907,7 @@
       <c r="R19" s="1"/>
       <c r="S19" s="1"/>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:19">
       <c r="A20" t="s">
         <v>1839</v>
       </c>
@@ -6924,7 +6958,7 @@
       <c r="R20" s="1"/>
       <c r="S20" s="1"/>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:19">
       <c r="A21" t="s">
         <v>1839</v>
       </c>
@@ -6975,7 +7009,7 @@
       <c r="R21" s="1"/>
       <c r="S21" s="1"/>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:19">
       <c r="A22" t="s">
         <v>1839</v>
       </c>
@@ -7026,7 +7060,7 @@
       <c r="R22" s="1"/>
       <c r="S22" s="1"/>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:19">
       <c r="A23" t="s">
         <v>1839</v>
       </c>
@@ -7077,7 +7111,7 @@
       <c r="R23" s="1"/>
       <c r="S23" s="1"/>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:19">
       <c r="A24" t="s">
         <v>1839</v>
       </c>
@@ -7128,7 +7162,7 @@
       <c r="R24" s="1"/>
       <c r="S24" s="1"/>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:19">
       <c r="A25" t="s">
         <v>1839</v>
       </c>
@@ -7179,7 +7213,7 @@
       <c r="R25" s="1"/>
       <c r="S25" s="1"/>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:19">
       <c r="A26" t="s">
         <v>1839</v>
       </c>
@@ -7230,7 +7264,7 @@
       <c r="R26" s="1"/>
       <c r="S26" s="1"/>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:19">
       <c r="A27" t="s">
         <v>1839</v>
       </c>
@@ -7281,7 +7315,7 @@
       <c r="R27" s="1"/>
       <c r="S27" s="1"/>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:19">
       <c r="A28" t="s">
         <v>1839</v>
       </c>
@@ -7332,7 +7366,7 @@
       <c r="R28" s="1"/>
       <c r="S28" s="1"/>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:19">
       <c r="A29" t="s">
         <v>1839</v>
       </c>
@@ -7383,7 +7417,7 @@
       <c r="R29" s="1"/>
       <c r="S29" s="1"/>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:19">
       <c r="A30" t="s">
         <v>1839</v>
       </c>
@@ -7434,7 +7468,7 @@
       <c r="R30" s="1"/>
       <c r="S30" s="1"/>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:19">
       <c r="A31" t="s">
         <v>1839</v>
       </c>
@@ -7485,7 +7519,7 @@
       <c r="R31" s="1"/>
       <c r="S31" s="1"/>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:19">
       <c r="A32" t="s">
         <v>1839</v>
       </c>
@@ -7536,7 +7570,7 @@
       <c r="R32" s="1"/>
       <c r="S32" s="1"/>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:19">
       <c r="A33" t="s">
         <v>1839</v>
       </c>
@@ -7587,7 +7621,7 @@
       <c r="R33" s="1"/>
       <c r="S33" s="1"/>
     </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:19">
       <c r="A34" t="s">
         <v>1839</v>
       </c>
@@ -7638,7 +7672,7 @@
       <c r="R34" s="1"/>
       <c r="S34" s="1"/>
     </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:19">
       <c r="A35" t="s">
         <v>1839</v>
       </c>
@@ -7689,7 +7723,7 @@
       <c r="R35" s="1"/>
       <c r="S35" s="1"/>
     </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:19">
       <c r="A36" t="s">
         <v>1839</v>
       </c>
@@ -7740,7 +7774,7 @@
       <c r="R36" s="1"/>
       <c r="S36" s="1"/>
     </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:19">
       <c r="A37" t="s">
         <v>1839</v>
       </c>
@@ -7791,7 +7825,7 @@
       <c r="R37" s="1"/>
       <c r="S37" s="1"/>
     </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:19">
       <c r="A38" t="s">
         <v>1839</v>
       </c>
@@ -7842,7 +7876,7 @@
       <c r="R38" s="1"/>
       <c r="S38" s="1"/>
     </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:19">
       <c r="A39" t="s">
         <v>1839</v>
       </c>
@@ -7893,7 +7927,7 @@
       <c r="R39" s="1"/>
       <c r="S39" s="1"/>
     </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:19">
       <c r="A40" t="s">
         <v>1839</v>
       </c>
@@ -7944,7 +7978,7 @@
       <c r="R40" s="1"/>
       <c r="S40" s="1"/>
     </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:19">
       <c r="A41" t="s">
         <v>1839</v>
       </c>
@@ -7995,7 +8029,7 @@
       <c r="R41" s="1"/>
       <c r="S41" s="1"/>
     </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:19">
       <c r="A42" t="s">
         <v>1839</v>
       </c>
@@ -8046,7 +8080,7 @@
       <c r="R42" s="1"/>
       <c r="S42" s="1"/>
     </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:19">
       <c r="A43" t="s">
         <v>1839</v>
       </c>
@@ -8097,7 +8131,7 @@
       <c r="R43" s="1"/>
       <c r="S43" s="1"/>
     </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:19">
       <c r="A44" t="s">
         <v>1839</v>
       </c>
@@ -8148,7 +8182,7 @@
       <c r="R44" s="1"/>
       <c r="S44" s="1"/>
     </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:19">
       <c r="A45" t="s">
         <v>1839</v>
       </c>
@@ -8199,7 +8233,7 @@
       <c r="R45" s="1"/>
       <c r="S45" s="1"/>
     </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:19">
       <c r="A46" t="s">
         <v>1839</v>
       </c>
@@ -8250,7 +8284,7 @@
       <c r="R46" s="1"/>
       <c r="S46" s="1"/>
     </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:19">
       <c r="A47" t="s">
         <v>1839</v>
       </c>
@@ -8301,7 +8335,7 @@
       <c r="R47" s="1"/>
       <c r="S47" s="1"/>
     </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:19">
       <c r="A48" t="s">
         <v>1839</v>
       </c>
@@ -8352,7 +8386,7 @@
       <c r="R48" s="1"/>
       <c r="S48" s="1"/>
     </row>
-    <row r="49" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:19">
       <c r="A49" t="s">
         <v>1839</v>
       </c>
@@ -8403,7 +8437,7 @@
       <c r="R49" s="1"/>
       <c r="S49" s="1"/>
     </row>
-    <row r="50" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:19">
       <c r="A50" t="s">
         <v>1839</v>
       </c>
@@ -8454,7 +8488,7 @@
       <c r="R50" s="1"/>
       <c r="S50" s="1"/>
     </row>
-    <row r="51" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:19">
       <c r="A51" t="s">
         <v>1839</v>
       </c>
@@ -8505,7 +8539,7 @@
       <c r="R51" s="1"/>
       <c r="S51" s="1"/>
     </row>
-    <row r="52" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:19">
       <c r="A52" t="s">
         <v>1839</v>
       </c>
@@ -8556,7 +8590,7 @@
       <c r="R52" s="1"/>
       <c r="S52" s="1"/>
     </row>
-    <row r="53" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:19">
       <c r="A53" t="s">
         <v>1839</v>
       </c>
@@ -8607,7 +8641,7 @@
       <c r="R53" s="1"/>
       <c r="S53" s="1"/>
     </row>
-    <row r="54" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:19">
       <c r="A54" t="s">
         <v>1839</v>
       </c>
@@ -8658,7 +8692,7 @@
       <c r="R54" s="1"/>
       <c r="S54" s="1"/>
     </row>
-    <row r="55" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:19">
       <c r="A55" t="s">
         <v>1839</v>
       </c>
@@ -8709,7 +8743,7 @@
       <c r="R55" s="1"/>
       <c r="S55" s="1"/>
     </row>
-    <row r="56" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:19">
       <c r="A56" t="s">
         <v>1839</v>
       </c>
@@ -8760,7 +8794,7 @@
       <c r="R56" s="1"/>
       <c r="S56" s="1"/>
     </row>
-    <row r="57" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:19">
       <c r="A57" t="s">
         <v>1839</v>
       </c>
@@ -8811,7 +8845,7 @@
       <c r="R57" s="1"/>
       <c r="S57" s="1"/>
     </row>
-    <row r="58" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:19">
       <c r="A58" t="s">
         <v>1839</v>
       </c>
@@ -8862,7 +8896,7 @@
       <c r="R58" s="1"/>
       <c r="S58" s="1"/>
     </row>
-    <row r="59" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:19">
       <c r="A59" t="s">
         <v>1839</v>
       </c>
@@ -8913,7 +8947,7 @@
       <c r="R59" s="1"/>
       <c r="S59" s="1"/>
     </row>
-    <row r="60" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:19">
       <c r="A60" t="s">
         <v>1839</v>
       </c>
@@ -8964,7 +8998,7 @@
       <c r="R60" s="1"/>
       <c r="S60" s="1"/>
     </row>
-    <row r="61" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:19">
       <c r="A61" t="s">
         <v>1839</v>
       </c>
@@ -9015,7 +9049,7 @@
       <c r="R61" s="1"/>
       <c r="S61" s="1"/>
     </row>
-    <row r="62" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:19">
       <c r="A62" t="s">
         <v>1839</v>
       </c>
@@ -9066,7 +9100,7 @@
       <c r="R62" s="1"/>
       <c r="S62" s="1"/>
     </row>
-    <row r="63" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:19">
       <c r="A63" t="s">
         <v>1839</v>
       </c>
@@ -9117,7 +9151,7 @@
       <c r="R63" s="1"/>
       <c r="S63" s="1"/>
     </row>
-    <row r="64" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:19">
       <c r="A64" t="s">
         <v>1839</v>
       </c>
@@ -9168,7 +9202,7 @@
       <c r="R64" s="1"/>
       <c r="S64" s="1"/>
     </row>
-    <row r="65" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:19">
       <c r="A65" t="s">
         <v>1839</v>
       </c>
@@ -9219,7 +9253,7 @@
       <c r="R65" s="1"/>
       <c r="S65" s="1"/>
     </row>
-    <row r="66" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:19">
       <c r="A66" t="s">
         <v>1839</v>
       </c>
@@ -9270,7 +9304,7 @@
       <c r="R66" s="1"/>
       <c r="S66" s="1"/>
     </row>
-    <row r="67" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:19">
       <c r="A67" t="s">
         <v>1839</v>
       </c>
@@ -9321,7 +9355,7 @@
       <c r="R67" s="1"/>
       <c r="S67" s="1"/>
     </row>
-    <row r="68" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:19">
       <c r="A68" t="s">
         <v>1839</v>
       </c>
@@ -9372,7 +9406,7 @@
       <c r="R68" s="1"/>
       <c r="S68" s="1"/>
     </row>
-    <row r="69" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:19">
       <c r="A69" t="s">
         <v>1839</v>
       </c>
@@ -9423,7 +9457,7 @@
       <c r="R69" s="1"/>
       <c r="S69" s="1"/>
     </row>
-    <row r="70" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:19">
       <c r="A70" t="s">
         <v>1839</v>
       </c>
@@ -9474,7 +9508,7 @@
       <c r="R70" s="1"/>
       <c r="S70" s="1"/>
     </row>
-    <row r="71" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:19">
       <c r="A71" t="s">
         <v>1839</v>
       </c>
@@ -9525,7 +9559,7 @@
       <c r="R71" s="1"/>
       <c r="S71" s="1"/>
     </row>
-    <row r="72" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:19">
       <c r="A72" t="s">
         <v>1839</v>
       </c>
@@ -9576,7 +9610,7 @@
       <c r="R72" s="1"/>
       <c r="S72" s="1"/>
     </row>
-    <row r="73" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:19">
       <c r="A73" t="s">
         <v>1839</v>
       </c>
@@ -9627,7 +9661,7 @@
       <c r="R73" s="1"/>
       <c r="S73" s="1"/>
     </row>
-    <row r="74" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:19">
       <c r="A74" t="s">
         <v>1839</v>
       </c>
@@ -9678,7 +9712,7 @@
       <c r="R74" s="1"/>
       <c r="S74" s="1"/>
     </row>
-    <row r="75" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:19">
       <c r="A75" t="s">
         <v>1839</v>
       </c>
@@ -9729,7 +9763,7 @@
       <c r="R75" s="1"/>
       <c r="S75" s="1"/>
     </row>
-    <row r="76" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:19">
       <c r="A76" t="s">
         <v>1839</v>
       </c>
@@ -9780,7 +9814,7 @@
       <c r="R76" s="1"/>
       <c r="S76" s="1"/>
     </row>
-    <row r="77" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:19">
       <c r="A77" t="s">
         <v>1839</v>
       </c>
@@ -9831,7 +9865,7 @@
       <c r="R77" s="1"/>
       <c r="S77" s="1"/>
     </row>
-    <row r="78" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:19">
       <c r="A78" t="s">
         <v>1839</v>
       </c>
@@ -9882,7 +9916,7 @@
       <c r="R78" s="1"/>
       <c r="S78" s="1"/>
     </row>
-    <row r="79" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:19">
       <c r="A79" t="s">
         <v>1839</v>
       </c>
@@ -9933,7 +9967,7 @@
       <c r="R79" s="1"/>
       <c r="S79" s="1"/>
     </row>
-    <row r="80" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:19">
       <c r="A80" t="s">
         <v>1839</v>
       </c>
@@ -9984,7 +10018,7 @@
       <c r="R80" s="1"/>
       <c r="S80" s="1"/>
     </row>
-    <row r="81" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:19">
       <c r="A81" t="s">
         <v>1839</v>
       </c>
@@ -10035,7 +10069,7 @@
       <c r="R81" s="1"/>
       <c r="S81" s="1"/>
     </row>
-    <row r="82" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:19">
       <c r="A82" t="s">
         <v>1839</v>
       </c>
@@ -10086,7 +10120,7 @@
       <c r="R82" s="1"/>
       <c r="S82" s="1"/>
     </row>
-    <row r="83" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:19">
       <c r="A83" t="s">
         <v>1839</v>
       </c>
@@ -10137,7 +10171,7 @@
       <c r="R83" s="1"/>
       <c r="S83" s="1"/>
     </row>
-    <row r="84" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:19">
       <c r="A84" t="s">
         <v>1839</v>
       </c>
@@ -10188,7 +10222,7 @@
       <c r="R84" s="1"/>
       <c r="S84" s="1"/>
     </row>
-    <row r="85" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:19">
       <c r="A85" t="s">
         <v>1839</v>
       </c>
@@ -10239,7 +10273,7 @@
       <c r="R85" s="1"/>
       <c r="S85" s="1"/>
     </row>
-    <row r="86" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:19">
       <c r="A86" t="s">
         <v>1839</v>
       </c>
@@ -10290,7 +10324,7 @@
       <c r="R86" s="1"/>
       <c r="S86" s="1"/>
     </row>
-    <row r="87" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:19">
       <c r="A87" t="s">
         <v>1839</v>
       </c>
@@ -10341,7 +10375,7 @@
       <c r="R87" s="1"/>
       <c r="S87" s="1"/>
     </row>
-    <row r="88" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:19">
       <c r="A88" t="s">
         <v>1839</v>
       </c>
@@ -10392,7 +10426,7 @@
       <c r="R88" s="1"/>
       <c r="S88" s="1"/>
     </row>
-    <row r="89" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:19">
       <c r="A89" t="s">
         <v>1839</v>
       </c>
@@ -10443,7 +10477,7 @@
       <c r="R89" s="1"/>
       <c r="S89" s="1"/>
     </row>
-    <row r="90" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:19">
       <c r="A90" t="s">
         <v>1839</v>
       </c>
@@ -10494,7 +10528,7 @@
       <c r="R90" s="1"/>
       <c r="S90" s="1"/>
     </row>
-    <row r="91" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:19">
       <c r="A91" t="s">
         <v>1839</v>
       </c>
@@ -10545,7 +10579,7 @@
       <c r="R91" s="1"/>
       <c r="S91" s="1"/>
     </row>
-    <row r="92" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:19">
       <c r="A92" t="s">
         <v>1839</v>
       </c>
@@ -10596,7 +10630,7 @@
       <c r="R92" s="1"/>
       <c r="S92" s="1"/>
     </row>
-    <row r="93" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:19">
       <c r="A93" t="s">
         <v>1839</v>
       </c>
@@ -10647,7 +10681,7 @@
       <c r="R93" s="1"/>
       <c r="S93" s="1"/>
     </row>
-    <row r="94" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:19">
       <c r="A94" t="s">
         <v>1839</v>
       </c>
@@ -10698,7 +10732,7 @@
       <c r="R94" s="1"/>
       <c r="S94" s="1"/>
     </row>
-    <row r="95" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:19">
       <c r="A95" t="s">
         <v>1839</v>
       </c>
@@ -10749,7 +10783,7 @@
       <c r="R95" s="1"/>
       <c r="S95" s="1"/>
     </row>
-    <row r="96" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:19">
       <c r="A96" t="s">
         <v>1839</v>
       </c>
@@ -10800,7 +10834,7 @@
       <c r="R96" s="1"/>
       <c r="S96" s="1"/>
     </row>
-    <row r="97" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:19">
       <c r="A97" t="s">
         <v>1839</v>
       </c>
@@ -10851,7 +10885,7 @@
       <c r="R97" s="1"/>
       <c r="S97" s="1"/>
     </row>
-    <row r="98" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:19">
       <c r="A98" t="s">
         <v>1839</v>
       </c>
@@ -10902,7 +10936,7 @@
       <c r="R98" s="1"/>
       <c r="S98" s="1"/>
     </row>
-    <row r="99" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:19">
       <c r="A99" t="s">
         <v>1839</v>
       </c>
@@ -10953,7 +10987,7 @@
       <c r="R99" s="1"/>
       <c r="S99" s="1"/>
     </row>
-    <row r="100" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:19">
       <c r="A100" t="s">
         <v>1839</v>
       </c>
@@ -11004,7 +11038,7 @@
       <c r="R100" s="1"/>
       <c r="S100" s="1"/>
     </row>
-    <row r="101" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:19">
       <c r="A101" t="s">
         <v>1839</v>
       </c>
@@ -11055,7 +11089,7 @@
       <c r="R101" s="1"/>
       <c r="S101" s="1"/>
     </row>
-    <row r="102" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:19">
       <c r="A102" t="s">
         <v>1839</v>
       </c>
@@ -11106,7 +11140,7 @@
       <c r="R102" s="1"/>
       <c r="S102" s="1"/>
     </row>
-    <row r="103" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:19">
       <c r="A103" t="s">
         <v>1839</v>
       </c>
@@ -11157,7 +11191,7 @@
       <c r="R103" s="1"/>
       <c r="S103" s="1"/>
     </row>
-    <row r="104" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:19">
       <c r="A104" t="s">
         <v>1839</v>
       </c>
@@ -11208,7 +11242,7 @@
       <c r="R104" s="1"/>
       <c r="S104" s="1"/>
     </row>
-    <row r="105" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:19">
       <c r="A105" t="s">
         <v>1839</v>
       </c>
@@ -11259,7 +11293,7 @@
       <c r="R105" s="1"/>
       <c r="S105" s="1"/>
     </row>
-    <row r="106" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:19">
       <c r="A106" t="s">
         <v>1839</v>
       </c>
@@ -11310,7 +11344,7 @@
       <c r="R106" s="1"/>
       <c r="S106" s="1"/>
     </row>
-    <row r="107" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:19">
       <c r="A107" t="s">
         <v>1839</v>
       </c>
@@ -11361,7 +11395,7 @@
       <c r="R107" s="1"/>
       <c r="S107" s="1"/>
     </row>
-    <row r="108" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:19">
       <c r="A108" t="s">
         <v>1839</v>
       </c>
@@ -11412,7 +11446,7 @@
       <c r="R108" s="1"/>
       <c r="S108" s="1"/>
     </row>
-    <row r="109" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:19">
       <c r="A109" t="s">
         <v>1839</v>
       </c>
@@ -11463,7 +11497,7 @@
       <c r="R109" s="1"/>
       <c r="S109" s="1"/>
     </row>
-    <row r="110" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:19">
       <c r="A110" t="s">
         <v>1839</v>
       </c>
@@ -11514,7 +11548,7 @@
       <c r="R110" s="1"/>
       <c r="S110" s="1"/>
     </row>
-    <row r="111" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:19">
       <c r="A111" t="s">
         <v>1839</v>
       </c>
@@ -11565,7 +11599,7 @@
       <c r="R111" s="1"/>
       <c r="S111" s="1"/>
     </row>
-    <row r="112" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:19">
       <c r="A112" t="s">
         <v>1839</v>
       </c>
@@ -11616,7 +11650,7 @@
       <c r="R112" s="1"/>
       <c r="S112" s="1"/>
     </row>
-    <row r="113" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:19">
       <c r="A113" t="s">
         <v>1839</v>
       </c>
@@ -11667,7 +11701,7 @@
       <c r="R113" s="1"/>
       <c r="S113" s="1"/>
     </row>
-    <row r="114" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:19">
       <c r="A114" t="s">
         <v>1839</v>
       </c>
@@ -11718,7 +11752,7 @@
       <c r="R114" s="1"/>
       <c r="S114" s="1"/>
     </row>
-    <row r="115" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:19">
       <c r="A115" t="s">
         <v>1839</v>
       </c>
@@ -11769,7 +11803,7 @@
       <c r="R115" s="1"/>
       <c r="S115" s="1"/>
     </row>
-    <row r="116" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:19">
       <c r="A116" t="s">
         <v>1839</v>
       </c>
@@ -11820,7 +11854,7 @@
       <c r="R116" s="1"/>
       <c r="S116" s="1"/>
     </row>
-    <row r="117" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:19">
       <c r="A117" t="s">
         <v>1839</v>
       </c>
@@ -11871,7 +11905,7 @@
       <c r="R117" s="1"/>
       <c r="S117" s="1"/>
     </row>
-    <row r="118" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:19">
       <c r="A118" t="s">
         <v>1839</v>
       </c>
@@ -11922,7 +11956,7 @@
       <c r="R118" s="1"/>
       <c r="S118" s="1"/>
     </row>
-    <row r="119" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:19">
       <c r="A119" t="s">
         <v>1839</v>
       </c>
@@ -11973,7 +12007,7 @@
       <c r="R119" s="1"/>
       <c r="S119" s="1"/>
     </row>
-    <row r="120" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:19">
       <c r="A120" t="s">
         <v>1839</v>
       </c>
@@ -12024,7 +12058,7 @@
       <c r="R120" s="1"/>
       <c r="S120" s="1"/>
     </row>
-    <row r="121" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:19">
       <c r="A121" t="s">
         <v>1839</v>
       </c>
@@ -12075,7 +12109,7 @@
       <c r="R121" s="1"/>
       <c r="S121" s="1"/>
     </row>
-    <row r="122" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:19">
       <c r="A122" t="s">
         <v>1839</v>
       </c>
@@ -12126,7 +12160,7 @@
       <c r="R122" s="1"/>
       <c r="S122" s="1"/>
     </row>
-    <row r="123" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:19">
       <c r="A123" t="s">
         <v>1839</v>
       </c>
@@ -12177,7 +12211,7 @@
       <c r="R123" s="1"/>
       <c r="S123" s="1"/>
     </row>
-    <row r="124" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:19">
       <c r="A124" t="s">
         <v>1839</v>
       </c>
@@ -12228,7 +12262,7 @@
       <c r="R124" s="1"/>
       <c r="S124" s="1"/>
     </row>
-    <row r="125" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:19">
       <c r="A125" t="s">
         <v>1839</v>
       </c>
@@ -12279,7 +12313,7 @@
       <c r="R125" s="1"/>
       <c r="S125" s="1"/>
     </row>
-    <row r="126" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:19">
       <c r="A126" t="s">
         <v>1839</v>
       </c>
@@ -12330,7 +12364,7 @@
       <c r="R126" s="1"/>
       <c r="S126" s="1"/>
     </row>
-    <row r="127" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:19">
       <c r="A127" t="s">
         <v>1839</v>
       </c>
@@ -12381,7 +12415,7 @@
       <c r="R127" s="1"/>
       <c r="S127" s="1"/>
     </row>
-    <row r="128" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:19">
       <c r="A128" t="s">
         <v>1839</v>
       </c>
@@ -12432,7 +12466,7 @@
       <c r="R128" s="1"/>
       <c r="S128" s="1"/>
     </row>
-    <row r="129" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:19">
       <c r="A129" t="s">
         <v>1839</v>
       </c>
@@ -12483,7 +12517,7 @@
       <c r="R129" s="1"/>
       <c r="S129" s="1"/>
     </row>
-    <row r="130" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:19">
       <c r="A130" t="s">
         <v>1839</v>
       </c>
@@ -12534,7 +12568,7 @@
       <c r="R130" s="1"/>
       <c r="S130" s="1"/>
     </row>
-    <row r="131" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:19">
       <c r="A131" t="s">
         <v>1839</v>
       </c>
@@ -12585,7 +12619,7 @@
       <c r="R131" s="1"/>
       <c r="S131" s="1"/>
     </row>
-    <row r="132" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:19">
       <c r="A132" t="s">
         <v>1839</v>
       </c>
@@ -12636,7 +12670,7 @@
       <c r="R132" s="1"/>
       <c r="S132" s="1"/>
     </row>
-    <row r="133" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:19">
       <c r="A133" t="s">
         <v>1839</v>
       </c>
@@ -12687,7 +12721,7 @@
       <c r="R133" s="1"/>
       <c r="S133" s="1"/>
     </row>
-    <row r="134" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:19">
       <c r="A134" t="s">
         <v>1839</v>
       </c>
@@ -12738,7 +12772,7 @@
       <c r="R134" s="1"/>
       <c r="S134" s="1"/>
     </row>
-    <row r="135" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:19">
       <c r="A135" t="s">
         <v>1839</v>
       </c>
@@ -12789,7 +12823,7 @@
       <c r="R135" s="1"/>
       <c r="S135" s="1"/>
     </row>
-    <row r="136" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:19">
       <c r="A136" t="s">
         <v>1839</v>
       </c>
@@ -12840,7 +12874,7 @@
       <c r="R136" s="1"/>
       <c r="S136" s="1"/>
     </row>
-    <row r="137" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:19">
       <c r="A137" t="s">
         <v>1839</v>
       </c>
@@ -12891,7 +12925,7 @@
       <c r="R137" s="1"/>
       <c r="S137" s="1"/>
     </row>
-    <row r="138" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:19">
       <c r="A138" t="s">
         <v>1839</v>
       </c>
@@ -12942,7 +12976,7 @@
       <c r="R138" s="1"/>
       <c r="S138" s="1"/>
     </row>
-    <row r="139" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:19">
       <c r="A139" t="s">
         <v>1839</v>
       </c>
@@ -12993,7 +13027,7 @@
       <c r="R139" s="1"/>
       <c r="S139" s="1"/>
     </row>
-    <row r="140" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:19">
       <c r="A140" t="s">
         <v>1839</v>
       </c>
@@ -13044,7 +13078,7 @@
       <c r="R140" s="1"/>
       <c r="S140" s="1"/>
     </row>
-    <row r="141" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:19">
       <c r="A141" t="s">
         <v>1839</v>
       </c>
@@ -13095,7 +13129,7 @@
       <c r="R141" s="1"/>
       <c r="S141" s="1"/>
     </row>
-    <row r="142" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:19">
       <c r="A142" t="s">
         <v>1839</v>
       </c>
@@ -13146,7 +13180,7 @@
       <c r="R142" s="1"/>
       <c r="S142" s="1"/>
     </row>
-    <row r="143" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:19">
       <c r="A143" t="s">
         <v>1839</v>
       </c>
@@ -13197,7 +13231,7 @@
       <c r="R143" s="1"/>
       <c r="S143" s="1"/>
     </row>
-    <row r="144" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:19">
       <c r="A144" t="s">
         <v>1839</v>
       </c>
@@ -13248,7 +13282,7 @@
       <c r="R144" s="1"/>
       <c r="S144" s="1"/>
     </row>
-    <row r="145" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:19">
       <c r="A145" t="s">
         <v>1839</v>
       </c>
@@ -13299,7 +13333,7 @@
       <c r="R145" s="1"/>
       <c r="S145" s="1"/>
     </row>
-    <row r="146" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:19">
       <c r="A146" t="s">
         <v>1839</v>
       </c>
@@ -13350,7 +13384,7 @@
       <c r="R146" s="1"/>
       <c r="S146" s="1"/>
     </row>
-    <row r="147" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:19">
       <c r="A147" t="s">
         <v>1839</v>
       </c>
@@ -13401,7 +13435,7 @@
       <c r="R147" s="1"/>
       <c r="S147" s="1"/>
     </row>
-    <row r="148" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:19">
       <c r="A148" t="s">
         <v>1839</v>
       </c>
@@ -13452,7 +13486,7 @@
       <c r="R148" s="1"/>
       <c r="S148" s="1"/>
     </row>
-    <row r="149" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:19">
       <c r="A149" t="s">
         <v>1839</v>
       </c>
@@ -13503,7 +13537,7 @@
       <c r="R149" s="1"/>
       <c r="S149" s="1"/>
     </row>
-    <row r="150" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:19">
       <c r="A150" t="s">
         <v>1839</v>
       </c>
@@ -13554,7 +13588,7 @@
       <c r="R150" s="1"/>
       <c r="S150" s="1"/>
     </row>
-    <row r="151" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:19">
       <c r="A151" t="s">
         <v>1839</v>
       </c>
@@ -13605,7 +13639,7 @@
       <c r="R151" s="1"/>
       <c r="S151" s="1"/>
     </row>
-    <row r="152" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:19">
       <c r="A152" t="s">
         <v>1839</v>
       </c>
@@ -13656,7 +13690,7 @@
       <c r="R152" s="1"/>
       <c r="S152" s="1"/>
     </row>
-    <row r="153" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:19">
       <c r="A153" t="s">
         <v>1839</v>
       </c>
@@ -13707,7 +13741,7 @@
       <c r="R153" s="1"/>
       <c r="S153" s="1"/>
     </row>
-    <row r="154" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:19">
       <c r="A154" t="s">
         <v>1839</v>
       </c>
@@ -13758,7 +13792,7 @@
       <c r="R154" s="1"/>
       <c r="S154" s="1"/>
     </row>
-    <row r="155" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:19">
       <c r="A155" t="s">
         <v>1839</v>
       </c>
@@ -13809,7 +13843,7 @@
       <c r="R155" s="1"/>
       <c r="S155" s="1"/>
     </row>
-    <row r="156" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:19">
       <c r="A156" t="s">
         <v>1839</v>
       </c>
@@ -13860,7 +13894,7 @@
       <c r="R156" s="1"/>
       <c r="S156" s="1"/>
     </row>
-    <row r="157" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:19">
       <c r="A157" t="s">
         <v>1839</v>
       </c>
@@ -13911,7 +13945,7 @@
       <c r="R157" s="1"/>
       <c r="S157" s="1"/>
     </row>
-    <row r="158" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:19">
       <c r="A158" t="s">
         <v>1839</v>
       </c>
@@ -13962,7 +13996,7 @@
       <c r="R158" s="1"/>
       <c r="S158" s="1"/>
     </row>
-    <row r="159" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:19">
       <c r="A159" t="s">
         <v>1839</v>
       </c>
@@ -14013,7 +14047,7 @@
       <c r="R159" s="1"/>
       <c r="S159" s="1"/>
     </row>
-    <row r="160" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:19">
       <c r="A160" t="s">
         <v>1839</v>
       </c>
@@ -14064,7 +14098,7 @@
       <c r="R160" s="1"/>
       <c r="S160" s="1"/>
     </row>
-    <row r="161" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:19">
       <c r="A161" t="s">
         <v>1839</v>
       </c>
@@ -14115,7 +14149,7 @@
       <c r="R161" s="1"/>
       <c r="S161" s="1"/>
     </row>
-    <row r="162" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:19">
       <c r="A162" t="s">
         <v>1839</v>
       </c>
@@ -14166,7 +14200,7 @@
       <c r="R162" s="1"/>
       <c r="S162" s="1"/>
     </row>
-    <row r="163" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:19">
       <c r="A163" t="s">
         <v>1839</v>
       </c>
@@ -14217,7 +14251,7 @@
       <c r="R163" s="1"/>
       <c r="S163" s="1"/>
     </row>
-    <row r="164" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:19">
       <c r="A164" t="s">
         <v>1839</v>
       </c>
@@ -14268,7 +14302,7 @@
       <c r="R164" s="1"/>
       <c r="S164" s="1"/>
     </row>
-    <row r="165" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:19">
       <c r="A165" t="s">
         <v>1839</v>
       </c>
@@ -14319,7 +14353,7 @@
       <c r="R165" s="1"/>
       <c r="S165" s="1"/>
     </row>
-    <row r="166" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:19">
       <c r="A166" t="s">
         <v>1839</v>
       </c>
@@ -14370,7 +14404,7 @@
       <c r="R166" s="1"/>
       <c r="S166" s="1"/>
     </row>
-    <row r="167" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:19">
       <c r="A167" t="s">
         <v>1839</v>
       </c>
@@ -14421,7 +14455,7 @@
       <c r="R167" s="1"/>
       <c r="S167" s="1"/>
     </row>
-    <row r="168" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:19">
       <c r="A168" t="s">
         <v>1839</v>
       </c>
@@ -14472,7 +14506,7 @@
       <c r="R168" s="1"/>
       <c r="S168" s="1"/>
     </row>
-    <row r="169" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:19">
       <c r="A169" t="s">
         <v>1839</v>
       </c>
@@ -14523,7 +14557,7 @@
       <c r="R169" s="1"/>
       <c r="S169" s="1"/>
     </row>
-    <row r="170" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:19">
       <c r="A170" t="s">
         <v>1839</v>
       </c>
@@ -14574,7 +14608,7 @@
       <c r="R170" s="1"/>
       <c r="S170" s="1"/>
     </row>
-    <row r="171" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:19">
       <c r="A171" t="s">
         <v>1839</v>
       </c>
@@ -14625,7 +14659,7 @@
       <c r="R171" s="1"/>
       <c r="S171" s="1"/>
     </row>
-    <row r="172" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:19">
       <c r="A172" t="s">
         <v>1839</v>
       </c>
@@ -14676,7 +14710,7 @@
       <c r="R172" s="1"/>
       <c r="S172" s="1"/>
     </row>
-    <row r="173" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:19">
       <c r="A173" t="s">
         <v>1839</v>
       </c>
@@ -14727,7 +14761,7 @@
       <c r="R173" s="1"/>
       <c r="S173" s="1"/>
     </row>
-    <row r="174" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:19">
       <c r="A174" t="s">
         <v>1839</v>
       </c>
@@ -14778,7 +14812,7 @@
       <c r="R174" s="1"/>
       <c r="S174" s="1"/>
     </row>
-    <row r="175" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:19">
       <c r="A175" t="s">
         <v>1839</v>
       </c>
@@ -14829,7 +14863,7 @@
       <c r="R175" s="1"/>
       <c r="S175" s="1"/>
     </row>
-    <row r="176" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:19">
       <c r="A176" t="s">
         <v>1839</v>
       </c>
@@ -14880,7 +14914,7 @@
       <c r="R176" s="1"/>
       <c r="S176" s="1"/>
     </row>
-    <row r="177" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:19">
       <c r="A177" t="s">
         <v>1839</v>
       </c>
@@ -14931,7 +14965,7 @@
       <c r="R177" s="1"/>
       <c r="S177" s="1"/>
     </row>
-    <row r="178" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:19">
       <c r="A178" t="s">
         <v>1839</v>
       </c>
@@ -14982,7 +15016,7 @@
       <c r="R178" s="1"/>
       <c r="S178" s="1"/>
     </row>
-    <row r="179" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:19">
       <c r="A179" t="s">
         <v>1839</v>
       </c>
@@ -15033,7 +15067,7 @@
       <c r="R179" s="1"/>
       <c r="S179" s="1"/>
     </row>
-    <row r="180" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:19">
       <c r="A180" t="s">
         <v>1839</v>
       </c>
@@ -15084,7 +15118,7 @@
       <c r="R180" s="1"/>
       <c r="S180" s="1"/>
     </row>
-    <row r="181" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:19">
       <c r="A181" t="s">
         <v>1839</v>
       </c>
@@ -15135,7 +15169,7 @@
       <c r="R181" s="1"/>
       <c r="S181" s="1"/>
     </row>
-    <row r="182" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:19">
       <c r="A182" t="s">
         <v>1839</v>
       </c>
@@ -15186,7 +15220,7 @@
       <c r="R182" s="1"/>
       <c r="S182" s="1"/>
     </row>
-    <row r="183" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:19">
       <c r="A183" t="s">
         <v>1839</v>
       </c>
@@ -15237,7 +15271,7 @@
       <c r="R183" s="1"/>
       <c r="S183" s="1"/>
     </row>
-    <row r="184" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:19">
       <c r="A184" t="s">
         <v>1839</v>
       </c>
@@ -15288,7 +15322,7 @@
       <c r="R184" s="1"/>
       <c r="S184" s="1"/>
     </row>
-    <row r="185" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:19">
       <c r="A185" t="s">
         <v>1839</v>
       </c>
@@ -15339,7 +15373,7 @@
       <c r="R185" s="1"/>
       <c r="S185" s="1"/>
     </row>
-    <row r="186" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:19">
       <c r="A186" t="s">
         <v>1839</v>
       </c>
@@ -15390,7 +15424,7 @@
       <c r="R186" s="1"/>
       <c r="S186" s="1"/>
     </row>
-    <row r="187" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:19">
       <c r="A187" t="s">
         <v>1839</v>
       </c>
@@ -15441,7 +15475,7 @@
       <c r="R187" s="1"/>
       <c r="S187" s="1"/>
     </row>
-    <row r="188" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:19">
       <c r="A188" t="s">
         <v>1839</v>
       </c>
@@ -15492,7 +15526,7 @@
       <c r="R188" s="1"/>
       <c r="S188" s="1"/>
     </row>
-    <row r="189" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:19">
       <c r="A189" t="s">
         <v>1839</v>
       </c>
@@ -15543,7 +15577,7 @@
       <c r="R189" s="1"/>
       <c r="S189" s="1"/>
     </row>
-    <row r="190" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:19">
       <c r="A190" t="s">
         <v>1839</v>
       </c>
@@ -15594,7 +15628,7 @@
       <c r="R190" s="1"/>
       <c r="S190" s="1"/>
     </row>
-    <row r="191" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:19">
       <c r="A191" t="s">
         <v>1839</v>
       </c>
@@ -15645,7 +15679,7 @@
       <c r="R191" s="1"/>
       <c r="S191" s="1"/>
     </row>
-    <row r="192" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:19">
       <c r="A192" t="s">
         <v>1839</v>
       </c>
@@ -15696,7 +15730,7 @@
       <c r="R192" s="1"/>
       <c r="S192" s="1"/>
     </row>
-    <row r="193" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:19">
       <c r="A193" t="s">
         <v>1839</v>
       </c>
@@ -15747,7 +15781,7 @@
       <c r="R193" s="1"/>
       <c r="S193" s="1"/>
     </row>
-    <row r="194" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:19">
       <c r="A194" t="s">
         <v>1839</v>
       </c>
@@ -15798,7 +15832,7 @@
       <c r="R194" s="1"/>
       <c r="S194" s="1"/>
     </row>
-    <row r="195" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:19">
       <c r="A195" t="s">
         <v>1839</v>
       </c>
@@ -15849,7 +15883,7 @@
       <c r="R195" s="1"/>
       <c r="S195" s="1"/>
     </row>
-    <row r="196" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:19">
       <c r="A196" t="s">
         <v>1839</v>
       </c>
@@ -15900,7 +15934,7 @@
       <c r="R196" s="1"/>
       <c r="S196" s="1"/>
     </row>
-    <row r="197" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:19">
       <c r="A197" t="s">
         <v>1839</v>
       </c>
@@ -15951,7 +15985,7 @@
       <c r="R197" s="1"/>
       <c r="S197" s="1"/>
     </row>
-    <row r="198" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:19">
       <c r="A198" t="s">
         <v>1839</v>
       </c>
@@ -16002,7 +16036,7 @@
       <c r="R198" s="1"/>
       <c r="S198" s="1"/>
     </row>
-    <row r="199" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:19">
       <c r="A199" t="s">
         <v>1839</v>
       </c>
@@ -16053,7 +16087,7 @@
       <c r="R199" s="1"/>
       <c r="S199" s="1"/>
     </row>
-    <row r="200" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:19">
       <c r="A200" t="s">
         <v>1839</v>
       </c>
@@ -16104,7 +16138,7 @@
       <c r="R200" s="1"/>
       <c r="S200" s="1"/>
     </row>
-    <row r="201" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:19">
       <c r="A201" t="s">
         <v>1839</v>
       </c>
@@ -16155,7 +16189,7 @@
       <c r="R201" s="1"/>
       <c r="S201" s="1"/>
     </row>
-    <row r="202" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:19">
       <c r="A202" t="s">
         <v>1839</v>
       </c>
@@ -16206,7 +16240,7 @@
       <c r="R202" s="1"/>
       <c r="S202" s="1"/>
     </row>
-    <row r="203" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:19">
       <c r="A203" t="s">
         <v>1839</v>
       </c>
@@ -16257,7 +16291,7 @@
       <c r="R203" s="1"/>
       <c r="S203" s="1"/>
     </row>
-    <row r="204" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:19">
       <c r="A204" t="s">
         <v>1839</v>
       </c>
@@ -16308,7 +16342,7 @@
       <c r="R204" s="1"/>
       <c r="S204" s="1"/>
     </row>
-    <row r="205" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:19">
       <c r="A205" t="s">
         <v>1839</v>
       </c>
@@ -16359,7 +16393,7 @@
       <c r="R205" s="1"/>
       <c r="S205" s="1"/>
     </row>
-    <row r="206" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:19">
       <c r="A206" t="s">
         <v>1839</v>
       </c>
@@ -16410,7 +16444,7 @@
       <c r="R206" s="1"/>
       <c r="S206" s="1"/>
     </row>
-    <row r="207" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:19">
       <c r="A207" t="s">
         <v>1839</v>
       </c>
@@ -16461,7 +16495,7 @@
       <c r="R207" s="1"/>
       <c r="S207" s="1"/>
     </row>
-    <row r="208" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:19">
       <c r="A208" t="s">
         <v>1839</v>
       </c>
@@ -16512,7 +16546,7 @@
       <c r="R208" s="1"/>
       <c r="S208" s="1"/>
     </row>
-    <row r="209" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:19">
       <c r="A209" t="s">
         <v>1839</v>
       </c>
@@ -16563,7 +16597,7 @@
       <c r="R209" s="1"/>
       <c r="S209" s="1"/>
     </row>
-    <row r="210" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:19">
       <c r="A210" t="s">
         <v>1839</v>
       </c>
@@ -16614,7 +16648,7 @@
       <c r="R210" s="1"/>
       <c r="S210" s="1"/>
     </row>
-    <row r="211" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:19">
       <c r="A211" t="s">
         <v>1839</v>
       </c>
@@ -16665,7 +16699,7 @@
       <c r="R211" s="1"/>
       <c r="S211" s="1"/>
     </row>
-    <row r="212" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:19">
       <c r="A212" t="s">
         <v>1839</v>
       </c>
@@ -16716,7 +16750,7 @@
       <c r="R212" s="1"/>
       <c r="S212" s="1"/>
     </row>
-    <row r="213" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:19">
       <c r="A213" t="s">
         <v>1839</v>
       </c>
@@ -16767,7 +16801,7 @@
       <c r="R213" s="1"/>
       <c r="S213" s="1"/>
     </row>
-    <row r="214" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:19">
       <c r="A214" t="s">
         <v>1839</v>
       </c>
@@ -16818,7 +16852,7 @@
       <c r="R214" s="1"/>
       <c r="S214" s="1"/>
     </row>
-    <row r="215" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:19">
       <c r="A215" t="s">
         <v>1839</v>
       </c>
@@ -16869,7 +16903,7 @@
       <c r="R215" s="1"/>
       <c r="S215" s="1"/>
     </row>
-    <row r="216" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:19">
       <c r="A216" t="s">
         <v>1839</v>
       </c>
@@ -16920,7 +16954,7 @@
       <c r="R216" s="1"/>
       <c r="S216" s="1"/>
     </row>
-    <row r="217" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:19">
       <c r="A217" t="s">
         <v>1839</v>
       </c>
@@ -16971,7 +17005,7 @@
       <c r="R217" s="1"/>
       <c r="S217" s="1"/>
     </row>
-    <row r="218" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:19">
       <c r="A218" t="s">
         <v>1839</v>
       </c>
@@ -17022,7 +17056,7 @@
       <c r="R218" s="1"/>
       <c r="S218" s="1"/>
     </row>
-    <row r="219" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:19">
       <c r="A219" t="s">
         <v>1839</v>
       </c>
@@ -17073,7 +17107,7 @@
       <c r="R219" s="1"/>
       <c r="S219" s="1"/>
     </row>
-    <row r="220" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:19">
       <c r="A220" t="s">
         <v>1839</v>
       </c>
@@ -17124,7 +17158,7 @@
       <c r="R220" s="1"/>
       <c r="S220" s="1"/>
     </row>
-    <row r="221" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:19">
       <c r="A221" t="s">
         <v>1839</v>
       </c>
@@ -17175,7 +17209,7 @@
       <c r="R221" s="1"/>
       <c r="S221" s="1"/>
     </row>
-    <row r="222" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:19">
       <c r="A222" t="s">
         <v>1839</v>
       </c>
@@ -17226,7 +17260,7 @@
       <c r="R222" s="1"/>
       <c r="S222" s="1"/>
     </row>
-    <row r="223" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:19">
       <c r="A223" t="s">
         <v>1839</v>
       </c>
@@ -17277,7 +17311,7 @@
       <c r="R223" s="1"/>
       <c r="S223" s="1"/>
     </row>
-    <row r="224" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:19">
       <c r="A224" t="s">
         <v>1839</v>
       </c>
@@ -17328,7 +17362,7 @@
       <c r="R224" s="1"/>
       <c r="S224" s="1"/>
     </row>
-    <row r="225" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:19">
       <c r="A225" t="s">
         <v>1839</v>
       </c>
@@ -17379,7 +17413,7 @@
       <c r="R225" s="1"/>
       <c r="S225" s="1"/>
     </row>
-    <row r="226" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:19">
       <c r="A226" t="s">
         <v>1839</v>
       </c>
@@ -17430,7 +17464,7 @@
       <c r="R226" s="1"/>
       <c r="S226" s="1"/>
     </row>
-    <row r="227" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:19">
       <c r="A227" t="s">
         <v>1839</v>
       </c>
@@ -17481,7 +17515,7 @@
       <c r="R227" s="1"/>
       <c r="S227" s="1"/>
     </row>
-    <row r="228" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:19">
       <c r="A228" t="s">
         <v>1839</v>
       </c>
@@ -17532,7 +17566,7 @@
       <c r="R228" s="1"/>
       <c r="S228" s="1"/>
     </row>
-    <row r="229" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:19">
       <c r="A229" t="s">
         <v>1839</v>
       </c>
@@ -17583,7 +17617,7 @@
       <c r="R229" s="1"/>
       <c r="S229" s="1"/>
     </row>
-    <row r="230" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:19">
       <c r="A230" t="s">
         <v>1839</v>
       </c>
@@ -17634,7 +17668,7 @@
       <c r="R230" s="1"/>
       <c r="S230" s="1"/>
     </row>
-    <row r="231" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:19">
       <c r="A231" t="s">
         <v>1839</v>
       </c>
@@ -17685,7 +17719,7 @@
       <c r="R231" s="1"/>
       <c r="S231" s="1"/>
     </row>
-    <row r="232" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:19">
       <c r="A232" t="s">
         <v>1839</v>
       </c>
@@ -17736,7 +17770,7 @@
       <c r="R232" s="1"/>
       <c r="S232" s="1"/>
     </row>
-    <row r="233" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:19">
       <c r="A233" t="s">
         <v>1839</v>
       </c>
@@ -17787,7 +17821,7 @@
       <c r="R233" s="1"/>
       <c r="S233" s="1"/>
     </row>
-    <row r="234" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:19">
       <c r="A234" t="s">
         <v>1839</v>
       </c>
@@ -17838,7 +17872,7 @@
       <c r="R234" s="1"/>
       <c r="S234" s="1"/>
     </row>
-    <row r="235" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:19">
       <c r="A235" t="s">
         <v>1839</v>
       </c>
@@ -17889,7 +17923,7 @@
       <c r="R235" s="1"/>
       <c r="S235" s="1"/>
     </row>
-    <row r="236" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:19">
       <c r="A236" t="s">
         <v>1839</v>
       </c>
@@ -17940,7 +17974,7 @@
       <c r="R236" s="1"/>
       <c r="S236" s="1"/>
     </row>
-    <row r="237" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:19">
       <c r="A237" t="s">
         <v>1839</v>
       </c>
@@ -17991,7 +18025,7 @@
       <c r="R237" s="1"/>
       <c r="S237" s="1"/>
     </row>
-    <row r="238" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:19">
       <c r="A238" t="s">
         <v>1839</v>
       </c>
@@ -18042,7 +18076,7 @@
       <c r="R238" s="1"/>
       <c r="S238" s="1"/>
     </row>
-    <row r="239" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:19">
       <c r="A239" t="s">
         <v>1839</v>
       </c>
@@ -18093,7 +18127,7 @@
       <c r="R239" s="1"/>
       <c r="S239" s="1"/>
     </row>
-    <row r="240" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:19">
       <c r="A240" t="s">
         <v>1839</v>
       </c>
@@ -18144,7 +18178,7 @@
       <c r="R240" s="1"/>
       <c r="S240" s="1"/>
     </row>
-    <row r="241" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:19">
       <c r="A241" t="s">
         <v>1839</v>
       </c>
@@ -18195,7 +18229,7 @@
       <c r="R241" s="1"/>
       <c r="S241" s="1"/>
     </row>
-    <row r="242" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:19">
       <c r="A242" t="s">
         <v>1839</v>
       </c>
@@ -18246,7 +18280,7 @@
       <c r="R242" s="1"/>
       <c r="S242" s="1"/>
     </row>
-    <row r="243" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:19">
       <c r="A243" t="s">
         <v>1839</v>
       </c>
@@ -18297,7 +18331,7 @@
       <c r="R243" s="1"/>
       <c r="S243" s="1"/>
     </row>
-    <row r="244" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:19">
       <c r="A244" t="s">
         <v>1839</v>
       </c>
@@ -18348,7 +18382,7 @@
       <c r="R244" s="1"/>
       <c r="S244" s="1"/>
     </row>
-    <row r="245" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:19">
       <c r="A245" t="s">
         <v>1839</v>
       </c>
@@ -18399,7 +18433,7 @@
       <c r="R245" s="1"/>
       <c r="S245" s="1"/>
     </row>
-    <row r="246" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:19">
       <c r="A246" t="s">
         <v>1839</v>
       </c>
@@ -18450,7 +18484,7 @@
       <c r="R246" s="1"/>
       <c r="S246" s="1"/>
     </row>
-    <row r="247" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:19">
       <c r="A247" t="s">
         <v>1839</v>
       </c>
@@ -18501,7 +18535,7 @@
       <c r="R247" s="1"/>
       <c r="S247" s="1"/>
     </row>
-    <row r="248" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:19">
       <c r="A248" t="s">
         <v>1839</v>
       </c>
@@ -18552,7 +18586,7 @@
       <c r="R248" s="1"/>
       <c r="S248" s="1"/>
     </row>
-    <row r="249" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:19">
       <c r="A249" t="s">
         <v>1839</v>
       </c>
@@ -18603,7 +18637,7 @@
       <c r="R249" s="1"/>
       <c r="S249" s="1"/>
     </row>
-    <row r="250" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:19">
       <c r="A250" t="s">
         <v>1839</v>
       </c>
@@ -18654,7 +18688,7 @@
       <c r="R250" s="1"/>
       <c r="S250" s="1"/>
     </row>
-    <row r="251" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:19">
       <c r="A251" t="s">
         <v>1839</v>
       </c>
@@ -18705,7 +18739,7 @@
       <c r="R251" s="1"/>
       <c r="S251" s="1"/>
     </row>
-    <row r="252" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:19">
       <c r="A252" t="s">
         <v>1839</v>
       </c>
@@ -18756,7 +18790,7 @@
       <c r="R252" s="1"/>
       <c r="S252" s="1"/>
     </row>
-    <row r="253" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:19">
       <c r="A253" t="s">
         <v>1839</v>
       </c>
@@ -18807,7 +18841,7 @@
       <c r="R253" s="1"/>
       <c r="S253" s="1"/>
     </row>
-    <row r="254" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:19">
       <c r="A254" t="s">
         <v>1839</v>
       </c>
@@ -18858,7 +18892,7 @@
       <c r="R254" s="1"/>
       <c r="S254" s="1"/>
     </row>
-    <row r="255" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:19">
       <c r="A255" t="s">
         <v>1839</v>
       </c>
@@ -18909,7 +18943,7 @@
       <c r="R255" s="1"/>
       <c r="S255" s="1"/>
     </row>
-    <row r="256" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:19">
       <c r="A256" t="s">
         <v>1839</v>
       </c>
@@ -18960,7 +18994,7 @@
       <c r="R256" s="1"/>
       <c r="S256" s="1"/>
     </row>
-    <row r="257" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:19">
       <c r="A257" t="s">
         <v>1839</v>
       </c>
@@ -19011,7 +19045,7 @@
       <c r="R257" s="1"/>
       <c r="S257" s="1"/>
     </row>
-    <row r="258" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:19">
       <c r="A258" t="s">
         <v>1839</v>
       </c>
@@ -19062,7 +19096,7 @@
       <c r="R258" s="1"/>
       <c r="S258" s="1"/>
     </row>
-    <row r="259" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:19">
       <c r="A259" t="s">
         <v>1839</v>
       </c>
@@ -19113,7 +19147,7 @@
       <c r="R259" s="1"/>
       <c r="S259" s="1"/>
     </row>
-    <row r="260" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:19">
       <c r="A260" t="s">
         <v>1839</v>
       </c>
@@ -19164,7 +19198,7 @@
       <c r="R260" s="1"/>
       <c r="S260" s="1"/>
     </row>
-    <row r="261" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:19">
       <c r="A261" t="s">
         <v>1839</v>
       </c>
@@ -19215,7 +19249,7 @@
       <c r="R261" s="1"/>
       <c r="S261" s="1"/>
     </row>
-    <row r="262" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:19">
       <c r="A262" t="s">
         <v>1839</v>
       </c>
@@ -19266,7 +19300,7 @@
       <c r="R262" s="1"/>
       <c r="S262" s="1"/>
     </row>
-    <row r="263" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:19">
       <c r="A263" t="s">
         <v>1839</v>
       </c>
@@ -19317,7 +19351,7 @@
       <c r="R263" s="1"/>
       <c r="S263" s="1"/>
     </row>
-    <row r="264" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:19">
       <c r="A264" t="s">
         <v>1839</v>
       </c>
@@ -19368,7 +19402,7 @@
       <c r="R264" s="1"/>
       <c r="S264" s="1"/>
     </row>
-    <row r="265" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:19">
       <c r="A265" t="s">
         <v>1839</v>
       </c>
@@ -19419,7 +19453,7 @@
       <c r="R265" s="1"/>
       <c r="S265" s="1"/>
     </row>
-    <row r="266" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:19">
       <c r="A266" t="s">
         <v>1839</v>
       </c>
@@ -19470,7 +19504,7 @@
       <c r="R266" s="1"/>
       <c r="S266" s="1"/>
     </row>
-    <row r="267" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:19">
       <c r="A267" t="s">
         <v>1839</v>
       </c>
@@ -19521,7 +19555,7 @@
       <c r="R267" s="1"/>
       <c r="S267" s="1"/>
     </row>
-    <row r="268" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:19">
       <c r="A268" t="s">
         <v>1839</v>
       </c>
@@ -19572,7 +19606,7 @@
       <c r="R268" s="1"/>
       <c r="S268" s="1"/>
     </row>
-    <row r="269" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:19">
       <c r="A269" t="s">
         <v>1839</v>
       </c>
@@ -19623,7 +19657,7 @@
       <c r="R269" s="1"/>
       <c r="S269" s="1"/>
     </row>
-    <row r="270" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:19">
       <c r="A270" t="s">
         <v>1839</v>
       </c>
@@ -19674,7 +19708,7 @@
       <c r="R270" s="1"/>
       <c r="S270" s="1"/>
     </row>
-    <row r="271" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:19">
       <c r="A271" t="s">
         <v>1839</v>
       </c>
@@ -19725,7 +19759,7 @@
       <c r="R271" s="1"/>
       <c r="S271" s="1"/>
     </row>
-    <row r="272" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:19">
       <c r="A272" t="s">
         <v>1839</v>
       </c>
@@ -19776,7 +19810,7 @@
       <c r="R272" s="1"/>
       <c r="S272" s="1"/>
     </row>
-    <row r="273" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:19">
       <c r="A273" t="s">
         <v>1839</v>
       </c>
@@ -19827,7 +19861,7 @@
       <c r="R273" s="1"/>
       <c r="S273" s="1"/>
     </row>
-    <row r="274" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:19">
       <c r="A274" t="s">
         <v>1839</v>
       </c>
@@ -19878,7 +19912,7 @@
       <c r="R274" s="1"/>
       <c r="S274" s="1"/>
     </row>
-    <row r="275" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:19">
       <c r="A275" t="s">
         <v>1839</v>
       </c>
@@ -19929,7 +19963,7 @@
       <c r="R275" s="1"/>
       <c r="S275" s="1"/>
     </row>
-    <row r="276" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:19">
       <c r="A276" t="s">
         <v>1839</v>
       </c>
@@ -19980,7 +20014,7 @@
       <c r="R276" s="1"/>
       <c r="S276" s="1"/>
     </row>
-    <row r="277" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:19">
       <c r="A277" t="s">
         <v>1839</v>
       </c>
@@ -20031,7 +20065,7 @@
       <c r="R277" s="1"/>
       <c r="S277" s="1"/>
     </row>
-    <row r="278" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:19">
       <c r="A278" t="s">
         <v>1839</v>
       </c>
@@ -20082,7 +20116,7 @@
       <c r="R278" s="1"/>
       <c r="S278" s="1"/>
     </row>
-    <row r="279" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:19">
       <c r="A279" t="s">
         <v>1839</v>
       </c>
@@ -20133,7 +20167,7 @@
       <c r="R279" s="1"/>
       <c r="S279" s="1"/>
     </row>
-    <row r="280" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:19">
       <c r="A280" t="s">
         <v>1839</v>
       </c>
@@ -20184,7 +20218,7 @@
       <c r="R280" s="1"/>
       <c r="S280" s="1"/>
     </row>
-    <row r="281" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:19">
       <c r="A281" t="s">
         <v>1839</v>
       </c>
@@ -20235,7 +20269,7 @@
       <c r="R281" s="1"/>
       <c r="S281" s="1"/>
     </row>
-    <row r="282" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:19">
       <c r="A282" t="s">
         <v>1839</v>
       </c>
@@ -20286,7 +20320,7 @@
       <c r="R282" s="1"/>
       <c r="S282" s="1"/>
     </row>
-    <row r="283" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:19">
       <c r="A283" t="s">
         <v>1839</v>
       </c>
@@ -20337,7 +20371,7 @@
       <c r="R283" s="1"/>
       <c r="S283" s="1"/>
     </row>
-    <row r="284" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:19">
       <c r="A284" t="s">
         <v>1839</v>
       </c>
@@ -20388,7 +20422,7 @@
       <c r="R284" s="1"/>
       <c r="S284" s="1"/>
     </row>
-    <row r="285" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:19">
       <c r="A285" t="s">
         <v>1839</v>
       </c>
@@ -20439,7 +20473,7 @@
       <c r="R285" s="1"/>
       <c r="S285" s="1"/>
     </row>
-    <row r="286" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:19">
       <c r="A286" t="s">
         <v>1839</v>
       </c>
@@ -20490,7 +20524,7 @@
       <c r="R286" s="1"/>
       <c r="S286" s="1"/>
     </row>
-    <row r="287" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:19">
       <c r="A287" t="s">
         <v>1839</v>
       </c>
@@ -20541,7 +20575,7 @@
       <c r="R287" s="1"/>
       <c r="S287" s="1"/>
     </row>
-    <row r="288" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:19">
       <c r="A288" t="s">
         <v>1839</v>
       </c>
@@ -20592,7 +20626,7 @@
       <c r="R288" s="1"/>
       <c r="S288" s="1"/>
     </row>
-    <row r="289" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:19">
       <c r="A289" t="s">
         <v>1839</v>
       </c>
@@ -20643,7 +20677,7 @@
       <c r="R289" s="1"/>
       <c r="S289" s="1"/>
     </row>
-    <row r="290" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:19">
       <c r="A290" t="s">
         <v>1839</v>
       </c>
@@ -20694,7 +20728,7 @@
       <c r="R290" s="1"/>
       <c r="S290" s="1"/>
     </row>
-    <row r="291" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:19">
       <c r="A291" t="s">
         <v>1839</v>
       </c>
@@ -20745,7 +20779,7 @@
       <c r="R291" s="1"/>
       <c r="S291" s="1"/>
     </row>
-    <row r="292" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:19">
       <c r="A292" t="s">
         <v>1839</v>
       </c>
@@ -20796,7 +20830,7 @@
       <c r="R292" s="1"/>
       <c r="S292" s="1"/>
     </row>
-    <row r="293" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:19">
       <c r="A293" t="s">
         <v>1839</v>
       </c>
@@ -20847,7 +20881,7 @@
       <c r="R293" s="1"/>
       <c r="S293" s="1"/>
     </row>
-    <row r="294" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:19">
       <c r="A294" t="s">
         <v>1839</v>
       </c>
@@ -20898,7 +20932,7 @@
       <c r="R294" s="1"/>
       <c r="S294" s="1"/>
     </row>
-    <row r="295" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:19">
       <c r="A295" t="s">
         <v>1839</v>
       </c>
@@ -20949,7 +20983,7 @@
       <c r="R295" s="1"/>
       <c r="S295" s="1"/>
     </row>
-    <row r="296" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:19">
       <c r="A296" t="s">
         <v>1839</v>
       </c>
@@ -21000,7 +21034,7 @@
       <c r="R296" s="1"/>
       <c r="S296" s="1"/>
     </row>
-    <row r="297" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:19">
       <c r="A297" t="s">
         <v>1839</v>
       </c>
@@ -21051,7 +21085,7 @@
       <c r="R297" s="1"/>
       <c r="S297" s="1"/>
     </row>
-    <row r="298" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:19">
       <c r="A298" t="s">
         <v>1839</v>
       </c>
@@ -21102,7 +21136,7 @@
       <c r="R298" s="1"/>
       <c r="S298" s="1"/>
     </row>
-    <row r="299" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:19">
       <c r="A299" t="s">
         <v>1839</v>
       </c>
@@ -21153,7 +21187,7 @@
       <c r="R299" s="1"/>
       <c r="S299" s="1"/>
     </row>
-    <row r="300" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:19">
       <c r="A300" t="s">
         <v>1839</v>
       </c>
@@ -21204,7 +21238,7 @@
       <c r="R300" s="1"/>
       <c r="S300" s="1"/>
     </row>
-    <row r="301" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:19">
       <c r="A301" t="s">
         <v>1839</v>
       </c>
@@ -21255,7 +21289,7 @@
       <c r="R301" s="1"/>
       <c r="S301" s="1"/>
     </row>
-    <row r="302" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:19">
       <c r="A302" t="s">
         <v>1839</v>
       </c>
@@ -21306,7 +21340,7 @@
       <c r="R302" s="1"/>
       <c r="S302" s="1"/>
     </row>
-    <row r="303" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:19">
       <c r="A303" t="s">
         <v>1839</v>
       </c>
@@ -21357,7 +21391,7 @@
       <c r="R303" s="1"/>
       <c r="S303" s="1"/>
     </row>
-    <row r="304" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:19">
       <c r="A304" t="s">
         <v>1839</v>
       </c>
@@ -21408,7 +21442,7 @@
       <c r="R304" s="1"/>
       <c r="S304" s="1"/>
     </row>
-    <row r="305" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:19">
       <c r="A305" t="s">
         <v>1839</v>
       </c>
@@ -21459,7 +21493,7 @@
       <c r="R305" s="1"/>
       <c r="S305" s="1"/>
     </row>
-    <row r="306" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:19">
       <c r="A306" t="s">
         <v>1839</v>
       </c>
@@ -21510,7 +21544,7 @@
       <c r="R306" s="1"/>
       <c r="S306" s="1"/>
     </row>
-    <row r="307" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:19">
       <c r="A307" t="s">
         <v>1839</v>
       </c>
@@ -21561,7 +21595,7 @@
       <c r="R307" s="1"/>
       <c r="S307" s="1"/>
     </row>
-    <row r="308" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:19">
       <c r="A308" t="s">
         <v>1839</v>
       </c>
@@ -21612,7 +21646,7 @@
       <c r="R308" s="1"/>
       <c r="S308" s="1"/>
     </row>
-    <row r="309" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:19">
       <c r="A309" t="s">
         <v>1839</v>
       </c>
@@ -21663,7 +21697,7 @@
       <c r="R309" s="1"/>
       <c r="S309" s="1"/>
     </row>
-    <row r="310" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:19">
       <c r="A310" t="s">
         <v>1839</v>
       </c>
@@ -21714,7 +21748,7 @@
       <c r="R310" s="1"/>
       <c r="S310" s="1"/>
     </row>
-    <row r="311" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:19">
       <c r="A311" t="s">
         <v>1839</v>
       </c>
@@ -21765,7 +21799,7 @@
       <c r="R311" s="1"/>
       <c r="S311" s="1"/>
     </row>
-    <row r="312" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:19">
       <c r="A312" t="s">
         <v>1839</v>
       </c>
@@ -21816,7 +21850,7 @@
       <c r="R312" s="1"/>
       <c r="S312" s="1"/>
     </row>
-    <row r="313" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:19">
       <c r="A313" t="s">
         <v>1839</v>
       </c>
@@ -21867,7 +21901,7 @@
       <c r="R313" s="1"/>
       <c r="S313" s="1"/>
     </row>
-    <row r="314" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:19">
       <c r="A314" t="s">
         <v>1839</v>
       </c>
@@ -21918,7 +21952,7 @@
       <c r="R314" s="1"/>
       <c r="S314" s="1"/>
     </row>
-    <row r="315" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:19">
       <c r="A315" t="s">
         <v>1839</v>
       </c>
@@ -21969,7 +22003,7 @@
       <c r="R315" s="1"/>
       <c r="S315" s="1"/>
     </row>
-    <row r="316" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:19">
       <c r="A316" t="s">
         <v>1839</v>
       </c>
@@ -22020,7 +22054,7 @@
       <c r="R316" s="1"/>
       <c r="S316" s="1"/>
     </row>
-    <row r="317" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:19">
       <c r="A317" t="s">
         <v>1839</v>
       </c>
@@ -22071,7 +22105,7 @@
       <c r="R317" s="1"/>
       <c r="S317" s="1"/>
     </row>
-    <row r="318" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:19">
       <c r="A318" t="s">
         <v>1839</v>
       </c>
@@ -22122,7 +22156,7 @@
       <c r="R318" s="1"/>
       <c r="S318" s="1"/>
     </row>
-    <row r="319" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:19">
       <c r="A319" t="s">
         <v>1839</v>
       </c>
@@ -22173,7 +22207,7 @@
       <c r="R319" s="1"/>
       <c r="S319" s="1"/>
     </row>
-    <row r="320" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:19">
       <c r="A320" t="s">
         <v>1839</v>
       </c>
@@ -22224,7 +22258,7 @@
       <c r="R320" s="1"/>
       <c r="S320" s="1"/>
     </row>
-    <row r="321" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:19">
       <c r="A321" t="s">
         <v>1839</v>
       </c>
@@ -22275,7 +22309,7 @@
       <c r="R321" s="1"/>
       <c r="S321" s="1"/>
     </row>
-    <row r="322" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:19">
       <c r="A322" t="s">
         <v>1839</v>
       </c>
@@ -22326,7 +22360,7 @@
       <c r="R322" s="1"/>
       <c r="S322" s="1"/>
     </row>
-    <row r="323" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:19">
       <c r="A323" t="s">
         <v>1839</v>
       </c>
@@ -22377,7 +22411,7 @@
       <c r="R323" s="1"/>
       <c r="S323" s="1"/>
     </row>
-    <row r="324" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:19">
       <c r="A324" t="s">
         <v>1839</v>
       </c>
@@ -22428,7 +22462,7 @@
       <c r="R324" s="1"/>
       <c r="S324" s="1"/>
     </row>
-    <row r="325" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:19">
       <c r="A325" t="s">
         <v>1839</v>
       </c>
@@ -22479,7 +22513,7 @@
       <c r="R325" s="1"/>
       <c r="S325" s="1"/>
     </row>
-    <row r="326" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:19">
       <c r="A326" t="s">
         <v>1839</v>
       </c>
@@ -22530,7 +22564,7 @@
       <c r="R326" s="1"/>
       <c r="S326" s="1"/>
     </row>
-    <row r="327" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:19">
       <c r="A327" t="s">
         <v>1839</v>
       </c>
@@ -22581,7 +22615,7 @@
       <c r="R327" s="1"/>
       <c r="S327" s="1"/>
     </row>
-    <row r="328" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:19">
       <c r="A328" t="s">
         <v>1839</v>
       </c>
@@ -22632,7 +22666,7 @@
       <c r="R328" s="1"/>
       <c r="S328" s="1"/>
     </row>
-    <row r="329" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:19">
       <c r="A329" t="s">
         <v>1839</v>
       </c>
@@ -22683,7 +22717,7 @@
       <c r="R329" s="1"/>
       <c r="S329" s="1"/>
     </row>
-    <row r="330" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:19">
       <c r="A330" t="s">
         <v>1839</v>
       </c>
@@ -22734,7 +22768,7 @@
       <c r="R330" s="1"/>
       <c r="S330" s="1"/>
     </row>
-    <row r="331" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:19">
       <c r="A331" t="s">
         <v>1839</v>
       </c>
@@ -22785,7 +22819,7 @@
       <c r="R331" s="1"/>
       <c r="S331" s="1"/>
     </row>
-    <row r="332" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:19">
       <c r="A332" t="s">
         <v>1839</v>
       </c>
@@ -22836,7 +22870,7 @@
       <c r="R332" s="1"/>
       <c r="S332" s="1"/>
     </row>
-    <row r="333" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:19">
       <c r="A333" t="s">
         <v>1839</v>
       </c>
@@ -22887,7 +22921,7 @@
       <c r="R333" s="1"/>
       <c r="S333" s="1"/>
     </row>
-    <row r="334" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:19">
       <c r="A334" t="s">
         <v>1839</v>
       </c>
@@ -22938,7 +22972,7 @@
       <c r="R334" s="1"/>
       <c r="S334" s="1"/>
     </row>
-    <row r="335" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:19">
       <c r="A335" t="s">
         <v>1839</v>
       </c>
@@ -22989,7 +23023,7 @@
       <c r="R335" s="1"/>
       <c r="S335" s="1"/>
     </row>
-    <row r="336" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:19">
       <c r="A336" t="s">
         <v>1839</v>
       </c>
@@ -23040,7 +23074,7 @@
       <c r="R336" s="1"/>
       <c r="S336" s="1"/>
     </row>
-    <row r="337" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:19">
       <c r="A337" t="s">
         <v>1839</v>
       </c>
@@ -23091,7 +23125,7 @@
       <c r="R337" s="1"/>
       <c r="S337" s="1"/>
     </row>
-    <row r="338" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:19">
       <c r="A338" t="s">
         <v>1839</v>
       </c>
@@ -23142,7 +23176,7 @@
       <c r="R338" s="1"/>
       <c r="S338" s="1"/>
     </row>
-    <row r="339" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:19">
       <c r="A339" t="s">
         <v>1839</v>
       </c>
@@ -23193,7 +23227,7 @@
       <c r="R339" s="1"/>
       <c r="S339" s="1"/>
     </row>
-    <row r="340" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:19">
       <c r="A340" t="s">
         <v>1839</v>
       </c>
@@ -23244,7 +23278,7 @@
       <c r="R340" s="1"/>
       <c r="S340" s="1"/>
     </row>
-    <row r="341" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:19">
       <c r="A341" t="s">
         <v>1839</v>
       </c>
@@ -23295,7 +23329,7 @@
       <c r="R341" s="1"/>
       <c r="S341" s="1"/>
     </row>
-    <row r="342" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:19">
       <c r="A342" t="s">
         <v>1839</v>
       </c>
@@ -23346,7 +23380,7 @@
       <c r="R342" s="1"/>
       <c r="S342" s="1"/>
     </row>
-    <row r="343" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:19">
       <c r="A343" t="s">
         <v>1839</v>
       </c>
@@ -23397,7 +23431,7 @@
       <c r="R343" s="1"/>
       <c r="S343" s="1"/>
     </row>
-    <row r="344" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:19">
       <c r="A344" t="s">
         <v>1839</v>
       </c>
@@ -23448,7 +23482,7 @@
       <c r="R344" s="1"/>
       <c r="S344" s="1"/>
     </row>
-    <row r="345" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:19">
       <c r="A345" t="s">
         <v>1839</v>
       </c>
@@ -23499,7 +23533,7 @@
       <c r="R345" s="1"/>
       <c r="S345" s="1"/>
     </row>
-    <row r="346" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:19">
       <c r="A346" t="s">
         <v>1839</v>
       </c>
@@ -23550,7 +23584,7 @@
       <c r="R346" s="1"/>
       <c r="S346" s="1"/>
     </row>
-    <row r="347" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:19">
       <c r="A347" t="s">
         <v>1839</v>
       </c>
@@ -23601,7 +23635,7 @@
       <c r="R347" s="1"/>
       <c r="S347" s="1"/>
     </row>
-    <row r="348" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:19">
       <c r="A348" t="s">
         <v>1839</v>
       </c>
@@ -23652,7 +23686,7 @@
       <c r="R348" s="1"/>
       <c r="S348" s="1"/>
     </row>
-    <row r="349" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:19">
       <c r="A349" t="s">
         <v>1839</v>
       </c>
@@ -23703,7 +23737,7 @@
       <c r="R349" s="1"/>
       <c r="S349" s="1"/>
     </row>
-    <row r="350" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:19">
       <c r="A350" t="s">
         <v>1839</v>
       </c>
@@ -23754,7 +23788,7 @@
       <c r="R350" s="1"/>
       <c r="S350" s="1"/>
     </row>
-    <row r="351" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:19">
       <c r="A351" t="s">
         <v>1839</v>
       </c>
@@ -23805,7 +23839,7 @@
       <c r="R351" s="1"/>
       <c r="S351" s="1"/>
     </row>
-    <row r="352" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:19">
       <c r="A352" t="s">
         <v>1839</v>
       </c>
@@ -23856,7 +23890,7 @@
       <c r="R352" s="1"/>
       <c r="S352" s="1"/>
     </row>
-    <row r="353" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:19">
       <c r="A353" t="s">
         <v>1839</v>
       </c>
@@ -23907,7 +23941,7 @@
       <c r="R353" s="1"/>
       <c r="S353" s="1"/>
     </row>
-    <row r="354" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:19">
       <c r="A354" t="s">
         <v>1839</v>
       </c>
@@ -23958,7 +23992,7 @@
       <c r="R354" s="1"/>
       <c r="S354" s="1"/>
     </row>
-    <row r="355" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:19">
       <c r="A355" t="s">
         <v>1839</v>
       </c>
@@ -24009,7 +24043,7 @@
       <c r="R355" s="1"/>
       <c r="S355" s="1"/>
     </row>
-    <row r="356" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:19">
       <c r="A356" t="s">
         <v>1839</v>
       </c>
@@ -24060,7 +24094,7 @@
       <c r="R356" s="1"/>
       <c r="S356" s="1"/>
     </row>
-    <row r="357" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:19">
       <c r="A357" t="s">
         <v>1839</v>
       </c>
@@ -24111,7 +24145,7 @@
       <c r="R357" s="1"/>
       <c r="S357" s="1"/>
     </row>
-    <row r="358" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:19">
       <c r="A358" t="s">
         <v>1839</v>
       </c>
@@ -24162,7 +24196,7 @@
       <c r="R358" s="1"/>
       <c r="S358" s="1"/>
     </row>
-    <row r="359" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:19">
       <c r="A359" t="s">
         <v>1839</v>
       </c>
@@ -24213,7 +24247,7 @@
       <c r="R359" s="1"/>
       <c r="S359" s="1"/>
     </row>
-    <row r="360" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:19">
       <c r="A360" t="s">
         <v>1839</v>
       </c>
@@ -24264,7 +24298,7 @@
       <c r="R360" s="1"/>
       <c r="S360" s="1"/>
     </row>
-    <row r="361" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:19">
       <c r="A361" t="s">
         <v>1839</v>
       </c>
@@ -24315,7 +24349,7 @@
       <c r="R361" s="1"/>
       <c r="S361" s="1"/>
     </row>
-    <row r="362" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:19">
       <c r="A362" t="s">
         <v>1839</v>
       </c>
@@ -24366,7 +24400,7 @@
       <c r="R362" s="1"/>
       <c r="S362" s="1"/>
     </row>
-    <row r="363" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:19">
       <c r="A363" t="s">
         <v>1839</v>
       </c>
@@ -24417,7 +24451,7 @@
       <c r="R363" s="1"/>
       <c r="S363" s="1"/>
     </row>
-    <row r="364" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:19">
       <c r="A364" t="s">
         <v>1839</v>
       </c>
@@ -24468,7 +24502,7 @@
       <c r="R364" s="1"/>
       <c r="S364" s="1"/>
     </row>
-    <row r="365" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:19">
       <c r="A365" t="s">
         <v>1839</v>
       </c>
@@ -24519,7 +24553,7 @@
       <c r="R365" s="1"/>
       <c r="S365" s="1"/>
     </row>
-    <row r="366" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:19">
       <c r="A366" t="s">
         <v>1839</v>
       </c>
@@ -24570,7 +24604,7 @@
       <c r="R366" s="1"/>
       <c r="S366" s="1"/>
     </row>
-    <row r="367" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:19">
       <c r="A367" t="s">
         <v>1839</v>
       </c>
@@ -24621,7 +24655,7 @@
       <c r="R367" s="1"/>
       <c r="S367" s="1"/>
     </row>
-    <row r="368" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:19">
       <c r="A368" t="s">
         <v>1839</v>
       </c>
@@ -24672,7 +24706,7 @@
       <c r="R368" s="1"/>
       <c r="S368" s="1"/>
     </row>
-    <row r="369" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:19">
       <c r="A369" t="s">
         <v>1839</v>
       </c>
@@ -24723,7 +24757,7 @@
       <c r="R369" s="1"/>
       <c r="S369" s="1"/>
     </row>
-    <row r="370" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:19">
       <c r="A370" t="s">
         <v>1839</v>
       </c>
@@ -24774,7 +24808,7 @@
       <c r="R370" s="1"/>
       <c r="S370" s="1"/>
     </row>
-    <row r="371" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:19">
       <c r="A371" t="s">
         <v>1839</v>
       </c>
@@ -24825,7 +24859,7 @@
       <c r="R371" s="1"/>
       <c r="S371" s="1"/>
     </row>
-    <row r="372" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:19">
       <c r="A372" t="s">
         <v>1839</v>
       </c>
@@ -24876,7 +24910,7 @@
       <c r="R372" s="1"/>
       <c r="S372" s="1"/>
     </row>
-    <row r="373" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:19">
       <c r="A373" t="s">
         <v>1839</v>
       </c>
@@ -24927,7 +24961,7 @@
       <c r="R373" s="1"/>
       <c r="S373" s="1"/>
     </row>
-    <row r="374" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:19">
       <c r="A374" t="s">
         <v>1839</v>
       </c>
@@ -24978,7 +25012,7 @@
       <c r="R374" s="1"/>
       <c r="S374" s="1"/>
     </row>
-    <row r="375" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:19">
       <c r="A375" t="s">
         <v>1839</v>
       </c>
@@ -25029,7 +25063,7 @@
       <c r="R375" s="1"/>
       <c r="S375" s="1"/>
     </row>
-    <row r="376" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:19">
       <c r="A376" t="s">
         <v>1839</v>
       </c>
@@ -25080,7 +25114,7 @@
       <c r="R376" s="1"/>
       <c r="S376" s="1"/>
     </row>
-    <row r="377" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:19">
       <c r="A377" t="s">
         <v>1839</v>
       </c>
@@ -25131,7 +25165,7 @@
       <c r="R377" s="1"/>
       <c r="S377" s="1"/>
     </row>
-    <row r="378" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:19">
       <c r="A378" t="s">
         <v>1839</v>
       </c>
@@ -25182,7 +25216,7 @@
       <c r="R378" s="1"/>
       <c r="S378" s="1"/>
     </row>
-    <row r="379" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:19">
       <c r="A379" t="s">
         <v>1839</v>
       </c>
@@ -25233,7 +25267,7 @@
       <c r="R379" s="1"/>
       <c r="S379" s="1"/>
     </row>
-    <row r="380" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:19">
       <c r="A380" t="s">
         <v>1839</v>
       </c>
@@ -25284,7 +25318,7 @@
       <c r="R380" s="1"/>
       <c r="S380" s="1"/>
     </row>
-    <row r="381" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:19">
       <c r="A381" t="s">
         <v>1839</v>
       </c>
@@ -25335,7 +25369,7 @@
       <c r="R381" s="1"/>
       <c r="S381" s="1"/>
     </row>
-    <row r="382" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:19">
       <c r="A382" t="s">
         <v>1839</v>
       </c>
@@ -25386,7 +25420,7 @@
       <c r="R382" s="1"/>
       <c r="S382" s="1"/>
     </row>
-    <row r="383" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:19">
       <c r="A383" t="s">
         <v>1839</v>
       </c>
@@ -25437,7 +25471,7 @@
       <c r="R383" s="1"/>
       <c r="S383" s="1"/>
     </row>
-    <row r="384" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:19">
       <c r="A384" t="s">
         <v>1839</v>
       </c>
@@ -25488,7 +25522,7 @@
       <c r="R384" s="1"/>
       <c r="S384" s="1"/>
     </row>
-    <row r="385" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:19">
       <c r="A385" t="s">
         <v>1839</v>
       </c>
@@ -25539,7 +25573,7 @@
       <c r="R385" s="1"/>
       <c r="S385" s="1"/>
     </row>
-    <row r="386" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:19">
       <c r="A386" t="s">
         <v>1839</v>
       </c>
@@ -25590,7 +25624,7 @@
       <c r="R386" s="1"/>
       <c r="S386" s="1"/>
     </row>
-    <row r="387" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:19">
       <c r="A387" t="s">
         <v>1839</v>
       </c>
@@ -25641,7 +25675,7 @@
       <c r="R387" s="1"/>
       <c r="S387" s="1"/>
     </row>
-    <row r="388" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:19">
       <c r="A388" t="s">
         <v>1839</v>
       </c>
@@ -25692,7 +25726,7 @@
       <c r="R388" s="1"/>
       <c r="S388" s="1"/>
     </row>
-    <row r="389" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:19">
       <c r="A389" t="s">
         <v>1839</v>
       </c>
@@ -25743,7 +25777,7 @@
       <c r="R389" s="1"/>
       <c r="S389" s="1"/>
     </row>
-    <row r="390" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:19">
       <c r="A390" t="s">
         <v>1839</v>
       </c>
@@ -25794,7 +25828,7 @@
       <c r="R390" s="1"/>
       <c r="S390" s="1"/>
     </row>
-    <row r="391" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:19">
       <c r="A391" t="s">
         <v>1839</v>
       </c>
@@ -25845,7 +25879,7 @@
       <c r="R391" s="1"/>
       <c r="S391" s="1"/>
     </row>
-    <row r="392" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:19">
       <c r="A392" t="s">
         <v>1839</v>
       </c>
@@ -25896,7 +25930,7 @@
       <c r="R392" s="1"/>
       <c r="S392" s="1"/>
     </row>
-    <row r="393" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:19">
       <c r="A393" t="s">
         <v>1839</v>
       </c>
@@ -25947,7 +25981,7 @@
       <c r="R393" s="1"/>
       <c r="S393" s="1"/>
     </row>
-    <row r="394" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:19">
       <c r="A394" t="s">
         <v>1839</v>
       </c>
@@ -25998,7 +26032,7 @@
       <c r="R394" s="1"/>
       <c r="S394" s="1"/>
     </row>
-    <row r="395" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:19">
       <c r="A395" t="s">
         <v>1839</v>
       </c>
@@ -26049,7 +26083,7 @@
       <c r="R395" s="1"/>
       <c r="S395" s="1"/>
     </row>
-    <row r="396" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:19">
       <c r="A396" t="s">
         <v>1839</v>
       </c>
@@ -26100,7 +26134,7 @@
       <c r="R396" s="1"/>
       <c r="S396" s="1"/>
     </row>
-    <row r="397" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:19">
       <c r="A397" t="s">
         <v>1839</v>
       </c>
@@ -26151,7 +26185,7 @@
       <c r="R397" s="1"/>
       <c r="S397" s="1"/>
     </row>
-    <row r="398" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:19">
       <c r="A398" t="s">
         <v>1839</v>
       </c>
@@ -26202,7 +26236,7 @@
       <c r="R398" s="1"/>
       <c r="S398" s="1"/>
     </row>
-    <row r="399" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:19">
       <c r="A399" t="s">
         <v>1839</v>
       </c>
@@ -26253,7 +26287,7 @@
       <c r="R399" s="1"/>
       <c r="S399" s="1"/>
     </row>
-    <row r="400" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:19">
       <c r="A400" t="s">
         <v>1839</v>
       </c>
@@ -26304,7 +26338,7 @@
       <c r="R400" s="1"/>
       <c r="S400" s="1"/>
     </row>
-    <row r="401" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:19">
       <c r="A401" t="s">
         <v>1839</v>
       </c>
@@ -26355,7 +26389,7 @@
       <c r="R401" s="1"/>
       <c r="S401" s="1"/>
     </row>
-    <row r="402" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:19">
       <c r="A402" t="s">
         <v>1839</v>
       </c>
@@ -26406,7 +26440,7 @@
       <c r="R402" s="1"/>
       <c r="S402" s="1"/>
     </row>
-    <row r="403" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:19">
       <c r="A403" t="s">
         <v>1839</v>
       </c>
@@ -26457,7 +26491,7 @@
       <c r="R403" s="1"/>
       <c r="S403" s="1"/>
     </row>
-    <row r="404" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:19">
       <c r="A404" t="s">
         <v>1839</v>
       </c>
@@ -26508,7 +26542,7 @@
       <c r="R404" s="1"/>
       <c r="S404" s="1"/>
     </row>
-    <row r="405" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:19">
       <c r="A405" t="s">
         <v>1839</v>
       </c>
@@ -26559,7 +26593,7 @@
       <c r="R405" s="1"/>
       <c r="S405" s="1"/>
     </row>
-    <row r="406" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:19">
       <c r="A406" t="s">
         <v>1839</v>
       </c>
@@ -26610,7 +26644,7 @@
       <c r="R406" s="1"/>
       <c r="S406" s="1"/>
     </row>
-    <row r="407" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:19">
       <c r="A407" t="s">
         <v>1839</v>
       </c>
@@ -26661,7 +26695,7 @@
       <c r="R407" s="1"/>
       <c r="S407" s="1"/>
     </row>
-    <row r="408" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:19">
       <c r="A408" t="s">
         <v>1839</v>
       </c>
@@ -26712,7 +26746,7 @@
       <c r="R408" s="1"/>
       <c r="S408" s="1"/>
     </row>
-    <row r="409" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:19">
       <c r="A409" t="s">
         <v>1839</v>
       </c>
@@ -26763,7 +26797,7 @@
       <c r="R409" s="1"/>
       <c r="S409" s="1"/>
     </row>
-    <row r="410" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:19">
       <c r="A410" t="s">
         <v>1839</v>
       </c>
@@ -26814,7 +26848,7 @@
       <c r="R410" s="1"/>
       <c r="S410" s="1"/>
     </row>
-    <row r="411" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:19">
       <c r="A411" t="s">
         <v>1839</v>
       </c>
@@ -26865,7 +26899,7 @@
       <c r="R411" s="1"/>
       <c r="S411" s="1"/>
     </row>
-    <row r="412" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:19">
       <c r="A412" t="s">
         <v>1839</v>
       </c>
@@ -26916,7 +26950,7 @@
       <c r="R412" s="1"/>
       <c r="S412" s="1"/>
     </row>
-    <row r="413" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:19">
       <c r="A413" t="s">
         <v>1839</v>
       </c>
@@ -26967,7 +27001,7 @@
       <c r="R413" s="1"/>
       <c r="S413" s="1"/>
     </row>
-    <row r="414" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:19">
       <c r="A414" t="s">
         <v>1839</v>
       </c>
@@ -27018,7 +27052,7 @@
       <c r="R414" s="1"/>
       <c r="S414" s="1"/>
     </row>
-    <row r="415" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:19">
       <c r="A415" t="s">
         <v>1839</v>
       </c>
@@ -27069,7 +27103,7 @@
       <c r="R415" s="1"/>
       <c r="S415" s="1"/>
     </row>
-    <row r="416" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:19">
       <c r="A416" t="s">
         <v>1839</v>
       </c>
@@ -27120,7 +27154,7 @@
       <c r="R416" s="1"/>
       <c r="S416" s="1"/>
     </row>
-    <row r="417" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:19">
       <c r="A417" t="s">
         <v>1839</v>
       </c>
@@ -27171,7 +27205,7 @@
       <c r="R417" s="1"/>
       <c r="S417" s="1"/>
     </row>
-    <row r="418" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:19">
       <c r="A418" t="s">
         <v>1839</v>
       </c>
@@ -27222,7 +27256,7 @@
       <c r="R418" s="1"/>
       <c r="S418" s="1"/>
     </row>
-    <row r="419" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:19">
       <c r="A419" t="s">
         <v>1839</v>
       </c>
@@ -27273,7 +27307,7 @@
       <c r="R419" s="1"/>
       <c r="S419" s="1"/>
     </row>
-    <row r="420" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:19">
       <c r="A420" t="s">
         <v>1839</v>
       </c>
@@ -27324,7 +27358,7 @@
       <c r="R420" s="1"/>
       <c r="S420" s="1"/>
     </row>
-    <row r="421" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:19">
       <c r="A421" t="s">
         <v>1839</v>
       </c>
@@ -27375,7 +27409,7 @@
       <c r="R421" s="1"/>
       <c r="S421" s="1"/>
     </row>
-    <row r="422" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:19">
       <c r="A422" t="s">
         <v>1839</v>
       </c>
@@ -27426,7 +27460,7 @@
       <c r="R422" s="1"/>
       <c r="S422" s="1"/>
     </row>
-    <row r="423" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:19">
       <c r="A423" t="s">
         <v>1839</v>
       </c>
@@ -27477,7 +27511,7 @@
       <c r="R423" s="1"/>
       <c r="S423" s="1"/>
     </row>
-    <row r="424" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:19">
       <c r="A424" t="s">
         <v>1839</v>
       </c>
@@ -27528,7 +27562,7 @@
       <c r="R424" s="1"/>
       <c r="S424" s="1"/>
     </row>
-    <row r="425" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:19">
       <c r="A425" t="s">
         <v>1839</v>
       </c>
@@ -27579,7 +27613,7 @@
       <c r="R425" s="1"/>
       <c r="S425" s="1"/>
     </row>
-    <row r="426" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:19">
       <c r="A426" t="s">
         <v>1839</v>
       </c>
@@ -27630,7 +27664,7 @@
       <c r="R426" s="1"/>
       <c r="S426" s="1"/>
     </row>
-    <row r="427" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:19">
       <c r="A427" t="s">
         <v>1839</v>
       </c>
@@ -27681,7 +27715,7 @@
       <c r="R427" s="1"/>
       <c r="S427" s="1"/>
     </row>
-    <row r="428" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:19">
       <c r="A428" t="s">
         <v>1839</v>
       </c>
@@ -27732,7 +27766,7 @@
       <c r="R428" s="1"/>
       <c r="S428" s="1"/>
     </row>
-    <row r="429" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:19">
       <c r="A429" t="s">
         <v>1839</v>
       </c>
@@ -27783,7 +27817,7 @@
       <c r="R429" s="1"/>
       <c r="S429" s="1"/>
     </row>
-    <row r="430" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:19">
       <c r="A430" t="s">
         <v>1839</v>
       </c>
@@ -27834,7 +27868,7 @@
       <c r="R430" s="1"/>
       <c r="S430" s="1"/>
     </row>
-    <row r="431" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:19">
       <c r="A431" t="s">
         <v>1839</v>
       </c>
@@ -27885,7 +27919,7 @@
       <c r="R431" s="1"/>
       <c r="S431" s="1"/>
     </row>
-    <row r="432" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:19">
       <c r="A432" t="s">
         <v>1839</v>
       </c>
@@ -27936,7 +27970,7 @@
       <c r="R432" s="1"/>
       <c r="S432" s="1"/>
     </row>
-    <row r="433" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:19">
       <c r="A433" t="s">
         <v>1839</v>
       </c>
@@ -27987,7 +28021,7 @@
       <c r="R433" s="1"/>
       <c r="S433" s="1"/>
     </row>
-    <row r="434" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:19">
       <c r="A434" t="s">
         <v>1839</v>
       </c>
@@ -28038,7 +28072,7 @@
       <c r="R434" s="1"/>
       <c r="S434" s="1"/>
     </row>
-    <row r="435" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:19">
       <c r="A435" t="s">
         <v>1839</v>
       </c>
@@ -28089,7 +28123,7 @@
       <c r="R435" s="1"/>
       <c r="S435" s="1"/>
     </row>
-    <row r="436" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:19">
       <c r="A436" t="s">
         <v>1839</v>
       </c>
@@ -28140,7 +28174,7 @@
       <c r="R436" s="1"/>
       <c r="S436" s="1"/>
     </row>
-    <row r="437" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:19">
       <c r="A437" t="s">
         <v>1839</v>
       </c>
@@ -28191,7 +28225,7 @@
       <c r="R437" s="1"/>
       <c r="S437" s="1"/>
     </row>
-    <row r="438" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:19">
       <c r="A438" t="s">
         <v>1839</v>
       </c>
@@ -28242,7 +28276,7 @@
       <c r="R438" s="1"/>
       <c r="S438" s="1"/>
     </row>
-    <row r="439" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:19">
       <c r="A439" t="s">
         <v>1839</v>
       </c>
@@ -28293,7 +28327,7 @@
       <c r="R439" s="1"/>
       <c r="S439" s="1"/>
     </row>
-    <row r="440" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:19">
       <c r="A440" t="s">
         <v>1839</v>
       </c>
@@ -28344,7 +28378,7 @@
       <c r="R440" s="1"/>
       <c r="S440" s="1"/>
     </row>
-    <row r="441" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:19">
       <c r="A441" t="s">
         <v>1839</v>
       </c>
@@ -28395,7 +28429,7 @@
       <c r="R441" s="1"/>
       <c r="S441" s="1"/>
     </row>
-    <row r="442" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:19">
       <c r="A442" t="s">
         <v>1839</v>
       </c>
@@ -28446,7 +28480,7 @@
       <c r="R442" s="1"/>
       <c r="S442" s="1"/>
     </row>
-    <row r="443" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:19">
       <c r="A443" t="s">
         <v>1839</v>
       </c>
@@ -28497,7 +28531,7 @@
       <c r="R443" s="1"/>
       <c r="S443" s="1"/>
     </row>
-    <row r="444" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:19">
       <c r="A444" t="s">
         <v>1839</v>
       </c>
@@ -28548,7 +28582,7 @@
       <c r="R444" s="1"/>
       <c r="S444" s="1"/>
     </row>
-    <row r="445" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:19">
       <c r="A445" t="s">
         <v>1839</v>
       </c>
@@ -28599,7 +28633,7 @@
       <c r="R445" s="1"/>
       <c r="S445" s="1"/>
     </row>
-    <row r="446" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:19">
       <c r="A446" t="s">
         <v>1839</v>
       </c>
@@ -28650,7 +28684,7 @@
       <c r="R446" s="1"/>
       <c r="S446" s="1"/>
     </row>
-    <row r="447" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:19">
       <c r="A447" t="s">
         <v>1839</v>
       </c>
@@ -28701,7 +28735,7 @@
       <c r="R447" s="1"/>
       <c r="S447" s="1"/>
     </row>
-    <row r="448" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:19">
       <c r="A448" t="s">
         <v>1839</v>
       </c>
@@ -28752,7 +28786,7 @@
       <c r="R448" s="1"/>
       <c r="S448" s="1"/>
     </row>
-    <row r="449" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:19">
       <c r="A449" t="s">
         <v>1839</v>
       </c>
@@ -28803,7 +28837,7 @@
       <c r="R449" s="1"/>
       <c r="S449" s="1"/>
     </row>
-    <row r="450" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:19">
       <c r="A450" t="s">
         <v>1839</v>
       </c>
@@ -28854,7 +28888,7 @@
       <c r="R450" s="1"/>
       <c r="S450" s="1"/>
     </row>
-    <row r="451" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:19">
       <c r="A451" t="s">
         <v>1839</v>
       </c>
@@ -28905,7 +28939,7 @@
       <c r="R451" s="1"/>
       <c r="S451" s="1"/>
     </row>
-    <row r="452" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:19">
       <c r="A452" t="s">
         <v>1839</v>
       </c>
@@ -28956,7 +28990,7 @@
       <c r="R452" s="1"/>
       <c r="S452" s="1"/>
     </row>
-    <row r="453" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:19">
       <c r="A453" t="s">
         <v>1839</v>
       </c>
@@ -29007,7 +29041,7 @@
       <c r="R453" s="1"/>
       <c r="S453" s="1"/>
     </row>
-    <row r="454" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:19">
       <c r="A454" t="s">
         <v>1839</v>
       </c>
@@ -29058,7 +29092,7 @@
       <c r="R454" s="1"/>
       <c r="S454" s="1"/>
     </row>
-    <row r="455" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:19">
       <c r="A455" t="s">
         <v>1839</v>
       </c>
@@ -29109,7 +29143,7 @@
       <c r="R455" s="1"/>
       <c r="S455" s="1"/>
     </row>
-    <row r="456" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:19">
       <c r="A456" t="s">
         <v>1839</v>
       </c>
@@ -29160,7 +29194,7 @@
       <c r="R456" s="1"/>
       <c r="S456" s="1"/>
     </row>
-    <row r="457" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:19">
       <c r="A457" t="s">
         <v>1839</v>
       </c>
@@ -29211,7 +29245,7 @@
       <c r="R457" s="1"/>
       <c r="S457" s="1"/>
     </row>
-    <row r="458" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:19">
       <c r="A458" t="s">
         <v>1839</v>
       </c>
@@ -29262,7 +29296,7 @@
       <c r="R458" s="1"/>
       <c r="S458" s="1"/>
     </row>
-    <row r="459" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:19">
       <c r="A459" t="s">
         <v>1839</v>
       </c>
@@ -29313,7 +29347,7 @@
       <c r="R459" s="1"/>
       <c r="S459" s="1"/>
     </row>
-    <row r="460" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:19">
       <c r="A460" t="s">
         <v>1839</v>
       </c>
@@ -29364,7 +29398,7 @@
       <c r="R460" s="1"/>
       <c r="S460" s="1"/>
     </row>
-    <row r="461" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:19">
       <c r="A461" t="s">
         <v>1839</v>
       </c>
@@ -29415,7 +29449,7 @@
       <c r="R461" s="1"/>
       <c r="S461" s="1"/>
     </row>
-    <row r="462" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:19">
       <c r="A462" t="s">
         <v>1839</v>
       </c>
@@ -29466,7 +29500,7 @@
       <c r="R462" s="1"/>
       <c r="S462" s="1"/>
     </row>
-    <row r="463" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:19">
       <c r="A463" t="s">
         <v>1839</v>
       </c>
@@ -29517,7 +29551,7 @@
       <c r="R463" s="1"/>
       <c r="S463" s="1"/>
     </row>
-    <row r="464" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:19">
       <c r="A464" t="s">
         <v>1839</v>
       </c>
@@ -29568,7 +29602,7 @@
       <c r="R464" s="1"/>
       <c r="S464" s="1"/>
     </row>
-    <row r="465" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:19">
       <c r="A465" t="s">
         <v>1839</v>
       </c>
@@ -29619,7 +29653,7 @@
       <c r="R465" s="1"/>
       <c r="S465" s="1"/>
     </row>
-    <row r="466" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:19">
       <c r="A466" t="s">
         <v>1839</v>
       </c>
@@ -29670,7 +29704,7 @@
       <c r="R466" s="1"/>
       <c r="S466" s="1"/>
     </row>
-    <row r="467" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:19">
       <c r="A467" t="s">
         <v>1839</v>
       </c>
@@ -29721,7 +29755,7 @@
       <c r="R467" s="1"/>
       <c r="S467" s="1"/>
     </row>
-    <row r="468" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:19">
       <c r="A468" t="s">
         <v>1839</v>
       </c>
@@ -29772,7 +29806,7 @@
       <c r="R468" s="1"/>
       <c r="S468" s="1"/>
     </row>
-    <row r="469" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:19">
       <c r="A469" t="s">
         <v>1839</v>
       </c>
@@ -29823,7 +29857,7 @@
       <c r="R469" s="1"/>
       <c r="S469" s="1"/>
     </row>
-    <row r="470" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:19">
       <c r="A470" t="s">
         <v>1839</v>
       </c>
@@ -29874,7 +29908,7 @@
       <c r="R470" s="1"/>
       <c r="S470" s="1"/>
     </row>
-    <row r="471" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:19">
       <c r="A471" t="s">
         <v>1839</v>
       </c>
@@ -29925,7 +29959,7 @@
       <c r="R471" s="1"/>
       <c r="S471" s="1"/>
     </row>
-    <row r="472" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:19">
       <c r="A472" t="s">
         <v>1839</v>
       </c>
@@ -29976,7 +30010,7 @@
       <c r="R472" s="1"/>
       <c r="S472" s="1"/>
     </row>
-    <row r="473" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:19">
       <c r="A473" t="s">
         <v>1839</v>
       </c>
@@ -30027,7 +30061,7 @@
       <c r="R473" s="1"/>
       <c r="S473" s="1"/>
     </row>
-    <row r="474" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:19">
       <c r="A474" t="s">
         <v>1839</v>
       </c>
@@ -30078,7 +30112,7 @@
       <c r="R474" s="1"/>
       <c r="S474" s="1"/>
     </row>
-    <row r="475" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:19">
       <c r="A475" t="s">
         <v>1839</v>
       </c>
@@ -30129,7 +30163,7 @@
       <c r="R475" s="1"/>
       <c r="S475" s="1"/>
     </row>
-    <row r="476" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:19">
       <c r="A476" t="s">
         <v>1839</v>
       </c>
@@ -30180,7 +30214,7 @@
       <c r="R476" s="1"/>
       <c r="S476" s="1"/>
     </row>
-    <row r="477" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:19">
       <c r="A477" t="s">
         <v>1839</v>
       </c>
@@ -30231,7 +30265,7 @@
       <c r="R477" s="1"/>
       <c r="S477" s="1"/>
     </row>
-    <row r="478" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:19">
       <c r="A478" t="s">
         <v>1839</v>
       </c>
@@ -30282,7 +30316,7 @@
       <c r="R478" s="1"/>
       <c r="S478" s="1"/>
     </row>
-    <row r="479" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:19">
       <c r="A479" t="s">
         <v>1839</v>
       </c>
@@ -30333,7 +30367,7 @@
       <c r="R479" s="1"/>
       <c r="S479" s="1"/>
     </row>
-    <row r="480" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:19">
       <c r="A480" t="s">
         <v>1839</v>
       </c>
@@ -30384,7 +30418,7 @@
       <c r="R480" s="1"/>
       <c r="S480" s="1"/>
     </row>
-    <row r="481" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:19">
       <c r="A481" t="s">
         <v>1839</v>
       </c>
@@ -30435,7 +30469,7 @@
       <c r="R481" s="1"/>
       <c r="S481" s="1"/>
     </row>
-    <row r="482" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:19">
       <c r="A482" t="s">
         <v>1839</v>
       </c>
@@ -30486,7 +30520,7 @@
       <c r="R482" s="1"/>
       <c r="S482" s="1"/>
     </row>
-    <row r="483" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:19">
       <c r="A483" t="s">
         <v>1839</v>
       </c>
@@ -30537,7 +30571,7 @@
       <c r="R483" s="1"/>
       <c r="S483" s="1"/>
     </row>
-    <row r="484" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:19">
       <c r="A484" t="s">
         <v>1839</v>
       </c>
@@ -30588,7 +30622,7 @@
       <c r="R484" s="1"/>
       <c r="S484" s="1"/>
     </row>
-    <row r="485" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:19">
       <c r="A485" t="s">
         <v>1839</v>
       </c>
@@ -30639,7 +30673,7 @@
       <c r="R485" s="1"/>
       <c r="S485" s="1"/>
     </row>
-    <row r="486" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:19">
       <c r="A486" t="s">
         <v>1839</v>
       </c>
@@ -30690,7 +30724,7 @@
       <c r="R486" s="1"/>
       <c r="S486" s="1"/>
     </row>
-    <row r="487" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:19">
       <c r="A487" t="s">
         <v>1839</v>
       </c>
@@ -30741,7 +30775,7 @@
       <c r="R487" s="1"/>
       <c r="S487" s="1"/>
     </row>
-    <row r="488" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:19">
       <c r="A488" t="s">
         <v>1839</v>
       </c>
@@ -30792,7 +30826,7 @@
       <c r="R488" s="1"/>
       <c r="S488" s="1"/>
     </row>
-    <row r="489" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:19">
       <c r="A489" t="s">
         <v>1839</v>
       </c>
@@ -30843,7 +30877,7 @@
       <c r="R489" s="1"/>
       <c r="S489" s="1"/>
     </row>
-    <row r="490" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:19">
       <c r="A490" t="s">
         <v>1839</v>
       </c>
@@ -30894,7 +30928,7 @@
       <c r="R490" s="1"/>
       <c r="S490" s="1"/>
     </row>
-    <row r="491" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:19">
       <c r="A491" t="s">
         <v>1839</v>
       </c>
@@ -30945,7 +30979,7 @@
       <c r="R491" s="1"/>
       <c r="S491" s="1"/>
     </row>
-    <row r="492" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:19">
       <c r="A492" t="s">
         <v>1839</v>
       </c>
@@ -30996,7 +31030,7 @@
       <c r="R492" s="1"/>
       <c r="S492" s="1"/>
     </row>
-    <row r="493" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:19">
       <c r="A493" t="s">
         <v>1839</v>
       </c>
@@ -31047,7 +31081,7 @@
       <c r="R493" s="1"/>
       <c r="S493" s="1"/>
     </row>
-    <row r="494" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:19">
       <c r="A494" t="s">
         <v>1839</v>
       </c>
@@ -31098,7 +31132,7 @@
       <c r="R494" s="1"/>
       <c r="S494" s="1"/>
     </row>
-    <row r="495" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:19">
       <c r="A495" t="s">
         <v>1839</v>
       </c>
@@ -31149,7 +31183,7 @@
       <c r="R495" s="1"/>
       <c r="S495" s="1"/>
     </row>
-    <row r="496" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:19">
       <c r="A496" t="s">
         <v>1839</v>
       </c>
@@ -31200,7 +31234,7 @@
       <c r="R496" s="1"/>
       <c r="S496" s="1"/>
     </row>
-    <row r="497" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:19">
       <c r="A497" t="s">
         <v>1839</v>
       </c>
@@ -31251,7 +31285,7 @@
       <c r="R497" s="1"/>
       <c r="S497" s="1"/>
     </row>
-    <row r="498" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:19">
       <c r="A498" t="s">
         <v>1839</v>
       </c>
@@ -31302,7 +31336,7 @@
       <c r="R498" s="1"/>
       <c r="S498" s="1"/>
     </row>
-    <row r="499" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:19">
       <c r="A499" t="s">
         <v>1839</v>
       </c>
@@ -31353,7 +31387,7 @@
       <c r="R499" s="1"/>
       <c r="S499" s="1"/>
     </row>
-    <row r="500" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:19">
       <c r="A500" t="s">
         <v>1839</v>
       </c>
@@ -31404,7 +31438,7 @@
       <c r="R500" s="1"/>
       <c r="S500" s="1"/>
     </row>
-    <row r="501" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:19">
       <c r="A501" t="s">
         <v>1839</v>
       </c>
@@ -31455,7 +31489,7 @@
       <c r="R501" s="1"/>
       <c r="S501" s="1"/>
     </row>
-    <row r="502" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="502" spans="1:19">
       <c r="A502" t="s">
         <v>1839</v>
       </c>
@@ -31506,7 +31540,7 @@
       <c r="R502" s="1"/>
       <c r="S502" s="1"/>
     </row>
-    <row r="503" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="503" spans="1:19">
       <c r="A503" t="s">
         <v>1839</v>
       </c>
@@ -31557,7 +31591,7 @@
       <c r="R503" s="1"/>
       <c r="S503" s="1"/>
     </row>
-    <row r="504" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="504" spans="1:19">
       <c r="A504" t="s">
         <v>1839</v>
       </c>
@@ -31608,7 +31642,7 @@
       <c r="R504" s="1"/>
       <c r="S504" s="1"/>
     </row>
-    <row r="505" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="505" spans="1:19">
       <c r="A505" t="s">
         <v>1839</v>
       </c>
@@ -31659,7 +31693,7 @@
       <c r="R505" s="1"/>
       <c r="S505" s="1"/>
     </row>
-    <row r="506" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="506" spans="1:19">
       <c r="A506" t="s">
         <v>1839</v>
       </c>
@@ -31710,7 +31744,7 @@
       <c r="R506" s="1"/>
       <c r="S506" s="1"/>
     </row>
-    <row r="507" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="507" spans="1:19">
       <c r="A507" t="s">
         <v>1839</v>
       </c>
@@ -31761,7 +31795,7 @@
       <c r="R507" s="1"/>
       <c r="S507" s="1"/>
     </row>
-    <row r="508" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="508" spans="1:19">
       <c r="A508" t="s">
         <v>1839</v>
       </c>
@@ -31812,7 +31846,7 @@
       <c r="R508" s="1"/>
       <c r="S508" s="1"/>
     </row>
-    <row r="509" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="509" spans="1:19">
       <c r="A509" t="s">
         <v>1839</v>
       </c>
@@ -31863,7 +31897,7 @@
       <c r="R509" s="1"/>
       <c r="S509" s="1"/>
     </row>
-    <row r="510" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="510" spans="1:19">
       <c r="A510" t="s">
         <v>1839</v>
       </c>
@@ -31914,7 +31948,7 @@
       <c r="R510" s="1"/>
       <c r="S510" s="1"/>
     </row>
-    <row r="511" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="511" spans="1:19">
       <c r="A511" t="s">
         <v>1839</v>
       </c>
@@ -31965,7 +31999,7 @@
       <c r="R511" s="1"/>
       <c r="S511" s="1"/>
     </row>
-    <row r="512" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="512" spans="1:19">
       <c r="A512" t="s">
         <v>1839</v>
       </c>
@@ -32016,7 +32050,7 @@
       <c r="R512" s="1"/>
       <c r="S512" s="1"/>
     </row>
-    <row r="513" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="513" spans="1:19">
       <c r="A513" t="s">
         <v>1839</v>
       </c>
@@ -32067,7 +32101,7 @@
       <c r="R513" s="1"/>
       <c r="S513" s="1"/>
     </row>
-    <row r="514" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="514" spans="1:19">
       <c r="A514" t="s">
         <v>1839</v>
       </c>
@@ -32118,7 +32152,7 @@
       <c r="R514" s="1"/>
       <c r="S514" s="1"/>
     </row>
-    <row r="515" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="515" spans="1:19">
       <c r="A515" t="s">
         <v>1839</v>
       </c>
@@ -32169,7 +32203,7 @@
       <c r="R515" s="1"/>
       <c r="S515" s="1"/>
     </row>
-    <row r="516" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="516" spans="1:19">
       <c r="A516" t="s">
         <v>1839</v>
       </c>
@@ -32220,7 +32254,7 @@
       <c r="R516" s="1"/>
       <c r="S516" s="1"/>
     </row>
-    <row r="517" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="517" spans="1:19">
       <c r="A517" t="s">
         <v>1839</v>
       </c>
@@ -32271,7 +32305,7 @@
       <c r="R517" s="1"/>
       <c r="S517" s="1"/>
     </row>
-    <row r="518" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="518" spans="1:19">
       <c r="A518" t="s">
         <v>1839</v>
       </c>
@@ -32322,7 +32356,7 @@
       <c r="R518" s="1"/>
       <c r="S518" s="1"/>
     </row>
-    <row r="519" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="519" spans="1:19">
       <c r="A519" t="s">
         <v>1839</v>
       </c>
@@ -32373,7 +32407,7 @@
       <c r="R519" s="1"/>
       <c r="S519" s="1"/>
     </row>
-    <row r="520" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="520" spans="1:19">
       <c r="A520" t="s">
         <v>1839</v>
       </c>
@@ -32424,7 +32458,7 @@
       <c r="R520" s="1"/>
       <c r="S520" s="1"/>
     </row>
-    <row r="521" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="521" spans="1:19">
       <c r="A521" t="s">
         <v>1839</v>
       </c>
@@ -32475,7 +32509,7 @@
       <c r="R521" s="1"/>
       <c r="S521" s="1"/>
     </row>
-    <row r="522" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="522" spans="1:19">
       <c r="A522" t="s">
         <v>1839</v>
       </c>
@@ -32526,7 +32560,7 @@
       <c r="R522" s="1"/>
       <c r="S522" s="1"/>
     </row>
-    <row r="523" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="523" spans="1:19">
       <c r="A523" t="s">
         <v>1839</v>
       </c>
@@ -32577,7 +32611,7 @@
       <c r="R523" s="1"/>
       <c r="S523" s="1"/>
     </row>
-    <row r="524" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="524" spans="1:19">
       <c r="A524" t="s">
         <v>1839</v>
       </c>
@@ -32628,7 +32662,7 @@
       <c r="R524" s="1"/>
       <c r="S524" s="1"/>
     </row>
-    <row r="525" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="525" spans="1:19">
       <c r="A525" t="s">
         <v>1839</v>
       </c>
@@ -32679,7 +32713,7 @@
       <c r="R525" s="1"/>
       <c r="S525" s="1"/>
     </row>
-    <row r="526" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="526" spans="1:19">
       <c r="A526" t="s">
         <v>1839</v>
       </c>
@@ -32730,7 +32764,7 @@
       <c r="R526" s="1"/>
       <c r="S526" s="1"/>
     </row>
-    <row r="527" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="527" spans="1:19">
       <c r="A527" t="s">
         <v>1839</v>
       </c>
@@ -32781,7 +32815,7 @@
       <c r="R527" s="1"/>
       <c r="S527" s="1"/>
     </row>
-    <row r="528" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="528" spans="1:19">
       <c r="A528" t="s">
         <v>1839</v>
       </c>
@@ -32832,7 +32866,7 @@
       <c r="R528" s="1"/>
       <c r="S528" s="1"/>
     </row>
-    <row r="529" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="529" spans="1:19">
       <c r="A529" t="s">
         <v>1839</v>
       </c>
@@ -32883,7 +32917,7 @@
       <c r="R529" s="1"/>
       <c r="S529" s="1"/>
     </row>
-    <row r="530" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="530" spans="1:19">
       <c r="A530" t="s">
         <v>1839</v>
       </c>
@@ -32934,7 +32968,7 @@
       <c r="R530" s="1"/>
       <c r="S530" s="1"/>
     </row>
-    <row r="531" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="531" spans="1:19">
       <c r="A531" t="s">
         <v>1839</v>
       </c>
@@ -32985,7 +33019,7 @@
       <c r="R531" s="1"/>
       <c r="S531" s="1"/>
     </row>
-    <row r="532" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="532" spans="1:19">
       <c r="A532" t="s">
         <v>1839</v>
       </c>
@@ -33036,7 +33070,7 @@
       <c r="R532" s="1"/>
       <c r="S532" s="1"/>
     </row>
-    <row r="533" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="533" spans="1:19">
       <c r="A533" t="s">
         <v>1839</v>
       </c>
@@ -33087,7 +33121,7 @@
       <c r="R533" s="1"/>
       <c r="S533" s="1"/>
     </row>
-    <row r="534" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="534" spans="1:19">
       <c r="A534" t="s">
         <v>1839</v>
       </c>
@@ -33138,7 +33172,7 @@
       <c r="R534" s="1"/>
       <c r="S534" s="1"/>
     </row>
-    <row r="535" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="535" spans="1:19">
       <c r="A535" t="s">
         <v>1839</v>
       </c>
@@ -33189,7 +33223,7 @@
       <c r="R535" s="1"/>
       <c r="S535" s="1"/>
     </row>
-    <row r="536" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="536" spans="1:19">
       <c r="A536" t="s">
         <v>1839</v>
       </c>
@@ -33240,7 +33274,7 @@
       <c r="R536" s="1"/>
       <c r="S536" s="1"/>
     </row>
-    <row r="537" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="537" spans="1:19">
       <c r="A537" t="s">
         <v>1839</v>
       </c>
@@ -33291,7 +33325,7 @@
       <c r="R537" s="1"/>
       <c r="S537" s="1"/>
     </row>
-    <row r="538" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="538" spans="1:19">
       <c r="A538" t="s">
         <v>1839</v>
       </c>
@@ -33342,7 +33376,7 @@
       <c r="R538" s="1"/>
       <c r="S538" s="1"/>
     </row>
-    <row r="539" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="539" spans="1:19">
       <c r="A539" t="s">
         <v>1839</v>
       </c>
@@ -33393,7 +33427,7 @@
       <c r="R539" s="1"/>
       <c r="S539" s="1"/>
     </row>
-    <row r="540" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="540" spans="1:19">
       <c r="A540" t="s">
         <v>1839</v>
       </c>
@@ -33444,7 +33478,7 @@
       <c r="R540" s="1"/>
       <c r="S540" s="1"/>
     </row>
-    <row r="541" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="541" spans="1:19">
       <c r="A541" t="s">
         <v>1839</v>
       </c>
@@ -33495,7 +33529,7 @@
       <c r="R541" s="1"/>
       <c r="S541" s="1"/>
     </row>
-    <row r="542" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="542" spans="1:19">
       <c r="A542" t="s">
         <v>1839</v>
       </c>
@@ -33546,7 +33580,7 @@
       <c r="R542" s="1"/>
       <c r="S542" s="1"/>
     </row>
-    <row r="543" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="543" spans="1:19">
       <c r="A543" t="s">
         <v>1839</v>
       </c>
@@ -33597,7 +33631,7 @@
       <c r="R543" s="1"/>
       <c r="S543" s="1"/>
     </row>
-    <row r="544" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="544" spans="1:19">
       <c r="A544" t="s">
         <v>1839</v>
       </c>
@@ -33648,7 +33682,7 @@
       <c r="R544" s="1"/>
       <c r="S544" s="1"/>
     </row>
-    <row r="545" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="545" spans="1:19">
       <c r="A545" t="s">
         <v>1839</v>
       </c>
@@ -33699,7 +33733,7 @@
       <c r="R545" s="1"/>
       <c r="S545" s="1"/>
     </row>
-    <row r="546" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="546" spans="1:19">
       <c r="A546" t="s">
         <v>1839</v>
       </c>
@@ -33750,7 +33784,7 @@
       <c r="R546" s="1"/>
       <c r="S546" s="1"/>
     </row>
-    <row r="547" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="547" spans="1:19">
       <c r="A547" t="s">
         <v>1839</v>
       </c>
@@ -33801,7 +33835,7 @@
       <c r="R547" s="1"/>
       <c r="S547" s="1"/>
     </row>
-    <row r="548" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="548" spans="1:19">
       <c r="A548" t="s">
         <v>1839</v>
       </c>
@@ -33852,7 +33886,7 @@
       <c r="R548" s="1"/>
       <c r="S548" s="1"/>
     </row>
-    <row r="549" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="549" spans="1:19">
       <c r="A549" t="s">
         <v>1839</v>
       </c>
@@ -33903,7 +33937,7 @@
       <c r="R549" s="1"/>
       <c r="S549" s="1"/>
     </row>
-    <row r="550" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="550" spans="1:19">
       <c r="A550" t="s">
         <v>1839</v>
       </c>
@@ -33954,7 +33988,7 @@
       <c r="R550" s="1"/>
       <c r="S550" s="1"/>
     </row>
-    <row r="551" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="551" spans="1:19">
       <c r="A551" t="s">
         <v>1839</v>
       </c>
@@ -34005,7 +34039,7 @@
       <c r="R551" s="1"/>
       <c r="S551" s="1"/>
     </row>
-    <row r="552" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="552" spans="1:19">
       <c r="A552" t="s">
         <v>1839</v>
       </c>
@@ -34056,7 +34090,7 @@
       <c r="R552" s="1"/>
       <c r="S552" s="1"/>
     </row>
-    <row r="553" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="553" spans="1:19">
       <c r="A553" t="s">
         <v>1839</v>
       </c>
@@ -34107,7 +34141,7 @@
       <c r="R553" s="1"/>
       <c r="S553" s="1"/>
     </row>
-    <row r="554" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="554" spans="1:19">
       <c r="A554" t="s">
         <v>1839</v>
       </c>
@@ -34158,7 +34192,7 @@
       <c r="R554" s="1"/>
       <c r="S554" s="1"/>
     </row>
-    <row r="555" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="555" spans="1:19">
       <c r="A555" t="s">
         <v>1839</v>
       </c>
@@ -34209,7 +34243,7 @@
       <c r="R555" s="1"/>
       <c r="S555" s="1"/>
     </row>
-    <row r="556" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="556" spans="1:19">
       <c r="A556" t="s">
         <v>1839</v>
       </c>
@@ -34260,7 +34294,7 @@
       <c r="R556" s="1"/>
       <c r="S556" s="1"/>
     </row>
-    <row r="557" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="557" spans="1:19">
       <c r="A557" t="s">
         <v>1839</v>
       </c>
@@ -34311,7 +34345,7 @@
       <c r="R557" s="1"/>
       <c r="S557" s="1"/>
     </row>
-    <row r="558" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="558" spans="1:19">
       <c r="A558" t="s">
         <v>1839</v>
       </c>
@@ -34362,7 +34396,7 @@
       <c r="R558" s="1"/>
       <c r="S558" s="1"/>
     </row>
-    <row r="559" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="559" spans="1:19">
       <c r="A559" t="s">
         <v>1839</v>
       </c>
@@ -34413,7 +34447,7 @@
       <c r="R559" s="1"/>
       <c r="S559" s="1"/>
     </row>
-    <row r="560" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="560" spans="1:19">
       <c r="A560" t="s">
         <v>1839</v>
       </c>
@@ -34464,7 +34498,7 @@
       <c r="R560" s="1"/>
       <c r="S560" s="1"/>
     </row>
-    <row r="561" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="561" spans="1:19">
       <c r="A561" t="s">
         <v>1839</v>
       </c>
@@ -34515,7 +34549,7 @@
       <c r="R561" s="1"/>
       <c r="S561" s="1"/>
     </row>
-    <row r="562" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="562" spans="1:19">
       <c r="A562" t="s">
         <v>1839</v>
       </c>
@@ -34566,7 +34600,7 @@
       <c r="R562" s="1"/>
       <c r="S562" s="1"/>
     </row>
-    <row r="563" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="563" spans="1:19">
       <c r="A563" t="s">
         <v>1839</v>
       </c>
@@ -34617,7 +34651,7 @@
       <c r="R563" s="1"/>
       <c r="S563" s="1"/>
     </row>
-    <row r="564" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="564" spans="1:19">
       <c r="A564" t="s">
         <v>1839</v>
       </c>
@@ -34668,7 +34702,7 @@
       <c r="R564" s="1"/>
       <c r="S564" s="1"/>
     </row>
-    <row r="565" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="565" spans="1:19">
       <c r="A565" t="s">
         <v>1839</v>
       </c>
@@ -34719,7 +34753,7 @@
       <c r="R565" s="1"/>
       <c r="S565" s="1"/>
     </row>
-    <row r="566" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="566" spans="1:19">
       <c r="A566" t="s">
         <v>1839</v>
       </c>
@@ -34770,7 +34804,7 @@
       <c r="R566" s="1"/>
       <c r="S566" s="1"/>
     </row>
-    <row r="567" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="567" spans="1:19">
       <c r="A567" t="s">
         <v>1839</v>
       </c>
@@ -34821,7 +34855,7 @@
       <c r="R567" s="1"/>
       <c r="S567" s="1"/>
     </row>
-    <row r="568" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="568" spans="1:19">
       <c r="A568" t="s">
         <v>1839</v>
       </c>
@@ -34872,7 +34906,7 @@
       <c r="R568" s="1"/>
       <c r="S568" s="1"/>
     </row>
-    <row r="569" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="569" spans="1:19">
       <c r="A569" t="s">
         <v>1839</v>
       </c>
@@ -34923,7 +34957,7 @@
       <c r="R569" s="1"/>
       <c r="S569" s="1"/>
     </row>
-    <row r="570" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="570" spans="1:19">
       <c r="A570" t="s">
         <v>1839</v>
       </c>
@@ -34974,7 +35008,7 @@
       <c r="R570" s="1"/>
       <c r="S570" s="1"/>
     </row>
-    <row r="571" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="571" spans="1:19">
       <c r="A571" t="s">
         <v>1839</v>
       </c>
@@ -35025,7 +35059,7 @@
       <c r="R571" s="1"/>
       <c r="S571" s="1"/>
     </row>
-    <row r="572" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="572" spans="1:19">
       <c r="A572" t="s">
         <v>1839</v>
       </c>
@@ -35076,7 +35110,7 @@
       <c r="R572" s="1"/>
       <c r="S572" s="1"/>
     </row>
-    <row r="573" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="573" spans="1:19">
       <c r="A573" t="s">
         <v>1839</v>
       </c>
@@ -35127,7 +35161,7 @@
       <c r="R573" s="1"/>
       <c r="S573" s="1"/>
     </row>
-    <row r="574" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="574" spans="1:19">
       <c r="A574" t="s">
         <v>1839</v>
       </c>
@@ -35178,7 +35212,7 @@
       <c r="R574" s="1"/>
       <c r="S574" s="1"/>
     </row>
-    <row r="575" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="575" spans="1:19">
       <c r="A575" t="s">
         <v>1839</v>
       </c>
@@ -35229,7 +35263,7 @@
       <c r="R575" s="1"/>
       <c r="S575" s="1"/>
     </row>
-    <row r="576" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="576" spans="1:19">
       <c r="A576" t="s">
         <v>1839</v>
       </c>
@@ -35280,7 +35314,7 @@
       <c r="R576" s="1"/>
       <c r="S576" s="1"/>
     </row>
-    <row r="577" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="577" spans="1:19">
       <c r="A577" t="s">
         <v>1839</v>
       </c>
@@ -35331,7 +35365,7 @@
       <c r="R577" s="1"/>
       <c r="S577" s="1"/>
     </row>
-    <row r="578" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="578" spans="1:19">
       <c r="A578" t="s">
         <v>1839</v>
       </c>
@@ -35382,7 +35416,7 @@
       <c r="R578" s="1"/>
       <c r="S578" s="1"/>
     </row>
-    <row r="579" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="579" spans="1:19">
       <c r="A579" t="s">
         <v>1839</v>
       </c>
@@ -35433,7 +35467,7 @@
       <c r="R579" s="1"/>
       <c r="S579" s="1"/>
     </row>
-    <row r="580" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="580" spans="1:19">
       <c r="A580" t="s">
         <v>1839</v>
       </c>
@@ -35484,7 +35518,7 @@
       <c r="R580" s="1"/>
       <c r="S580" s="1"/>
     </row>
-    <row r="581" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="581" spans="1:19">
       <c r="A581" t="s">
         <v>1839</v>
       </c>
@@ -35535,7 +35569,7 @@
       <c r="R581" s="1"/>
       <c r="S581" s="1"/>
     </row>
-    <row r="582" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="582" spans="1:19">
       <c r="A582" t="s">
         <v>1839</v>
       </c>
@@ -35586,7 +35620,7 @@
       <c r="R582" s="1"/>
       <c r="S582" s="1"/>
     </row>
-    <row r="583" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="583" spans="1:19">
       <c r="A583" t="s">
         <v>1839</v>
       </c>
@@ -35637,7 +35671,7 @@
       <c r="R583" s="1"/>
       <c r="S583" s="1"/>
     </row>
-    <row r="584" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="584" spans="1:19">
       <c r="A584" t="s">
         <v>1839</v>
       </c>
@@ -35688,7 +35722,7 @@
       <c r="R584" s="1"/>
       <c r="S584" s="1"/>
     </row>
-    <row r="585" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="585" spans="1:19">
       <c r="A585" t="s">
         <v>1839</v>
       </c>
@@ -35739,7 +35773,7 @@
       <c r="R585" s="1"/>
       <c r="S585" s="1"/>
     </row>
-    <row r="586" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="586" spans="1:19">
       <c r="A586" t="s">
         <v>1839</v>
       </c>
@@ -35790,7 +35824,7 @@
       <c r="R586" s="1"/>
       <c r="S586" s="1"/>
     </row>
-    <row r="587" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="587" spans="1:19">
       <c r="A587" t="s">
         <v>1839</v>
       </c>
@@ -35841,7 +35875,7 @@
       <c r="R587" s="1"/>
       <c r="S587" s="1"/>
     </row>
-    <row r="588" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="588" spans="1:19">
       <c r="A588" t="s">
         <v>1839</v>
       </c>
@@ -35892,7 +35926,7 @@
       <c r="R588" s="1"/>
       <c r="S588" s="1"/>
     </row>
-    <row r="589" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="589" spans="1:19">
       <c r="A589" t="s">
         <v>1839</v>
       </c>
@@ -35943,7 +35977,7 @@
       <c r="R589" s="1"/>
       <c r="S589" s="1"/>
     </row>
-    <row r="590" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="590" spans="1:19">
       <c r="A590" t="s">
         <v>1839</v>
       </c>
@@ -35994,7 +36028,7 @@
       <c r="R590" s="1"/>
       <c r="S590" s="1"/>
     </row>
-    <row r="591" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="591" spans="1:19">
       <c r="A591" t="s">
         <v>1839</v>
       </c>
@@ -36045,7 +36079,7 @@
       <c r="R591" s="1"/>
       <c r="S591" s="1"/>
     </row>
-    <row r="592" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="592" spans="1:19">
       <c r="A592" t="s">
         <v>1839</v>
       </c>
@@ -36096,7 +36130,7 @@
       <c r="R592" s="1"/>
       <c r="S592" s="1"/>
     </row>
-    <row r="593" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="593" spans="1:19">
       <c r="A593" t="s">
         <v>1839</v>
       </c>
@@ -36147,7 +36181,7 @@
       <c r="R593" s="1"/>
       <c r="S593" s="1"/>
     </row>
-    <row r="594" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="594" spans="1:19">
       <c r="A594" t="s">
         <v>1839</v>
       </c>
@@ -36198,7 +36232,7 @@
       <c r="R594" s="1"/>
       <c r="S594" s="1"/>
     </row>
-    <row r="595" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="595" spans="1:19">
       <c r="A595" t="s">
         <v>1839</v>
       </c>
@@ -36249,7 +36283,7 @@
       <c r="R595" s="1"/>
       <c r="S595" s="1"/>
     </row>
-    <row r="596" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="596" spans="1:19">
       <c r="A596" t="s">
         <v>1839</v>
       </c>
@@ -36300,7 +36334,7 @@
       <c r="R596" s="1"/>
       <c r="S596" s="1"/>
     </row>
-    <row r="597" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="597" spans="1:19">
       <c r="A597" t="s">
         <v>1839</v>
       </c>
@@ -36351,7 +36385,7 @@
       <c r="R597" s="1"/>
       <c r="S597" s="1"/>
     </row>
-    <row r="598" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="598" spans="1:19">
       <c r="A598" t="s">
         <v>1839</v>
       </c>
@@ -36402,7 +36436,7 @@
       <c r="R598" s="1"/>
       <c r="S598" s="1"/>
     </row>
-    <row r="599" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="599" spans="1:19">
       <c r="A599" t="s">
         <v>1839</v>
       </c>
@@ -36453,7 +36487,7 @@
       <c r="R599" s="1"/>
       <c r="S599" s="1"/>
     </row>
-    <row r="600" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="600" spans="1:19">
       <c r="A600" t="s">
         <v>1839</v>
       </c>
@@ -36504,7 +36538,7 @@
       <c r="R600" s="1"/>
       <c r="S600" s="1"/>
     </row>
-    <row r="601" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="601" spans="1:19">
       <c r="A601" t="s">
         <v>1839</v>
       </c>
@@ -36555,7 +36589,7 @@
       <c r="R601" s="1"/>
       <c r="S601" s="1"/>
     </row>
-    <row r="602" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="602" spans="1:19">
       <c r="A602" t="s">
         <v>1839</v>
       </c>
@@ -36606,7 +36640,7 @@
       <c r="R602" s="1"/>
       <c r="S602" s="1"/>
     </row>
-    <row r="603" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="603" spans="1:19">
       <c r="A603" t="s">
         <v>1839</v>
       </c>
@@ -36657,7 +36691,7 @@
       <c r="R603" s="1"/>
       <c r="S603" s="1"/>
     </row>
-    <row r="604" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="604" spans="1:19">
       <c r="A604" t="s">
         <v>1839</v>
       </c>
@@ -36708,7 +36742,7 @@
       <c r="R604" s="1"/>
       <c r="S604" s="1"/>
     </row>
-    <row r="605" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="605" spans="1:19">
       <c r="A605" t="s">
         <v>1839</v>
       </c>
@@ -36759,7 +36793,7 @@
       <c r="R605" s="1"/>
       <c r="S605" s="1"/>
     </row>
-    <row r="606" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="606" spans="1:19">
       <c r="A606" t="s">
         <v>1839</v>
       </c>
@@ -36810,7 +36844,7 @@
       <c r="R606" s="1"/>
       <c r="S606" s="1"/>
     </row>
-    <row r="607" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="607" spans="1:19">
       <c r="A607" t="s">
         <v>1839</v>
       </c>
@@ -36861,7 +36895,7 @@
       <c r="R607" s="1"/>
       <c r="S607" s="1"/>
     </row>
-    <row r="608" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="608" spans="1:19">
       <c r="A608" t="s">
         <v>1839</v>
       </c>
@@ -36912,7 +36946,7 @@
       <c r="R608" s="1"/>
       <c r="S608" s="1"/>
     </row>
-    <row r="609" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="609" spans="1:19">
       <c r="A609" t="s">
         <v>1839</v>
       </c>
@@ -36963,7 +36997,7 @@
       <c r="R609" s="1"/>
       <c r="S609" s="1"/>
     </row>
-    <row r="610" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="610" spans="1:19">
       <c r="A610" t="s">
         <v>1839</v>
       </c>
@@ -37014,7 +37048,7 @@
       <c r="R610" s="1"/>
       <c r="S610" s="1"/>
     </row>
-    <row r="611" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="611" spans="1:19">
       <c r="A611" t="s">
         <v>1839</v>
       </c>
@@ -37065,7 +37099,7 @@
       <c r="R611" s="1"/>
       <c r="S611" s="1"/>
     </row>
-    <row r="612" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="612" spans="1:19">
       <c r="A612" t="s">
         <v>1839</v>
       </c>
@@ -37116,7 +37150,7 @@
       <c r="R612" s="1"/>
       <c r="S612" s="1"/>
     </row>
-    <row r="613" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="613" spans="1:19">
       <c r="A613" t="s">
         <v>1839</v>
       </c>
@@ -37167,7 +37201,7 @@
       <c r="R613" s="1"/>
       <c r="S613" s="1"/>
     </row>
-    <row r="614" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="614" spans="1:19">
       <c r="A614" t="s">
         <v>1839</v>
       </c>
@@ -37218,7 +37252,7 @@
       <c r="R614" s="1"/>
       <c r="S614" s="1"/>
     </row>
-    <row r="615" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="615" spans="1:19">
       <c r="A615" t="s">
         <v>1839</v>
       </c>
@@ -37269,7 +37303,7 @@
       <c r="R615" s="1"/>
       <c r="S615" s="1"/>
     </row>
-    <row r="616" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="616" spans="1:19">
       <c r="A616" t="s">
         <v>1839</v>
       </c>
@@ -37320,7 +37354,7 @@
       <c r="R616" s="1"/>
       <c r="S616" s="1"/>
     </row>
-    <row r="617" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="617" spans="1:19">
       <c r="A617" t="s">
         <v>1839</v>
       </c>
@@ -37371,7 +37405,7 @@
       <c r="R617" s="1"/>
       <c r="S617" s="1"/>
     </row>
-    <row r="618" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="618" spans="1:19">
       <c r="A618" t="s">
         <v>1839</v>
       </c>
@@ -37422,7 +37456,7 @@
       <c r="R618" s="1"/>
       <c r="S618" s="1"/>
     </row>
-    <row r="619" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="619" spans="1:19">
       <c r="A619" t="s">
         <v>1839</v>
       </c>
@@ -37473,7 +37507,7 @@
       <c r="R619" s="1"/>
       <c r="S619" s="1"/>
     </row>
-    <row r="620" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="620" spans="1:19">
       <c r="A620" t="s">
         <v>1839</v>
       </c>
@@ -37524,7 +37558,7 @@
       <c r="R620" s="1"/>
       <c r="S620" s="1"/>
     </row>
-    <row r="621" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="621" spans="1:19">
       <c r="A621" t="s">
         <v>1839</v>
       </c>
@@ -37575,7 +37609,7 @@
       <c r="R621" s="1"/>
       <c r="S621" s="1"/>
     </row>
-    <row r="622" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="622" spans="1:19">
       <c r="A622" t="s">
         <v>1839</v>
       </c>
@@ -37626,7 +37660,7 @@
       <c r="R622" s="1"/>
       <c r="S622" s="1"/>
     </row>
-    <row r="623" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="623" spans="1:19">
       <c r="A623" t="s">
         <v>1839</v>
       </c>
@@ -37677,7 +37711,7 @@
       <c r="R623" s="1"/>
       <c r="S623" s="1"/>
     </row>
-    <row r="624" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="624" spans="1:19">
       <c r="A624" t="s">
         <v>1839</v>
       </c>
@@ -37728,7 +37762,7 @@
       <c r="R624" s="1"/>
       <c r="S624" s="1"/>
     </row>
-    <row r="625" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="625" spans="1:19">
       <c r="A625" t="s">
         <v>1839</v>
       </c>
@@ -37779,7 +37813,7 @@
       <c r="R625" s="1"/>
       <c r="S625" s="1"/>
     </row>
-    <row r="626" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="626" spans="1:19">
       <c r="A626" t="s">
         <v>1839</v>
       </c>
@@ -37830,7 +37864,7 @@
       <c r="R626" s="1"/>
       <c r="S626" s="1"/>
     </row>
-    <row r="627" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="627" spans="1:19">
       <c r="A627" t="s">
         <v>1839</v>
       </c>
@@ -37881,7 +37915,7 @@
       <c r="R627" s="1"/>
       <c r="S627" s="1"/>
     </row>
-    <row r="628" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="628" spans="1:19">
       <c r="A628" t="s">
         <v>1839</v>
       </c>
@@ -37932,7 +37966,7 @@
       <c r="R628" s="1"/>
       <c r="S628" s="1"/>
     </row>
-    <row r="629" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="629" spans="1:19">
       <c r="A629" t="s">
         <v>1839</v>
       </c>
@@ -37983,7 +38017,7 @@
       <c r="R629" s="1"/>
       <c r="S629" s="1"/>
     </row>
-    <row r="630" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="630" spans="1:19">
       <c r="A630" t="s">
         <v>1839</v>
       </c>
@@ -38034,7 +38068,7 @@
       <c r="R630" s="1"/>
       <c r="S630" s="1"/>
     </row>
-    <row r="631" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="631" spans="1:19">
       <c r="A631" t="s">
         <v>1839</v>
       </c>
@@ -38085,7 +38119,7 @@
       <c r="R631" s="1"/>
       <c r="S631" s="1"/>
     </row>
-    <row r="632" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="632" spans="1:19">
       <c r="A632" t="s">
         <v>1839</v>
       </c>
@@ -38136,7 +38170,7 @@
       <c r="R632" s="1"/>
       <c r="S632" s="1"/>
     </row>
-    <row r="633" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="633" spans="1:19">
       <c r="A633" t="s">
         <v>1839</v>
       </c>
@@ -38187,7 +38221,7 @@
       <c r="R633" s="1"/>
       <c r="S633" s="1"/>
     </row>
-    <row r="634" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="634" spans="1:19">
       <c r="A634" t="s">
         <v>1839</v>
       </c>
@@ -38238,7 +38272,7 @@
       <c r="R634" s="1"/>
       <c r="S634" s="1"/>
     </row>
-    <row r="635" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="635" spans="1:19">
       <c r="A635" t="s">
         <v>1839</v>
       </c>
@@ -38289,7 +38323,7 @@
       <c r="R635" s="1"/>
       <c r="S635" s="1"/>
     </row>
-    <row r="636" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="636" spans="1:19">
       <c r="A636" t="s">
         <v>1839</v>
       </c>
@@ -38340,7 +38374,7 @@
       <c r="R636" s="1"/>
       <c r="S636" s="1"/>
     </row>
-    <row r="637" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="637" spans="1:19">
       <c r="A637" t="s">
         <v>1839</v>
       </c>
@@ -38391,7 +38425,7 @@
       <c r="R637" s="1"/>
       <c r="S637" s="1"/>
     </row>
-    <row r="638" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="638" spans="1:19">
       <c r="A638" t="s">
         <v>1839</v>
       </c>
@@ -38442,7 +38476,7 @@
       <c r="R638" s="1"/>
       <c r="S638" s="1"/>
     </row>
-    <row r="639" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="639" spans="1:19">
       <c r="A639" t="s">
         <v>1839</v>
       </c>
@@ -38493,7 +38527,7 @@
       <c r="R639" s="1"/>
       <c r="S639" s="1"/>
     </row>
-    <row r="640" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="640" spans="1:19">
       <c r="A640" t="s">
         <v>1839</v>
       </c>
@@ -38544,7 +38578,7 @@
       <c r="R640" s="1"/>
       <c r="S640" s="1"/>
     </row>
-    <row r="641" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="641" spans="1:19">
       <c r="A641" t="s">
         <v>1839</v>
       </c>
@@ -38595,7 +38629,7 @@
       <c r="R641" s="1"/>
       <c r="S641" s="1"/>
     </row>
-    <row r="642" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="642" spans="1:19">
       <c r="A642" t="s">
         <v>1839</v>
       </c>
@@ -38646,7 +38680,7 @@
       <c r="R642" s="1"/>
       <c r="S642" s="1"/>
     </row>
-    <row r="643" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="643" spans="1:19">
       <c r="A643" t="s">
         <v>1839</v>
       </c>
@@ -38697,7 +38731,7 @@
       <c r="R643" s="1"/>
       <c r="S643" s="1"/>
     </row>
-    <row r="644" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="644" spans="1:19">
       <c r="A644" t="s">
         <v>1839</v>
       </c>
@@ -38748,7 +38782,7 @@
       <c r="R644" s="1"/>
       <c r="S644" s="1"/>
     </row>
-    <row r="645" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="645" spans="1:19">
       <c r="A645" t="s">
         <v>1839</v>
       </c>
@@ -38799,7 +38833,7 @@
       <c r="R645" s="1"/>
       <c r="S645" s="1"/>
     </row>
-    <row r="646" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="646" spans="1:19">
       <c r="A646" t="s">
         <v>1839</v>
       </c>
@@ -38850,7 +38884,7 @@
       <c r="R646" s="1"/>
       <c r="S646" s="1"/>
     </row>
-    <row r="647" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="647" spans="1:19">
       <c r="A647" t="s">
         <v>1839</v>
       </c>
@@ -38901,7 +38935,7 @@
       <c r="R647" s="1"/>
       <c r="S647" s="1"/>
     </row>
-    <row r="648" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="648" spans="1:19">
       <c r="A648" t="s">
         <v>1839</v>
       </c>
@@ -38952,7 +38986,7 @@
       <c r="R648" s="1"/>
       <c r="S648" s="1"/>
     </row>
-    <row r="649" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="649" spans="1:19">
       <c r="A649" t="s">
         <v>1839</v>
       </c>
@@ -39003,7 +39037,7 @@
       <c r="R649" s="1"/>
       <c r="S649" s="1"/>
     </row>
-    <row r="650" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="650" spans="1:19">
       <c r="A650" t="s">
         <v>1839</v>
       </c>
@@ -39054,7 +39088,7 @@
       <c r="R650" s="1"/>
       <c r="S650" s="1"/>
     </row>
-    <row r="651" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="651" spans="1:19">
       <c r="A651" t="s">
         <v>1839</v>
       </c>
@@ -39105,7 +39139,7 @@
       <c r="R651" s="1"/>
       <c r="S651" s="1"/>
     </row>
-    <row r="652" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="652" spans="1:19">
       <c r="A652" t="s">
         <v>1839</v>
       </c>
@@ -39156,7 +39190,7 @@
       <c r="R652" s="1"/>
       <c r="S652" s="1"/>
     </row>
-    <row r="653" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="653" spans="1:19">
       <c r="A653" t="s">
         <v>1839</v>
       </c>
@@ -39207,7 +39241,7 @@
       <c r="R653" s="1"/>
       <c r="S653" s="1"/>
     </row>
-    <row r="654" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="654" spans="1:19">
       <c r="A654" t="s">
         <v>1839</v>
       </c>
@@ -39258,7 +39292,7 @@
       <c r="R654" s="1"/>
       <c r="S654" s="1"/>
     </row>
-    <row r="655" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="655" spans="1:19">
       <c r="A655" t="s">
         <v>1839</v>
       </c>
@@ -39309,7 +39343,7 @@
       <c r="R655" s="1"/>
       <c r="S655" s="1"/>
     </row>
-    <row r="656" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="656" spans="1:19">
       <c r="A656" t="s">
         <v>1839</v>
       </c>
@@ -39360,7 +39394,7 @@
       <c r="R656" s="1"/>
       <c r="S656" s="1"/>
     </row>
-    <row r="657" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="657" spans="1:19">
       <c r="A657" t="s">
         <v>1839</v>
       </c>
@@ -39411,7 +39445,7 @@
       <c r="R657" s="1"/>
       <c r="S657" s="1"/>
     </row>
-    <row r="658" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="658" spans="1:19">
       <c r="A658" t="s">
         <v>1839</v>
       </c>
@@ -39462,7 +39496,7 @@
       <c r="R658" s="1"/>
       <c r="S658" s="1"/>
     </row>
-    <row r="659" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="659" spans="1:19">
       <c r="A659" t="s">
         <v>1839</v>
       </c>
@@ -39513,7 +39547,7 @@
       <c r="R659" s="1"/>
       <c r="S659" s="1"/>
     </row>
-    <row r="660" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="660" spans="1:19">
       <c r="A660" t="s">
         <v>1839</v>
       </c>
@@ -39564,7 +39598,7 @@
       <c r="R660" s="1"/>
       <c r="S660" s="1"/>
     </row>
-    <row r="661" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="661" spans="1:19">
       <c r="A661" t="s">
         <v>1839</v>
       </c>
@@ -39615,7 +39649,7 @@
       <c r="R661" s="1"/>
       <c r="S661" s="1"/>
     </row>
-    <row r="662" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="662" spans="1:19">
       <c r="A662" t="s">
         <v>1839</v>
       </c>
@@ -39666,7 +39700,7 @@
       <c r="R662" s="1"/>
       <c r="S662" s="1"/>
     </row>
-    <row r="663" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="663" spans="1:19">
       <c r="A663" t="s">
         <v>1839</v>
       </c>
@@ -39717,7 +39751,7 @@
       <c r="R663" s="1"/>
       <c r="S663" s="1"/>
     </row>
-    <row r="664" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="664" spans="1:19">
       <c r="A664" t="s">
         <v>1839</v>
       </c>
@@ -39768,7 +39802,7 @@
       <c r="R664" s="1"/>
       <c r="S664" s="1"/>
     </row>
-    <row r="665" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="665" spans="1:19">
       <c r="A665" t="s">
         <v>1839</v>
       </c>
@@ -39819,7 +39853,7 @@
       <c r="R665" s="1"/>
       <c r="S665" s="1"/>
     </row>
-    <row r="666" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="666" spans="1:19">
       <c r="A666" t="s">
         <v>1839</v>
       </c>
@@ -39870,7 +39904,7 @@
       <c r="R666" s="1"/>
       <c r="S666" s="1"/>
     </row>
-    <row r="667" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="667" spans="1:19">
       <c r="A667" t="s">
         <v>1839</v>
       </c>
@@ -39921,7 +39955,7 @@
       <c r="R667" s="1"/>
       <c r="S667" s="1"/>
     </row>
-    <row r="668" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="668" spans="1:19">
       <c r="A668" t="s">
         <v>1839</v>
       </c>
@@ -39972,7 +40006,7 @@
       <c r="R668" s="1"/>
       <c r="S668" s="1"/>
     </row>
-    <row r="669" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="669" spans="1:19">
       <c r="A669" t="s">
         <v>1839</v>
       </c>
@@ -40023,7 +40057,7 @@
       <c r="R669" s="1"/>
       <c r="S669" s="1"/>
     </row>
-    <row r="670" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="670" spans="1:19">
       <c r="A670" t="s">
         <v>1839</v>
       </c>
@@ -40074,7 +40108,7 @@
       <c r="R670" s="1"/>
       <c r="S670" s="1"/>
     </row>
-    <row r="671" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="671" spans="1:19">
       <c r="A671" t="s">
         <v>1839</v>
       </c>
@@ -40125,7 +40159,7 @@
       <c r="R671" s="1"/>
       <c r="S671" s="1"/>
     </row>
-    <row r="672" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="672" spans="1:19">
       <c r="A672" t="s">
         <v>1839</v>
       </c>
@@ -40176,7 +40210,7 @@
       <c r="R672" s="1"/>
       <c r="S672" s="1"/>
     </row>
-    <row r="673" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="673" spans="1:19">
       <c r="A673" t="s">
         <v>1839</v>
       </c>
@@ -40227,7 +40261,7 @@
       <c r="R673" s="1"/>
       <c r="S673" s="1"/>
     </row>
-    <row r="674" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="674" spans="1:19">
       <c r="A674" t="s">
         <v>1839</v>
       </c>
@@ -40278,7 +40312,7 @@
       <c r="R674" s="1"/>
       <c r="S674" s="1"/>
     </row>
-    <row r="675" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="675" spans="1:19">
       <c r="A675" t="s">
         <v>1839</v>
       </c>
@@ -40329,7 +40363,7 @@
       <c r="R675" s="1"/>
       <c r="S675" s="1"/>
     </row>
-    <row r="676" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="676" spans="1:19">
       <c r="A676" t="s">
         <v>1839</v>
       </c>
@@ -40380,7 +40414,7 @@
       <c r="R676" s="1"/>
       <c r="S676" s="1"/>
     </row>
-    <row r="677" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="677" spans="1:19">
       <c r="A677" t="s">
         <v>1839</v>
       </c>
@@ -40431,7 +40465,7 @@
       <c r="R677" s="1"/>
       <c r="S677" s="1"/>
     </row>
-    <row r="678" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="678" spans="1:19">
       <c r="A678" t="s">
         <v>1839</v>
       </c>
@@ -40482,7 +40516,7 @@
       <c r="R678" s="1"/>
       <c r="S678" s="1"/>
     </row>
-    <row r="679" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="679" spans="1:19">
       <c r="A679" t="s">
         <v>1839</v>
       </c>
@@ -40533,7 +40567,7 @@
       <c r="R679" s="1"/>
       <c r="S679" s="1"/>
     </row>
-    <row r="680" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="680" spans="1:19">
       <c r="A680" t="s">
         <v>1839</v>
       </c>
@@ -40584,7 +40618,7 @@
       <c r="R680" s="1"/>
       <c r="S680" s="1"/>
     </row>
-    <row r="681" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="681" spans="1:19">
       <c r="A681" t="s">
         <v>1839</v>
       </c>
@@ -40635,7 +40669,7 @@
       <c r="R681" s="1"/>
       <c r="S681" s="1"/>
     </row>
-    <row r="682" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="682" spans="1:19">
       <c r="A682" t="s">
         <v>1839</v>
       </c>
@@ -40686,7 +40720,7 @@
       <c r="R682" s="1"/>
       <c r="S682" s="1"/>
     </row>
-    <row r="683" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="683" spans="1:19">
       <c r="A683" t="s">
         <v>1839</v>
       </c>
@@ -40737,7 +40771,7 @@
       <c r="R683" s="1"/>
       <c r="S683" s="1"/>
     </row>
-    <row r="684" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="684" spans="1:19">
       <c r="A684" t="s">
         <v>1839</v>
       </c>
@@ -40788,7 +40822,7 @@
       <c r="R684" s="1"/>
       <c r="S684" s="1"/>
     </row>
-    <row r="685" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="685" spans="1:19">
       <c r="A685" t="s">
         <v>1839</v>
       </c>
@@ -40839,7 +40873,7 @@
       <c r="R685" s="1"/>
       <c r="S685" s="1"/>
     </row>
-    <row r="686" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="686" spans="1:19">
       <c r="A686" t="s">
         <v>1839</v>
       </c>
@@ -40890,7 +40924,7 @@
       <c r="R686" s="1"/>
       <c r="S686" s="1"/>
     </row>
-    <row r="687" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="687" spans="1:19">
       <c r="A687" t="s">
         <v>1839</v>
       </c>
@@ -40941,7 +40975,7 @@
       <c r="R687" s="1"/>
       <c r="S687" s="1"/>
     </row>
-    <row r="688" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="688" spans="1:19">
       <c r="A688" t="s">
         <v>1839</v>
       </c>
@@ -40992,7 +41026,7 @@
       <c r="R688" s="1"/>
       <c r="S688" s="1"/>
     </row>
-    <row r="689" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="689" spans="1:19">
       <c r="A689" t="s">
         <v>1839</v>
       </c>
@@ -41043,7 +41077,7 @@
       <c r="R689" s="1"/>
       <c r="S689" s="1"/>
     </row>
-    <row r="690" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="690" spans="1:19">
       <c r="A690" t="s">
         <v>1839</v>
       </c>
@@ -41094,7 +41128,7 @@
       <c r="R690" s="1"/>
       <c r="S690" s="1"/>
     </row>
-    <row r="691" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="691" spans="1:19">
       <c r="A691" t="s">
         <v>1839</v>
       </c>
@@ -41145,7 +41179,7 @@
       <c r="R691" s="1"/>
       <c r="S691" s="1"/>
     </row>
-    <row r="692" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="692" spans="1:19">
       <c r="A692" t="s">
         <v>1839</v>
       </c>
@@ -41196,7 +41230,7 @@
       <c r="R692" s="1"/>
       <c r="S692" s="1"/>
     </row>
-    <row r="693" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="693" spans="1:19">
       <c r="A693" t="s">
         <v>1839</v>
       </c>
@@ -41247,7 +41281,7 @@
       <c r="R693" s="1"/>
       <c r="S693" s="1"/>
     </row>
-    <row r="694" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="694" spans="1:19">
       <c r="A694" t="s">
         <v>1839</v>
       </c>
@@ -41298,7 +41332,7 @@
       <c r="R694" s="1"/>
       <c r="S694" s="1"/>
     </row>
-    <row r="695" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="695" spans="1:19">
       <c r="A695" t="s">
         <v>1839</v>
       </c>
@@ -41349,7 +41383,7 @@
       <c r="R695" s="1"/>
       <c r="S695" s="1"/>
     </row>
-    <row r="696" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="696" spans="1:19">
       <c r="A696" t="s">
         <v>1839</v>
       </c>
@@ -41400,7 +41434,7 @@
       <c r="R696" s="1"/>
       <c r="S696" s="1"/>
     </row>
-    <row r="697" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="697" spans="1:19">
       <c r="A697" t="s">
         <v>1839</v>
       </c>
@@ -41451,7 +41485,7 @@
       <c r="R697" s="1"/>
       <c r="S697" s="1"/>
     </row>
-    <row r="698" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="698" spans="1:19">
       <c r="A698" t="s">
         <v>1839</v>
       </c>
@@ -41502,7 +41536,7 @@
       <c r="R698" s="1"/>
       <c r="S698" s="1"/>
     </row>
-    <row r="699" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="699" spans="1:19">
       <c r="A699" t="s">
         <v>1839</v>
       </c>
@@ -41553,7 +41587,7 @@
       <c r="R699" s="1"/>
       <c r="S699" s="1"/>
     </row>
-    <row r="700" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="700" spans="1:19">
       <c r="A700" t="s">
         <v>1839</v>
       </c>
@@ -41604,7 +41638,7 @@
       <c r="R700" s="1"/>
       <c r="S700" s="1"/>
     </row>
-    <row r="701" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="701" spans="1:19">
       <c r="A701" t="s">
         <v>1839</v>
       </c>
@@ -41655,7 +41689,7 @@
       <c r="R701" s="1"/>
       <c r="S701" s="1"/>
     </row>
-    <row r="702" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="702" spans="1:19">
       <c r="A702" t="s">
         <v>1839</v>
       </c>
@@ -41706,7 +41740,7 @@
       <c r="R702" s="1"/>
       <c r="S702" s="1"/>
     </row>
-    <row r="703" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="703" spans="1:19">
       <c r="A703" t="s">
         <v>1839</v>
       </c>
@@ -41757,7 +41791,7 @@
       <c r="R703" s="1"/>
       <c r="S703" s="1"/>
     </row>
-    <row r="704" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="704" spans="1:19">
       <c r="A704" t="s">
         <v>1839</v>
       </c>
@@ -41808,7 +41842,7 @@
       <c r="R704" s="1"/>
       <c r="S704" s="1"/>
     </row>
-    <row r="705" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="705" spans="1:19">
       <c r="A705" t="s">
         <v>1839</v>
       </c>
@@ -41859,7 +41893,7 @@
       <c r="R705" s="1"/>
       <c r="S705" s="1"/>
     </row>
-    <row r="706" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="706" spans="1:19">
       <c r="A706" t="s">
         <v>1839</v>
       </c>
@@ -41910,7 +41944,7 @@
       <c r="R706" s="1"/>
       <c r="S706" s="1"/>
     </row>
-    <row r="707" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="707" spans="1:19">
       <c r="A707" t="s">
         <v>1839</v>
       </c>
@@ -41961,7 +41995,7 @@
       <c r="R707" s="1"/>
       <c r="S707" s="1"/>
     </row>
-    <row r="708" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="708" spans="1:19">
       <c r="A708" t="s">
         <v>1839</v>
       </c>
@@ -42012,7 +42046,7 @@
       <c r="R708" s="1"/>
       <c r="S708" s="1"/>
     </row>
-    <row r="709" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="709" spans="1:19">
       <c r="A709" t="s">
         <v>1839</v>
       </c>
@@ -42063,7 +42097,7 @@
       <c r="R709" s="1"/>
       <c r="S709" s="1"/>
     </row>
-    <row r="710" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="710" spans="1:19">
       <c r="A710" t="s">
         <v>1839</v>
       </c>
@@ -42114,7 +42148,7 @@
       <c r="R710" s="1"/>
       <c r="S710" s="1"/>
     </row>
-    <row r="711" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="711" spans="1:19">
       <c r="A711" t="s">
         <v>1839</v>
       </c>
@@ -42165,7 +42199,7 @@
       <c r="R711" s="1"/>
       <c r="S711" s="1"/>
     </row>
-    <row r="712" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="712" spans="1:19">
       <c r="A712" t="s">
         <v>1839</v>
       </c>
@@ -42216,7 +42250,7 @@
       <c r="R712" s="1"/>
       <c r="S712" s="1"/>
     </row>
-    <row r="713" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="713" spans="1:19">
       <c r="A713" t="s">
         <v>1839</v>
       </c>
@@ -42267,7 +42301,7 @@
       <c r="R713" s="1"/>
       <c r="S713" s="1"/>
     </row>
-    <row r="714" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="714" spans="1:19">
       <c r="A714" t="s">
         <v>1839</v>
       </c>
@@ -42318,7 +42352,7 @@
       <c r="R714" s="1"/>
       <c r="S714" s="1"/>
     </row>
-    <row r="715" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="715" spans="1:19">
       <c r="A715" t="s">
         <v>1839</v>
       </c>
@@ -42369,7 +42403,7 @@
       <c r="R715" s="1"/>
       <c r="S715" s="1"/>
     </row>
-    <row r="716" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="716" spans="1:19">
       <c r="A716" t="s">
         <v>1839</v>
       </c>
@@ -42420,7 +42454,7 @@
       <c r="R716" s="1"/>
       <c r="S716" s="1"/>
     </row>
-    <row r="717" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="717" spans="1:19">
       <c r="A717" t="s">
         <v>1839</v>
       </c>
@@ -42471,7 +42505,7 @@
       <c r="R717" s="1"/>
       <c r="S717" s="1"/>
     </row>
-    <row r="718" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="718" spans="1:19">
       <c r="A718" t="s">
         <v>1839</v>
       </c>
@@ -42522,7 +42556,7 @@
       <c r="R718" s="1"/>
       <c r="S718" s="1"/>
     </row>
-    <row r="719" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="719" spans="1:19">
       <c r="A719" t="s">
         <v>1839</v>
       </c>
@@ -42573,7 +42607,7 @@
       <c r="R719" s="1"/>
       <c r="S719" s="1"/>
     </row>
-    <row r="720" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="720" spans="1:19">
       <c r="A720" t="s">
         <v>1839</v>
       </c>
@@ -42624,7 +42658,7 @@
       <c r="R720" s="1"/>
       <c r="S720" s="1"/>
     </row>
-    <row r="721" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="721" spans="1:19">
       <c r="A721" t="s">
         <v>1839</v>
       </c>
@@ -42675,7 +42709,7 @@
       <c r="R721" s="1"/>
       <c r="S721" s="1"/>
     </row>
-    <row r="722" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="722" spans="1:19">
       <c r="A722" t="s">
         <v>1839</v>
       </c>
@@ -42726,7 +42760,7 @@
       <c r="R722" s="1"/>
       <c r="S722" s="1"/>
     </row>
-    <row r="723" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="723" spans="1:19">
       <c r="A723" t="s">
         <v>1839</v>
       </c>
@@ -42777,7 +42811,7 @@
       <c r="R723" s="1"/>
       <c r="S723" s="1"/>
     </row>
-    <row r="724" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="724" spans="1:19">
       <c r="A724" t="s">
         <v>1839</v>
       </c>
@@ -42828,7 +42862,7 @@
       <c r="R724" s="1"/>
       <c r="S724" s="1"/>
     </row>
-    <row r="725" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="725" spans="1:19">
       <c r="A725" t="s">
         <v>1839</v>
       </c>
@@ -42879,7 +42913,7 @@
       <c r="R725" s="1"/>
       <c r="S725" s="1"/>
     </row>
-    <row r="726" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="726" spans="1:19">
       <c r="A726" t="s">
         <v>1839</v>
       </c>
@@ -42930,7 +42964,7 @@
       <c r="R726" s="1"/>
       <c r="S726" s="1"/>
     </row>
-    <row r="727" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="727" spans="1:19">
       <c r="A727" t="s">
         <v>1839</v>
       </c>
@@ -42981,7 +43015,7 @@
       <c r="R727" s="1"/>
       <c r="S727" s="1"/>
     </row>
-    <row r="728" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="728" spans="1:19">
       <c r="A728" t="s">
         <v>1839</v>
       </c>
@@ -43032,7 +43066,7 @@
       <c r="R728" s="1"/>
       <c r="S728" s="1"/>
     </row>
-    <row r="729" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="729" spans="1:19">
       <c r="A729" t="s">
         <v>1839</v>
       </c>
@@ -43083,7 +43117,7 @@
       <c r="R729" s="1"/>
       <c r="S729" s="1"/>
     </row>
-    <row r="730" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="730" spans="1:19">
       <c r="A730" t="s">
         <v>1839</v>
       </c>
@@ -43134,7 +43168,7 @@
       <c r="R730" s="1"/>
       <c r="S730" s="1"/>
     </row>
-    <row r="731" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="731" spans="1:19">
       <c r="A731" t="s">
         <v>1839</v>
       </c>
@@ -43185,7 +43219,7 @@
       <c r="R731" s="1"/>
       <c r="S731" s="1"/>
     </row>
-    <row r="732" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="732" spans="1:19">
       <c r="A732" t="s">
         <v>1839</v>
       </c>
@@ -43236,7 +43270,7 @@
       <c r="R732" s="1"/>
       <c r="S732" s="1"/>
     </row>
-    <row r="733" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="733" spans="1:19">
       <c r="A733" t="s">
         <v>1839</v>
       </c>
@@ -43287,7 +43321,7 @@
       <c r="R733" s="1"/>
       <c r="S733" s="1"/>
     </row>
-    <row r="734" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="734" spans="1:19">
       <c r="A734" t="s">
         <v>1839</v>
       </c>
@@ -43338,7 +43372,7 @@
       <c r="R734" s="1"/>
       <c r="S734" s="1"/>
     </row>
-    <row r="735" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="735" spans="1:19">
       <c r="A735" t="s">
         <v>1839</v>
       </c>
@@ -43389,7 +43423,7 @@
       <c r="R735" s="1"/>
       <c r="S735" s="1"/>
     </row>
-    <row r="736" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="736" spans="1:19">
       <c r="A736" t="s">
         <v>1839</v>
       </c>
@@ -43440,7 +43474,7 @@
       <c r="R736" s="1"/>
       <c r="S736" s="1"/>
     </row>
-    <row r="737" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="737" spans="1:19">
       <c r="A737" t="s">
         <v>1839</v>
       </c>
@@ -43491,7 +43525,7 @@
       <c r="R737" s="1"/>
       <c r="S737" s="1"/>
     </row>
-    <row r="738" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="738" spans="1:19">
       <c r="A738" t="s">
         <v>1839</v>
       </c>
@@ -43542,7 +43576,7 @@
       <c r="R738" s="1"/>
       <c r="S738" s="1"/>
     </row>
-    <row r="739" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="739" spans="1:19">
       <c r="A739" t="s">
         <v>1839</v>
       </c>
@@ -43593,7 +43627,7 @@
       <c r="R739" s="1"/>
       <c r="S739" s="1"/>
     </row>
-    <row r="740" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="740" spans="1:19">
       <c r="A740" t="s">
         <v>1839</v>
       </c>
@@ -43644,7 +43678,7 @@
       <c r="R740" s="1"/>
       <c r="S740" s="1"/>
     </row>
-    <row r="741" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="741" spans="1:19">
       <c r="A741" t="s">
         <v>1839</v>
       </c>
@@ -43695,7 +43729,7 @@
       <c r="R741" s="1"/>
       <c r="S741" s="1"/>
     </row>
-    <row r="742" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="742" spans="1:19">
       <c r="A742" t="s">
         <v>1839</v>
       </c>
@@ -43746,7 +43780,7 @@
       <c r="R742" s="1"/>
       <c r="S742" s="1"/>
     </row>
-    <row r="743" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="743" spans="1:19">
       <c r="A743" t="s">
         <v>1839</v>
       </c>
@@ -43797,7 +43831,7 @@
       <c r="R743" s="1"/>
       <c r="S743" s="1"/>
     </row>
-    <row r="744" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="744" spans="1:19">
       <c r="A744" t="s">
         <v>1839</v>
       </c>
@@ -43848,7 +43882,7 @@
       <c r="R744" s="1"/>
       <c r="S744" s="1"/>
     </row>
-    <row r="745" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="745" spans="1:19">
       <c r="A745" t="s">
         <v>1839</v>
       </c>
@@ -43899,7 +43933,7 @@
       <c r="R745" s="1"/>
       <c r="S745" s="1"/>
     </row>
-    <row r="746" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="746" spans="1:19">
       <c r="A746" t="s">
         <v>1839</v>
       </c>
@@ -43950,7 +43984,7 @@
       <c r="R746" s="1"/>
       <c r="S746" s="1"/>
     </row>
-    <row r="747" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="747" spans="1:19">
       <c r="A747" t="s">
         <v>1839</v>
       </c>
@@ -44001,7 +44035,7 @@
       <c r="R747" s="1"/>
       <c r="S747" s="1"/>
     </row>
-    <row r="748" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="748" spans="1:19">
       <c r="A748" t="s">
         <v>1839</v>
       </c>
@@ -44052,7 +44086,7 @@
       <c r="R748" s="1"/>
       <c r="S748" s="1"/>
     </row>
-    <row r="749" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="749" spans="1:19">
       <c r="A749" t="s">
         <v>1839</v>
       </c>
@@ -44103,7 +44137,7 @@
       <c r="R749" s="1"/>
       <c r="S749" s="1"/>
     </row>
-    <row r="750" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="750" spans="1:19">
       <c r="A750" t="s">
         <v>1839</v>
       </c>
@@ -44154,7 +44188,7 @@
       <c r="R750" s="1"/>
       <c r="S750" s="1"/>
     </row>
-    <row r="751" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="751" spans="1:19">
       <c r="A751" t="s">
         <v>1839</v>
       </c>
@@ -44205,7 +44239,7 @@
       <c r="R751" s="1"/>
       <c r="S751" s="1"/>
     </row>
-    <row r="752" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="752" spans="1:19">
       <c r="A752" t="s">
         <v>1839</v>
       </c>
@@ -44256,7 +44290,7 @@
       <c r="R752" s="1"/>
       <c r="S752" s="1"/>
     </row>
-    <row r="753" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="753" spans="1:19">
       <c r="A753" t="s">
         <v>1839</v>
       </c>
@@ -44307,7 +44341,7 @@
       <c r="R753" s="1"/>
       <c r="S753" s="1"/>
     </row>
-    <row r="754" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="754" spans="1:19">
       <c r="A754" t="s">
         <v>1839</v>
       </c>
@@ -44358,7 +44392,7 @@
       <c r="R754" s="1"/>
       <c r="S754" s="1"/>
     </row>
-    <row r="755" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="755" spans="1:19">
       <c r="A755" t="s">
         <v>1839</v>
       </c>
@@ -44409,7 +44443,7 @@
       <c r="R755" s="1"/>
       <c r="S755" s="1"/>
     </row>
-    <row r="756" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="756" spans="1:19">
       <c r="A756" t="s">
         <v>1839</v>
       </c>
@@ -44460,7 +44494,7 @@
       <c r="R756" s="1"/>
       <c r="S756" s="1"/>
     </row>
-    <row r="757" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="757" spans="1:19">
       <c r="A757" t="s">
         <v>1839</v>
       </c>
@@ -44511,7 +44545,7 @@
       <c r="R757" s="1"/>
       <c r="S757" s="1"/>
     </row>
-    <row r="758" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="758" spans="1:19">
       <c r="A758" t="s">
         <v>1839</v>
       </c>
@@ -44562,7 +44596,7 @@
       <c r="R758" s="1"/>
       <c r="S758" s="1"/>
     </row>
-    <row r="759" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="759" spans="1:19">
       <c r="A759" t="s">
         <v>1839</v>
       </c>
@@ -44613,7 +44647,7 @@
       <c r="R759" s="1"/>
       <c r="S759" s="1"/>
     </row>
-    <row r="760" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="760" spans="1:19">
       <c r="A760" t="s">
         <v>1839</v>
       </c>
@@ -44664,7 +44698,7 @@
       <c r="R760" s="1"/>
       <c r="S760" s="1"/>
     </row>
-    <row r="761" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="761" spans="1:19">
       <c r="A761" t="s">
         <v>1839</v>
       </c>
@@ -44715,7 +44749,7 @@
       <c r="R761" s="1"/>
       <c r="S761" s="1"/>
     </row>
-    <row r="762" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="762" spans="1:19">
       <c r="A762" t="s">
         <v>1839</v>
       </c>
@@ -44766,7 +44800,7 @@
       <c r="R762" s="1"/>
       <c r="S762" s="1"/>
     </row>
-    <row r="763" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="763" spans="1:19">
       <c r="A763" t="s">
         <v>1839</v>
       </c>
@@ -44817,7 +44851,7 @@
       <c r="R763" s="1"/>
       <c r="S763" s="1"/>
     </row>
-    <row r="764" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="764" spans="1:19">
       <c r="A764" t="s">
         <v>1839</v>
       </c>
@@ -44868,7 +44902,7 @@
       <c r="R764" s="1"/>
       <c r="S764" s="1"/>
     </row>
-    <row r="765" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="765" spans="1:19">
       <c r="A765" t="s">
         <v>1839</v>
       </c>
@@ -44919,7 +44953,7 @@
       <c r="R765" s="1"/>
       <c r="S765" s="1"/>
     </row>
-    <row r="766" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="766" spans="1:19">
       <c r="A766" t="s">
         <v>1839</v>
       </c>
@@ -44970,7 +45004,7 @@
       <c r="R766" s="1"/>
       <c r="S766" s="1"/>
     </row>
-    <row r="767" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="767" spans="1:19">
       <c r="A767" t="s">
         <v>1839</v>
       </c>
@@ -45021,7 +45055,7 @@
       <c r="R767" s="1"/>
       <c r="S767" s="1"/>
     </row>
-    <row r="768" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="768" spans="1:19">
       <c r="A768" t="s">
         <v>1839</v>
       </c>
@@ -45072,7 +45106,7 @@
       <c r="R768" s="1"/>
       <c r="S768" s="1"/>
     </row>
-    <row r="769" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="769" spans="1:19">
       <c r="A769" t="s">
         <v>1839</v>
       </c>
@@ -45123,7 +45157,7 @@
       <c r="R769" s="1"/>
       <c r="S769" s="1"/>
     </row>
-    <row r="770" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="770" spans="1:19">
       <c r="A770" t="s">
         <v>1839</v>
       </c>
@@ -45174,7 +45208,7 @@
       <c r="R770" s="1"/>
       <c r="S770" s="1"/>
     </row>
-    <row r="771" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="771" spans="1:19">
       <c r="A771" t="s">
         <v>1839</v>
       </c>
@@ -45225,7 +45259,7 @@
       <c r="R771" s="1"/>
       <c r="S771" s="1"/>
     </row>
-    <row r="772" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="772" spans="1:19">
       <c r="A772" t="s">
         <v>1839</v>
       </c>
@@ -45276,7 +45310,7 @@
       <c r="R772" s="1"/>
       <c r="S772" s="1"/>
     </row>
-    <row r="773" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="773" spans="1:19">
       <c r="A773" t="s">
         <v>1839</v>
       </c>
@@ -45327,7 +45361,7 @@
       <c r="R773" s="1"/>
       <c r="S773" s="1"/>
     </row>
-    <row r="774" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="774" spans="1:19">
       <c r="A774" t="s">
         <v>1839</v>
       </c>
@@ -45378,7 +45412,7 @@
       <c r="R774" s="1"/>
       <c r="S774" s="1"/>
     </row>
-    <row r="775" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="775" spans="1:19">
       <c r="A775" t="s">
         <v>1839</v>
       </c>
@@ -45429,7 +45463,7 @@
       <c r="R775" s="1"/>
       <c r="S775" s="1"/>
     </row>
-    <row r="776" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="776" spans="1:19">
       <c r="A776" t="s">
         <v>1839</v>
       </c>
@@ -45480,7 +45514,7 @@
       <c r="R776" s="1"/>
       <c r="S776" s="1"/>
     </row>
-    <row r="777" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="777" spans="1:19">
       <c r="A777" t="s">
         <v>1839</v>
       </c>
@@ -45531,7 +45565,7 @@
       <c r="R777" s="1"/>
       <c r="S777" s="1"/>
     </row>
-    <row r="778" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="778" spans="1:19">
       <c r="A778" t="s">
         <v>1839</v>
       </c>
@@ -45582,7 +45616,7 @@
       <c r="R778" s="1"/>
       <c r="S778" s="1"/>
     </row>
-    <row r="779" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="779" spans="1:19">
       <c r="A779" t="s">
         <v>1839</v>
       </c>
@@ -45633,7 +45667,7 @@
       <c r="R779" s="1"/>
       <c r="S779" s="1"/>
     </row>
-    <row r="780" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="780" spans="1:19">
       <c r="A780" t="s">
         <v>1839</v>
       </c>
@@ -45684,7 +45718,7 @@
       <c r="R780" s="1"/>
       <c r="S780" s="1"/>
     </row>
-    <row r="781" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="781" spans="1:19">
       <c r="A781" t="s">
         <v>1839</v>
       </c>
@@ -45735,7 +45769,7 @@
       <c r="R781" s="1"/>
       <c r="S781" s="1"/>
     </row>
-    <row r="782" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="782" spans="1:19">
       <c r="A782" t="s">
         <v>1839</v>
       </c>
@@ -45786,7 +45820,7 @@
       <c r="R782" s="1"/>
       <c r="S782" s="1"/>
     </row>
-    <row r="783" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="783" spans="1:19">
       <c r="A783" t="s">
         <v>1839</v>
       </c>
@@ -45837,7 +45871,7 @@
       <c r="R783" s="1"/>
       <c r="S783" s="1"/>
     </row>
-    <row r="784" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="784" spans="1:19">
       <c r="A784" t="s">
         <v>1839</v>
       </c>
@@ -45888,7 +45922,7 @@
       <c r="R784" s="1"/>
       <c r="S784" s="1"/>
     </row>
-    <row r="785" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="785" spans="1:19">
       <c r="A785" t="s">
         <v>1839</v>
       </c>
@@ -45939,7 +45973,7 @@
       <c r="R785" s="1"/>
       <c r="S785" s="1"/>
     </row>
-    <row r="786" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="786" spans="1:19">
       <c r="A786" t="s">
         <v>1839</v>
       </c>
@@ -45990,7 +46024,7 @@
       <c r="R786" s="1"/>
       <c r="S786" s="1"/>
     </row>
-    <row r="787" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="787" spans="1:19">
       <c r="A787" t="s">
         <v>1839</v>
       </c>
@@ -46041,7 +46075,7 @@
       <c r="R787" s="1"/>
       <c r="S787" s="1"/>
     </row>
-    <row r="788" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="788" spans="1:19">
       <c r="A788" t="s">
         <v>1839</v>
       </c>
@@ -46092,7 +46126,7 @@
       <c r="R788" s="1"/>
       <c r="S788" s="1"/>
     </row>
-    <row r="789" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="789" spans="1:19">
       <c r="A789" t="s">
         <v>1839</v>
       </c>
@@ -46143,7 +46177,7 @@
       <c r="R789" s="1"/>
       <c r="S789" s="1"/>
     </row>
-    <row r="790" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="790" spans="1:19">
       <c r="A790" t="s">
         <v>1839</v>
       </c>
@@ -46194,7 +46228,7 @@
       <c r="R790" s="1"/>
       <c r="S790" s="1"/>
     </row>
-    <row r="791" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="791" spans="1:19">
       <c r="A791" t="s">
         <v>1839</v>
       </c>
@@ -46245,7 +46279,7 @@
       <c r="R791" s="1"/>
       <c r="S791" s="1"/>
     </row>
-    <row r="792" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="792" spans="1:19">
       <c r="A792" t="s">
         <v>1839</v>
       </c>
@@ -46296,7 +46330,7 @@
       <c r="R792" s="1"/>
       <c r="S792" s="1"/>
     </row>
-    <row r="793" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="793" spans="1:19">
       <c r="A793" t="s">
         <v>1839</v>
       </c>
@@ -46347,7 +46381,7 @@
       <c r="R793" s="1"/>
       <c r="S793" s="1"/>
     </row>
-    <row r="794" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="794" spans="1:19">
       <c r="A794" t="s">
         <v>1839</v>
       </c>
@@ -46398,7 +46432,7 @@
       <c r="R794" s="1"/>
       <c r="S794" s="1"/>
     </row>
-    <row r="795" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="795" spans="1:19">
       <c r="A795" t="s">
         <v>1839</v>
       </c>
@@ -46449,7 +46483,7 @@
       <c r="R795" s="1"/>
       <c r="S795" s="1"/>
     </row>
-    <row r="796" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="796" spans="1:19">
       <c r="A796" t="s">
         <v>1839</v>
       </c>
@@ -46500,7 +46534,7 @@
       <c r="R796" s="1"/>
       <c r="S796" s="1"/>
     </row>
-    <row r="797" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="797" spans="1:19">
       <c r="A797" t="s">
         <v>1839</v>
       </c>
@@ -46551,7 +46585,7 @@
       <c r="R797" s="1"/>
       <c r="S797" s="1"/>
     </row>
-    <row r="798" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="798" spans="1:19">
       <c r="A798" t="s">
         <v>1839</v>
       </c>
@@ -46602,7 +46636,7 @@
       <c r="R798" s="1"/>
       <c r="S798" s="1"/>
     </row>
-    <row r="799" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="799" spans="1:19">
       <c r="A799" t="s">
         <v>1839</v>
       </c>
@@ -46653,7 +46687,7 @@
       <c r="R799" s="1"/>
       <c r="S799" s="1"/>
     </row>
-    <row r="800" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="800" spans="1:19">
       <c r="A800" t="s">
         <v>1839</v>
       </c>
@@ -46704,7 +46738,7 @@
       <c r="R800" s="1"/>
       <c r="S800" s="1"/>
     </row>
-    <row r="801" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="801" spans="1:19">
       <c r="A801" t="s">
         <v>1839</v>
       </c>
@@ -46755,7 +46789,7 @@
       <c r="R801" s="1"/>
       <c r="S801" s="1"/>
     </row>
-    <row r="802" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="802" spans="1:19">
       <c r="A802" t="s">
         <v>1839</v>
       </c>
@@ -46806,7 +46840,7 @@
       <c r="R802" s="1"/>
       <c r="S802" s="1"/>
     </row>
-    <row r="803" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="803" spans="1:19">
       <c r="A803" t="s">
         <v>1839</v>
       </c>
@@ -46857,7 +46891,7 @@
       <c r="R803" s="1"/>
       <c r="S803" s="1"/>
     </row>
-    <row r="804" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="804" spans="1:19">
       <c r="A804" t="s">
         <v>1839</v>
       </c>
@@ -46908,7 +46942,7 @@
       <c r="R804" s="1"/>
       <c r="S804" s="1"/>
     </row>
-    <row r="805" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="805" spans="1:19">
       <c r="A805" t="s">
         <v>1839</v>
       </c>
@@ -46959,7 +46993,7 @@
       <c r="R805" s="1"/>
       <c r="S805" s="1"/>
     </row>
-    <row r="806" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="806" spans="1:19">
       <c r="A806" t="s">
         <v>1839</v>
       </c>
@@ -47010,7 +47044,7 @@
       <c r="R806" s="1"/>
       <c r="S806" s="1"/>
     </row>
-    <row r="807" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="807" spans="1:19">
       <c r="A807" t="s">
         <v>1839</v>
       </c>
@@ -47061,7 +47095,7 @@
       <c r="R807" s="1"/>
       <c r="S807" s="1"/>
     </row>
-    <row r="808" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="808" spans="1:19">
       <c r="A808" t="s">
         <v>1839</v>
       </c>
@@ -47112,7 +47146,7 @@
       <c r="R808" s="1"/>
       <c r="S808" s="1"/>
     </row>
-    <row r="809" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="809" spans="1:19">
       <c r="A809" t="s">
         <v>1839</v>
       </c>
@@ -47163,7 +47197,7 @@
       <c r="R809" s="1"/>
       <c r="S809" s="1"/>
     </row>
-    <row r="810" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="810" spans="1:19">
       <c r="A810" t="s">
         <v>1839</v>
       </c>
@@ -47214,7 +47248,7 @@
       <c r="R810" s="1"/>
       <c r="S810" s="1"/>
     </row>
-    <row r="811" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="811" spans="1:19">
       <c r="A811" t="s">
         <v>1839</v>
       </c>
@@ -47265,7 +47299,7 @@
       <c r="R811" s="1"/>
       <c r="S811" s="1"/>
     </row>
-    <row r="812" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="812" spans="1:19">
       <c r="A812" t="s">
         <v>1839</v>
       </c>
@@ -47316,7 +47350,7 @@
       <c r="R812" s="1"/>
       <c r="S812" s="1"/>
     </row>
-    <row r="813" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="813" spans="1:19">
       <c r="A813" t="s">
         <v>1839</v>
       </c>
@@ -47367,7 +47401,7 @@
       <c r="R813" s="1"/>
       <c r="S813" s="1"/>
     </row>
-    <row r="814" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="814" spans="1:19">
       <c r="A814" t="s">
         <v>1839</v>
       </c>
@@ -47418,7 +47452,7 @@
       <c r="R814" s="1"/>
       <c r="S814" s="1"/>
     </row>
-    <row r="815" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="815" spans="1:19">
       <c r="A815" t="s">
         <v>1839</v>
       </c>
@@ -47469,7 +47503,7 @@
       <c r="R815" s="1"/>
       <c r="S815" s="1"/>
     </row>
-    <row r="816" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="816" spans="1:19">
       <c r="A816" t="s">
         <v>1839</v>
       </c>
@@ -47520,7 +47554,7 @@
       <c r="R816" s="1"/>
       <c r="S816" s="1"/>
     </row>
-    <row r="817" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="817" spans="1:19">
       <c r="A817" t="s">
         <v>1839</v>
       </c>
@@ -47571,7 +47605,7 @@
       <c r="R817" s="1"/>
       <c r="S817" s="1"/>
     </row>
-    <row r="818" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="818" spans="1:19">
       <c r="A818" t="s">
         <v>1839</v>
       </c>
@@ -47622,7 +47656,7 @@
       <c r="R818" s="1"/>
       <c r="S818" s="1"/>
     </row>
-    <row r="819" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="819" spans="1:19">
       <c r="A819" t="s">
         <v>1839</v>
       </c>
@@ -47673,7 +47707,7 @@
       <c r="R819" s="1"/>
       <c r="S819" s="1"/>
     </row>
-    <row r="820" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="820" spans="1:19">
       <c r="A820" t="s">
         <v>1839</v>
       </c>
@@ -47724,7 +47758,7 @@
       <c r="R820" s="1"/>
       <c r="S820" s="1"/>
     </row>
-    <row r="821" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="821" spans="1:19">
       <c r="A821" t="s">
         <v>1839</v>
       </c>
@@ -47775,7 +47809,7 @@
       <c r="R821" s="1"/>
       <c r="S821" s="1"/>
     </row>
-    <row r="822" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="822" spans="1:19">
       <c r="A822" t="s">
         <v>1839</v>
       </c>
@@ -47826,7 +47860,7 @@
       <c r="R822" s="1"/>
       <c r="S822" s="1"/>
     </row>
-    <row r="823" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="823" spans="1:19">
       <c r="A823" t="s">
         <v>1839</v>
       </c>
@@ -47877,7 +47911,7 @@
       <c r="R823" s="1"/>
       <c r="S823" s="1"/>
     </row>
-    <row r="824" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="824" spans="1:19">
       <c r="A824" t="s">
         <v>1839</v>
       </c>
@@ -47928,7 +47962,7 @@
       <c r="R824" s="1"/>
       <c r="S824" s="1"/>
     </row>
-    <row r="825" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="825" spans="1:19">
       <c r="A825" t="s">
         <v>1839</v>
       </c>
@@ -47979,7 +48013,7 @@
       <c r="R825" s="1"/>
       <c r="S825" s="1"/>
     </row>
-    <row r="826" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="826" spans="1:19">
       <c r="A826" t="s">
         <v>1839</v>
       </c>
@@ -48030,7 +48064,7 @@
       <c r="R826" s="1"/>
       <c r="S826" s="1"/>
     </row>
-    <row r="827" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="827" spans="1:19">
       <c r="A827" t="s">
         <v>1839</v>
       </c>
@@ -48081,7 +48115,7 @@
       <c r="R827" s="1"/>
       <c r="S827" s="1"/>
     </row>
-    <row r="828" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="828" spans="1:19">
       <c r="A828" t="s">
         <v>1839</v>
       </c>
@@ -48132,7 +48166,7 @@
       <c r="R828" s="1"/>
       <c r="S828" s="1"/>
     </row>
-    <row r="829" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="829" spans="1:19">
       <c r="A829" t="s">
         <v>1839</v>
       </c>
@@ -48183,7 +48217,7 @@
       <c r="R829" s="1"/>
       <c r="S829" s="1"/>
     </row>
-    <row r="830" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="830" spans="1:19">
       <c r="A830" t="s">
         <v>1839</v>
       </c>
@@ -48234,7 +48268,7 @@
       <c r="R830" s="1"/>
       <c r="S830" s="1"/>
     </row>
-    <row r="831" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="831" spans="1:19">
       <c r="A831" t="s">
         <v>1839</v>
       </c>
@@ -48285,7 +48319,7 @@
       <c r="R831" s="1"/>
       <c r="S831" s="1"/>
     </row>
-    <row r="832" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="832" spans="1:19">
       <c r="A832" t="s">
         <v>1839</v>
       </c>
@@ -48336,7 +48370,7 @@
       <c r="R832" s="1"/>
       <c r="S832" s="1"/>
     </row>
-    <row r="833" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="833" spans="1:19">
       <c r="A833" t="s">
         <v>1839</v>
       </c>
@@ -48387,7 +48421,7 @@
       <c r="R833" s="1"/>
       <c r="S833" s="1"/>
     </row>
-    <row r="834" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="834" spans="1:19">
       <c r="A834" t="s">
         <v>1839</v>
       </c>
@@ -48438,7 +48472,7 @@
       <c r="R834" s="1"/>
       <c r="S834" s="1"/>
     </row>
-    <row r="835" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="835" spans="1:19">
       <c r="A835" t="s">
         <v>1839</v>
       </c>
@@ -48489,7 +48523,7 @@
       <c r="R835" s="1"/>
       <c r="S835" s="1"/>
     </row>
-    <row r="836" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="836" spans="1:19">
       <c r="A836" t="s">
         <v>1839</v>
       </c>
@@ -48540,7 +48574,7 @@
       <c r="R836" s="1"/>
       <c r="S836" s="1"/>
     </row>
-    <row r="837" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="837" spans="1:19">
       <c r="A837" t="s">
         <v>1839</v>
       </c>
@@ -48591,7 +48625,7 @@
       <c r="R837" s="1"/>
       <c r="S837" s="1"/>
     </row>
-    <row r="838" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="838" spans="1:19">
       <c r="A838" t="s">
         <v>1839</v>
       </c>
@@ -48642,7 +48676,7 @@
       <c r="R838" s="1"/>
       <c r="S838" s="1"/>
     </row>
-    <row r="839" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="839" spans="1:19">
       <c r="A839" t="s">
         <v>1839</v>
       </c>
@@ -48693,7 +48727,7 @@
       <c r="R839" s="1"/>
       <c r="S839" s="1"/>
     </row>
-    <row r="840" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="840" spans="1:19">
       <c r="A840" t="s">
         <v>1839</v>
       </c>
@@ -48744,7 +48778,7 @@
       <c r="R840" s="1"/>
       <c r="S840" s="1"/>
     </row>
-    <row r="841" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="841" spans="1:19">
       <c r="A841" t="s">
         <v>1839</v>
       </c>
@@ -48795,7 +48829,7 @@
       <c r="R841" s="1"/>
       <c r="S841" s="1"/>
     </row>
-    <row r="842" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="842" spans="1:19">
       <c r="A842" t="s">
         <v>1839</v>
       </c>
@@ -48846,7 +48880,7 @@
       <c r="R842" s="1"/>
       <c r="S842" s="1"/>
     </row>
-    <row r="843" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="843" spans="1:19">
       <c r="A843" t="s">
         <v>1839</v>
       </c>
@@ -48897,7 +48931,7 @@
       <c r="R843" s="1"/>
       <c r="S843" s="1"/>
     </row>
-    <row r="844" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="844" spans="1:19">
       <c r="A844" t="s">
         <v>1839</v>
       </c>
@@ -48948,7 +48982,7 @@
       <c r="R844" s="1"/>
       <c r="S844" s="1"/>
     </row>
-    <row r="845" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="845" spans="1:19">
       <c r="A845" t="s">
         <v>1839</v>
       </c>
@@ -48999,7 +49033,7 @@
       <c r="R845" s="1"/>
       <c r="S845" s="1"/>
     </row>
-    <row r="846" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="846" spans="1:19">
       <c r="A846" t="s">
         <v>1839</v>
       </c>
@@ -49050,7 +49084,7 @@
       <c r="R846" s="1"/>
       <c r="S846" s="1"/>
     </row>
-    <row r="847" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="847" spans="1:19">
       <c r="A847" t="s">
         <v>1839</v>
       </c>
@@ -49101,7 +49135,7 @@
       <c r="R847" s="1"/>
       <c r="S847" s="1"/>
     </row>
-    <row r="848" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="848" spans="1:19">
       <c r="A848" t="s">
         <v>1839</v>
       </c>
@@ -49152,7 +49186,7 @@
       <c r="R848" s="1"/>
       <c r="S848" s="1"/>
     </row>
-    <row r="849" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="849" spans="1:19">
       <c r="A849" t="s">
         <v>1839</v>
       </c>
@@ -49203,7 +49237,7 @@
       <c r="R849" s="1"/>
       <c r="S849" s="1"/>
     </row>
-    <row r="850" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="850" spans="1:19">
       <c r="A850" t="s">
         <v>1839</v>
       </c>
@@ -49254,7 +49288,7 @@
       <c r="R850" s="1"/>
       <c r="S850" s="1"/>
     </row>
-    <row r="851" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="851" spans="1:19">
       <c r="A851" t="s">
         <v>1839</v>
       </c>
@@ -49305,7 +49339,7 @@
       <c r="R851" s="1"/>
       <c r="S851" s="1"/>
     </row>
-    <row r="852" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="852" spans="1:19">
       <c r="A852" t="s">
         <v>1839</v>
       </c>
@@ -49356,7 +49390,7 @@
       <c r="R852" s="1"/>
       <c r="S852" s="1"/>
     </row>
-    <row r="853" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="853" spans="1:19">
       <c r="A853" t="s">
         <v>1839</v>
       </c>
@@ -49407,7 +49441,7 @@
       <c r="R853" s="1"/>
       <c r="S853" s="1"/>
     </row>
-    <row r="854" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="854" spans="1:19">
       <c r="A854" t="s">
         <v>1839</v>
       </c>
@@ -49458,7 +49492,7 @@
       <c r="R854" s="1"/>
       <c r="S854" s="1"/>
     </row>
-    <row r="855" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="855" spans="1:19">
       <c r="A855" t="s">
         <v>1839</v>
       </c>
@@ -49509,7 +49543,7 @@
       <c r="R855" s="1"/>
       <c r="S855" s="1"/>
     </row>
-    <row r="856" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="856" spans="1:19">
       <c r="A856" t="s">
         <v>1839</v>
       </c>
@@ -49560,7 +49594,7 @@
       <c r="R856" s="1"/>
       <c r="S856" s="1"/>
     </row>
-    <row r="857" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="857" spans="1:19">
       <c r="A857" t="s">
         <v>1839</v>
       </c>
@@ -49611,7 +49645,7 @@
       <c r="R857" s="1"/>
       <c r="S857" s="1"/>
     </row>
-    <row r="858" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="858" spans="1:19">
       <c r="A858" t="s">
         <v>1839</v>
       </c>
@@ -49662,7 +49696,7 @@
       <c r="R858" s="1"/>
       <c r="S858" s="1"/>
     </row>
-    <row r="859" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="859" spans="1:19">
       <c r="A859" t="s">
         <v>1839</v>
       </c>
@@ -49713,7 +49747,7 @@
       <c r="R859" s="1"/>
       <c r="S859" s="1"/>
     </row>
-    <row r="860" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="860" spans="1:19">
       <c r="A860" t="s">
         <v>1839</v>
       </c>
@@ -49764,7 +49798,7 @@
       <c r="R860" s="1"/>
       <c r="S860" s="1"/>
     </row>
-    <row r="861" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="861" spans="1:19">
       <c r="A861" t="s">
         <v>1839</v>
       </c>
@@ -49815,7 +49849,7 @@
       <c r="R861" s="1"/>
       <c r="S861" s="1"/>
     </row>
-    <row r="862" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="862" spans="1:19">
       <c r="A862" t="s">
         <v>1839</v>
       </c>
@@ -49866,7 +49900,7 @@
       <c r="R862" s="1"/>
       <c r="S862" s="1"/>
     </row>
-    <row r="863" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="863" spans="1:19">
       <c r="A863" t="s">
         <v>1839</v>
       </c>
@@ -49917,7 +49951,7 @@
       <c r="R863" s="1"/>
       <c r="S863" s="1"/>
     </row>
-    <row r="864" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="864" spans="1:19">
       <c r="A864" t="s">
         <v>1839</v>
       </c>
@@ -49968,7 +50002,7 @@
       <c r="R864" s="1"/>
       <c r="S864" s="1"/>
     </row>
-    <row r="865" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="865" spans="1:19">
       <c r="A865" t="s">
         <v>1839</v>
       </c>
@@ -50019,7 +50053,7 @@
       <c r="R865" s="1"/>
       <c r="S865" s="1"/>
     </row>
-    <row r="866" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="866" spans="1:19">
       <c r="A866" t="s">
         <v>1839</v>
       </c>
@@ -50070,7 +50104,7 @@
       <c r="R866" s="1"/>
       <c r="S866" s="1"/>
     </row>
-    <row r="867" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="867" spans="1:19">
       <c r="A867" t="s">
         <v>1839</v>
       </c>
@@ -50121,7 +50155,7 @@
       <c r="R867" s="1"/>
       <c r="S867" s="1"/>
     </row>
-    <row r="868" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="868" spans="1:19">
       <c r="A868" t="s">
         <v>1839</v>
       </c>
@@ -50172,7 +50206,7 @@
       <c r="R868" s="1"/>
       <c r="S868" s="1"/>
     </row>
-    <row r="869" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="869" spans="1:19">
       <c r="A869" t="s">
         <v>1839</v>
       </c>
@@ -50223,7 +50257,7 @@
       <c r="R869" s="1"/>
       <c r="S869" s="1"/>
     </row>
-    <row r="870" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="870" spans="1:19">
       <c r="A870" t="s">
         <v>1839</v>
       </c>
@@ -50274,7 +50308,7 @@
       <c r="R870" s="1"/>
       <c r="S870" s="1"/>
     </row>
-    <row r="871" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="871" spans="1:19">
       <c r="A871" t="s">
         <v>1839</v>
       </c>
@@ -50325,7 +50359,7 @@
       <c r="R871" s="1"/>
       <c r="S871" s="1"/>
     </row>
-    <row r="872" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="872" spans="1:19">
       <c r="A872" t="s">
         <v>1839</v>
       </c>
@@ -50376,7 +50410,7 @@
       <c r="R872" s="1"/>
       <c r="S872" s="1"/>
     </row>
-    <row r="873" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="873" spans="1:19">
       <c r="A873" t="s">
         <v>1839</v>
       </c>
@@ -50427,7 +50461,7 @@
       <c r="R873" s="1"/>
       <c r="S873" s="1"/>
     </row>
-    <row r="874" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="874" spans="1:19">
       <c r="A874" t="s">
         <v>1839</v>
       </c>
@@ -50478,7 +50512,7 @@
       <c r="R874" s="1"/>
       <c r="S874" s="1"/>
     </row>
-    <row r="875" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="875" spans="1:19">
       <c r="A875" t="s">
         <v>1839</v>
       </c>
@@ -50529,7 +50563,7 @@
       <c r="R875" s="1"/>
       <c r="S875" s="1"/>
     </row>
-    <row r="876" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="876" spans="1:19">
       <c r="A876" t="s">
         <v>1839</v>
       </c>
@@ -50580,7 +50614,7 @@
       <c r="R876" s="1"/>
       <c r="S876" s="1"/>
     </row>
-    <row r="877" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="877" spans="1:19">
       <c r="A877" t="s">
         <v>1839</v>
       </c>
@@ -50631,7 +50665,7 @@
       <c r="R877" s="1"/>
       <c r="S877" s="1"/>
     </row>
-    <row r="878" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="878" spans="1:19">
       <c r="A878" t="s">
         <v>1839</v>
       </c>
@@ -50682,7 +50716,7 @@
       <c r="R878" s="1"/>
       <c r="S878" s="1"/>
     </row>
-    <row r="879" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="879" spans="1:19">
       <c r="A879" t="s">
         <v>1839</v>
       </c>
@@ -50733,7 +50767,7 @@
       <c r="R879" s="1"/>
       <c r="S879" s="1"/>
     </row>
-    <row r="880" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="880" spans="1:19">
       <c r="A880" t="s">
         <v>1839</v>
       </c>
@@ -50784,7 +50818,7 @@
       <c r="R880" s="1"/>
       <c r="S880" s="1"/>
     </row>
-    <row r="881" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="881" spans="1:19">
       <c r="A881" t="s">
         <v>1839</v>
       </c>
@@ -50835,7 +50869,7 @@
       <c r="R881" s="1"/>
       <c r="S881" s="1"/>
     </row>
-    <row r="882" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="882" spans="1:19">
       <c r="A882" t="s">
         <v>1839</v>
       </c>
@@ -50886,7 +50920,7 @@
       <c r="R882" s="1"/>
       <c r="S882" s="1"/>
     </row>
-    <row r="883" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="883" spans="1:19">
       <c r="A883" t="s">
         <v>1839</v>
       </c>
@@ -50937,7 +50971,7 @@
       <c r="R883" s="1"/>
       <c r="S883" s="1"/>
     </row>
-    <row r="884" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="884" spans="1:19">
       <c r="A884" t="s">
         <v>1839</v>
       </c>
@@ -50988,7 +51022,7 @@
       <c r="R884" s="1"/>
       <c r="S884" s="1"/>
     </row>
-    <row r="885" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="885" spans="1:19">
       <c r="A885" t="s">
         <v>1839</v>
       </c>
@@ -51039,7 +51073,7 @@
       <c r="R885" s="1"/>
       <c r="S885" s="1"/>
     </row>
-    <row r="886" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="886" spans="1:19">
       <c r="A886" t="s">
         <v>1839</v>
       </c>
@@ -51090,7 +51124,7 @@
       <c r="R886" s="1"/>
       <c r="S886" s="1"/>
     </row>
-    <row r="887" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="887" spans="1:19">
       <c r="A887" t="s">
         <v>1839</v>
       </c>
@@ -51141,7 +51175,7 @@
       <c r="R887" s="1"/>
       <c r="S887" s="1"/>
     </row>
-    <row r="888" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="888" spans="1:19">
       <c r="A888" t="s">
         <v>1839</v>
       </c>
@@ -51192,7 +51226,7 @@
       <c r="R888" s="1"/>
       <c r="S888" s="1"/>
     </row>
-    <row r="889" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="889" spans="1:19">
       <c r="A889" t="s">
         <v>1839</v>
       </c>
@@ -51243,7 +51277,7 @@
       <c r="R889" s="1"/>
       <c r="S889" s="1"/>
     </row>
-    <row r="890" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="890" spans="1:19">
       <c r="A890" t="s">
         <v>1839</v>
       </c>
@@ -51294,7 +51328,7 @@
       <c r="R890" s="1"/>
       <c r="S890" s="1"/>
     </row>
-    <row r="891" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="891" spans="1:19">
       <c r="A891" t="s">
         <v>1839</v>
       </c>
@@ -51345,7 +51379,7 @@
       <c r="R891" s="1"/>
       <c r="S891" s="1"/>
     </row>
-    <row r="892" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="892" spans="1:19">
       <c r="A892" t="s">
         <v>1839</v>
       </c>
@@ -51396,7 +51430,7 @@
       <c r="R892" s="1"/>
       <c r="S892" s="1"/>
     </row>
-    <row r="893" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="893" spans="1:19">
       <c r="A893" t="s">
         <v>1839</v>
       </c>
@@ -51447,7 +51481,7 @@
       <c r="R893" s="1"/>
       <c r="S893" s="1"/>
     </row>
-    <row r="894" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="894" spans="1:19">
       <c r="A894" t="s">
         <v>1839</v>
       </c>
@@ -51498,7 +51532,7 @@
       <c r="R894" s="1"/>
       <c r="S894" s="1"/>
     </row>
-    <row r="895" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="895" spans="1:19">
       <c r="A895" t="s">
         <v>1839</v>
       </c>
@@ -51549,7 +51583,7 @@
       <c r="R895" s="1"/>
       <c r="S895" s="1"/>
     </row>
-    <row r="896" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="896" spans="1:19">
       <c r="A896" t="s">
         <v>1839</v>
       </c>
@@ -51600,7 +51634,7 @@
       <c r="R896" s="1"/>
       <c r="S896" s="1"/>
     </row>
-    <row r="897" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="897" spans="1:19">
       <c r="A897" t="s">
         <v>1839</v>
       </c>
@@ -51651,7 +51685,7 @@
       <c r="R897" s="1"/>
       <c r="S897" s="1"/>
     </row>
-    <row r="898" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="898" spans="1:19">
       <c r="A898" t="s">
         <v>1839</v>
       </c>
@@ -51702,7 +51736,7 @@
       <c r="R898" s="1"/>
       <c r="S898" s="1"/>
     </row>
-    <row r="899" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="899" spans="1:19">
       <c r="A899" t="s">
         <v>1839</v>
       </c>
@@ -51753,7 +51787,7 @@
       <c r="R899" s="1"/>
       <c r="S899" s="1"/>
     </row>
-    <row r="900" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="900" spans="1:19">
       <c r="A900" t="s">
         <v>1839</v>
       </c>
@@ -51804,7 +51838,7 @@
       <c r="R900" s="1"/>
       <c r="S900" s="1"/>
     </row>
-    <row r="901" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="901" spans="1:19">
       <c r="A901" t="s">
         <v>1839</v>
       </c>
@@ -51855,7 +51889,7 @@
       <c r="R901" s="1"/>
       <c r="S901" s="1"/>
     </row>
-    <row r="902" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="902" spans="1:19">
       <c r="A902" t="s">
         <v>1839</v>
       </c>
@@ -51906,7 +51940,7 @@
       <c r="R902" s="1"/>
       <c r="S902" s="1"/>
     </row>
-    <row r="903" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="903" spans="1:19">
       <c r="A903" t="s">
         <v>1839</v>
       </c>
@@ -51957,7 +51991,7 @@
       <c r="R903" s="1"/>
       <c r="S903" s="1"/>
     </row>
-    <row r="904" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="904" spans="1:19">
       <c r="A904" t="s">
         <v>1839</v>
       </c>
@@ -52008,7 +52042,7 @@
       <c r="R904" s="1"/>
       <c r="S904" s="1"/>
     </row>
-    <row r="905" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="905" spans="1:19">
       <c r="A905" t="s">
         <v>1839</v>
       </c>
@@ -52059,7 +52093,7 @@
       <c r="R905" s="1"/>
       <c r="S905" s="1"/>
     </row>
-    <row r="906" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="906" spans="1:19">
       <c r="A906" t="s">
         <v>1839</v>
       </c>
@@ -52110,7 +52144,7 @@
       <c r="R906" s="1"/>
       <c r="S906" s="1"/>
     </row>
-    <row r="907" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="907" spans="1:19">
       <c r="A907" t="s">
         <v>1839</v>
       </c>
@@ -52161,7 +52195,7 @@
       <c r="R907" s="1"/>
       <c r="S907" s="1"/>
     </row>
-    <row r="908" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="908" spans="1:19">
       <c r="A908" t="s">
         <v>1839</v>
       </c>
@@ -52212,7 +52246,7 @@
       <c r="R908" s="1"/>
       <c r="S908" s="1"/>
     </row>
-    <row r="909" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="909" spans="1:19">
       <c r="A909" t="s">
         <v>1839</v>
       </c>
@@ -52263,7 +52297,7 @@
       <c r="R909" s="1"/>
       <c r="S909" s="1"/>
     </row>
-    <row r="910" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="910" spans="1:19">
       <c r="A910" t="s">
         <v>1839</v>
       </c>
@@ -52314,7 +52348,7 @@
       <c r="R910" s="1"/>
       <c r="S910" s="1"/>
     </row>
-    <row r="911" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="911" spans="1:19">
       <c r="A911" t="s">
         <v>1839</v>
       </c>
@@ -52367,7 +52401,10 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="P2" r:id="rId1" display="http://www.modetour.com/event/event_18/1105_mega/mode.aspx?EKAMS=naver.692.2099.23512.1027578.520288719&amp;trackingDays=30&amp;utm_source=naver_pc&amp;utm_medium=cpc&amp;utm_term=%EB%AA%A8%EB%91%90%ED%88%AC%EC%96%B4%ED%8C%A8%ED%82%A4%EC%A7%80%EC%97%AC%ED%96%89&amp;utm_campaign=pkg&amp;src=naver_ll&amp;kw=0714C8&amp;nac_md=naver_ll&amp;nac_cpi=10&amp;nac_kw=%EB%AA%A8%EB%91%90%ED%88%AC%EC%96%B4%ED%8C%A8%ED%82%A4%EC%A7%80%EC%97%AC%ED%96%89&amp;mrk=%EB%AA%A8%EB%91%90%ED%88%AC%EC%96%B4%ED%8C%A8%ED%82%A4%EC%A7%80%EC%97%AC%ED%96%89&amp;mr1=01&amp;mr2=01&amp;mr3=01" xr:uid="{22BA1CE6-AC1B-944D-84AB-AE7201C87308}"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId2"/>
 </worksheet>
 </file>